--- a/py/apps/web-scraper/Final/Learning Track.xlsx
+++ b/py/apps/web-scraper/Final/Learning Track.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099323DB-C064-47E7-8F2D-E59819BF2A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="To do" sheetId="1" r:id="rId1"/>
@@ -29,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LearningTracker!$A$4:$M$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'To do'!$A$3:$C$50</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,12 +38,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="663">
   <si>
     <r>
       <t xml:space="preserve">
@@ -2079,7 +2073,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m&quot;/&quot;d"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
@@ -2828,19 +2822,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2916,167 +2897,26 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
     <cellStyle name="Heading 4" xfId="1" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <font>
         <color rgb="FF666666"/>
@@ -3471,7 +3311,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3523,7 +3363,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3717,14 +3557,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3744,10 +3584,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="52.5" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="104"/>
       <c r="C1" s="1" t="str">
         <f>CONCATENATE(COUNTIF($A$4:$A$50,TRUE), "/", COUNTA($C$4:$C$50), " completed  ")</f>
         <v xml:space="preserve">2/8 completed  </v>
@@ -4117,17 +3957,17 @@
       <c r="C50" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C50" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:C50"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:C50">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="30" priority="1">
       <formula>$A4=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B4:B49" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B4:B49">
       <formula1>OR(NOT(ISERROR(DATEVALUE(B4))), AND(ISNUMBER(B4), LEFT(CELL("format", B4))="D"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -4136,7 +3976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519686E8-EAE1-4FAB-819C-BC13A9B05463}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4149,17 +3989,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="93" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="93" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="93" t="s">
         <v>655</v>
       </c>
     </row>
@@ -4169,7 +4009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4209,17 +4049,17 @@
     </row>
     <row r="2" spans="1:13" ht="44.25" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="107"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="11"/>
@@ -5178,7 +5018,7 @@
       <c r="M30" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:M22" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A4:M22">
     <filterColumn colId="5">
       <filters>
         <filter val="Done"/>
@@ -5198,73 +5038,73 @@
     <mergeCell ref="F2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="43" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>RegExMatch(($F25),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:F30">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:M30">
-    <cfRule type="expression" dxfId="41" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>RegExMatch(($F5),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:M30">
-    <cfRule type="expression" dxfId="40" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>RegExMatch(($F5),"Skipped")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:M30">
-    <cfRule type="expression" dxfId="39" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>RegExMatch(($F5),"In progress")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Status of this assignment" sqref="F5:F17 F19:F26" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Status of this assignment" sqref="F5:F17 F19:F26">
       <formula1>"Not started,In progress,Skipped,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Status of this assignment" sqref="F18" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Status of this assignment" sqref="F18">
       <formula1>"Not started,In progress,Skipped,ON-HOLD,Done"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" prompt="Enter a valid date" sqref="I5:K29 H30:K30" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" prompt="Enter a valid date" sqref="I5:K29 H30:K30">
       <formula1>OR(NOT(ISERROR(DATEVALUE(H5))), AND(ISNUMBER(H5), LEFT(CELL("format", H5))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items" sqref="F27:F30" xr:uid="{00000000-0002-0000-0100-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items" sqref="F27:F30">
       <formula1>"Not started,In progress,Done"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="M8" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="M9" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="M10" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="M11" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="M12" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="M13" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="M14" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="E18" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="E19" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D20" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D21" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="E21" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="D22" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="E22" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D23" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="E23" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="E24" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="D25" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="D26" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="E26" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D28" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="E28" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="M6" r:id="rId1"/>
+    <hyperlink ref="M8" r:id="rId2"/>
+    <hyperlink ref="M9" r:id="rId3"/>
+    <hyperlink ref="M10" r:id="rId4"/>
+    <hyperlink ref="M11" r:id="rId5"/>
+    <hyperlink ref="M12" r:id="rId6"/>
+    <hyperlink ref="M13" r:id="rId7"/>
+    <hyperlink ref="M14" r:id="rId8"/>
+    <hyperlink ref="E18" r:id="rId9"/>
+    <hyperlink ref="E19" r:id="rId10"/>
+    <hyperlink ref="D20" r:id="rId11"/>
+    <hyperlink ref="D21" r:id="rId12"/>
+    <hyperlink ref="E21" r:id="rId13"/>
+    <hyperlink ref="D22" r:id="rId14"/>
+    <hyperlink ref="E22" r:id="rId15"/>
+    <hyperlink ref="D23" r:id="rId16"/>
+    <hyperlink ref="E23" r:id="rId17"/>
+    <hyperlink ref="E24" r:id="rId18"/>
+    <hyperlink ref="D25" r:id="rId19"/>
+    <hyperlink ref="D26" r:id="rId20"/>
+    <hyperlink ref="E26" r:id="rId21"/>
+    <hyperlink ref="D28" r:id="rId22"/>
+    <hyperlink ref="E28" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId24"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from range Subjects!B5:B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
@@ -5291,7 +5131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5336,20 +5176,20 @@
     </row>
     <row r="2" spans="1:16" ht="44.25" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="11"/>
@@ -5878,10 +5718,10 @@
       <c r="E16" s="47">
         <v>3</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="61"/>
+      <c r="G16" s="104"/>
       <c r="H16" s="48" t="s">
         <v>103</v>
       </c>
@@ -5920,10 +5760,10 @@
       <c r="E17" s="47">
         <v>3</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="61"/>
+      <c r="G17" s="104"/>
       <c r="H17" s="48" t="s">
         <v>104</v>
       </c>
@@ -5962,10 +5802,10 @@
       <c r="E18" s="47">
         <v>3</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="61"/>
+      <c r="G18" s="104"/>
       <c r="H18" s="48" t="s">
         <v>105</v>
       </c>
@@ -6004,10 +5844,10 @@
       <c r="E19" s="47">
         <v>3</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="61"/>
+      <c r="G19" s="104"/>
       <c r="H19" s="48" t="s">
         <v>106</v>
       </c>
@@ -6046,10 +5886,10 @@
       <c r="E20" s="47">
         <v>3</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="61"/>
+      <c r="G20" s="104"/>
       <c r="H20" s="48" t="s">
         <v>107</v>
       </c>
@@ -6088,10 +5928,10 @@
       <c r="E21" s="47">
         <v>3</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="61"/>
+      <c r="G21" s="104"/>
       <c r="H21" s="48" t="s">
         <v>108</v>
       </c>
@@ -6130,10 +5970,10 @@
       <c r="E22" s="47">
         <v>3</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="61"/>
+      <c r="G22" s="104"/>
       <c r="H22" s="48" t="s">
         <v>109</v>
       </c>
@@ -6172,10 +6012,10 @@
       <c r="E23" s="47">
         <v>3</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="61"/>
+      <c r="G23" s="104"/>
       <c r="H23" s="48" t="s">
         <v>110</v>
       </c>
@@ -6214,10 +6054,10 @@
       <c r="E24" s="47">
         <v>3</v>
       </c>
-      <c r="F24" s="66" t="s">
+      <c r="F24" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="61"/>
+      <c r="G24" s="104"/>
       <c r="H24" s="48" t="s">
         <v>111</v>
       </c>
@@ -6256,10 +6096,10 @@
       <c r="E25" s="47">
         <v>3</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="F25" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="61"/>
+      <c r="G25" s="104"/>
       <c r="H25" s="48" t="s">
         <v>112</v>
       </c>
@@ -6298,10 +6138,10 @@
       <c r="E26" s="47">
         <v>3</v>
       </c>
-      <c r="F26" s="66" t="s">
+      <c r="F26" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G26" s="61"/>
+      <c r="G26" s="104"/>
       <c r="H26" s="48" t="s">
         <v>113</v>
       </c>
@@ -6340,10 +6180,10 @@
       <c r="E27" s="47">
         <v>3</v>
       </c>
-      <c r="F27" s="66" t="s">
+      <c r="F27" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="61"/>
+      <c r="G27" s="104"/>
       <c r="H27" s="48" t="s">
         <v>114</v>
       </c>
@@ -6382,10 +6222,10 @@
       <c r="E28" s="47">
         <v>3</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="61"/>
+      <c r="G28" s="104"/>
       <c r="H28" s="48" t="s">
         <v>115</v>
       </c>
@@ -6424,10 +6264,10 @@
       <c r="E29" s="47">
         <v>3</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="61"/>
+      <c r="G29" s="104"/>
       <c r="H29" s="48" t="s">
         <v>116</v>
       </c>
@@ -6466,10 +6306,10 @@
       <c r="E30" s="47">
         <v>3</v>
       </c>
-      <c r="F30" s="66" t="s">
+      <c r="F30" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="61"/>
+      <c r="G30" s="104"/>
       <c r="H30" s="48" t="s">
         <v>117</v>
       </c>
@@ -6508,10 +6348,10 @@
       <c r="E31" s="47">
         <v>3</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="61"/>
+      <c r="G31" s="104"/>
       <c r="H31" s="48" t="s">
         <v>118</v>
       </c>
@@ -6550,10 +6390,10 @@
       <c r="E32" s="47">
         <v>3</v>
       </c>
-      <c r="F32" s="66" t="s">
+      <c r="F32" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="61"/>
+      <c r="G32" s="104"/>
       <c r="H32" s="48" t="s">
         <v>119</v>
       </c>
@@ -6592,10 +6432,10 @@
       <c r="E33" s="47">
         <v>3</v>
       </c>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="61"/>
+      <c r="G33" s="104"/>
       <c r="H33" s="48" t="s">
         <v>120</v>
       </c>
@@ -6634,10 +6474,10 @@
       <c r="E34" s="47">
         <v>3</v>
       </c>
-      <c r="F34" s="66" t="s">
+      <c r="F34" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G34" s="61"/>
+      <c r="G34" s="104"/>
       <c r="H34" s="48" t="s">
         <v>121</v>
       </c>
@@ -6676,10 +6516,10 @@
       <c r="E35" s="47">
         <v>3</v>
       </c>
-      <c r="F35" s="66" t="s">
+      <c r="F35" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="61"/>
+      <c r="G35" s="104"/>
       <c r="H35" s="48" t="s">
         <v>122</v>
       </c>
@@ -6718,10 +6558,10 @@
       <c r="E36" s="47">
         <v>3</v>
       </c>
-      <c r="F36" s="66" t="s">
+      <c r="F36" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="61"/>
+      <c r="G36" s="104"/>
       <c r="H36" s="48" t="s">
         <v>123</v>
       </c>
@@ -6760,10 +6600,10 @@
       <c r="E37" s="47">
         <v>3</v>
       </c>
-      <c r="F37" s="66" t="s">
+      <c r="F37" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G37" s="61"/>
+      <c r="G37" s="104"/>
       <c r="H37" s="48" t="s">
         <v>124</v>
       </c>
@@ -6802,10 +6642,10 @@
       <c r="E38" s="47">
         <v>3</v>
       </c>
-      <c r="F38" s="66" t="s">
+      <c r="F38" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G38" s="61"/>
+      <c r="G38" s="104"/>
       <c r="H38" s="48" t="s">
         <v>125</v>
       </c>
@@ -6844,10 +6684,10 @@
       <c r="E39" s="47">
         <v>3</v>
       </c>
-      <c r="F39" s="66" t="s">
+      <c r="F39" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G39" s="61"/>
+      <c r="G39" s="104"/>
       <c r="H39" s="48" t="s">
         <v>126</v>
       </c>
@@ -6886,10 +6726,10 @@
       <c r="E40" s="47">
         <v>3</v>
       </c>
-      <c r="F40" s="66" t="s">
+      <c r="F40" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="61"/>
+      <c r="G40" s="104"/>
       <c r="H40" s="48" t="s">
         <v>127</v>
       </c>
@@ -6928,14 +6768,14 @@
       <c r="E41" s="47">
         <v>3</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="F41" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G41" s="61"/>
-      <c r="H41" s="66" t="s">
+      <c r="G41" s="104"/>
+      <c r="H41" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="I41" s="61"/>
+      <c r="I41" s="104"/>
       <c r="J41" s="38"/>
       <c r="K41" s="27">
         <f t="shared" si="0"/>
@@ -6970,10 +6810,10 @@
       <c r="E42" s="47">
         <v>3</v>
       </c>
-      <c r="F42" s="66" t="s">
+      <c r="F42" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G42" s="61"/>
+      <c r="G42" s="104"/>
       <c r="H42" s="48" t="s">
         <v>129</v>
       </c>
@@ -12548,10 +12388,10 @@
         <v>259</v>
       </c>
       <c r="G174" s="49"/>
-      <c r="H174" s="66" t="s">
+      <c r="H174" s="109" t="s">
         <v>262</v>
       </c>
-      <c r="I174" s="61"/>
+      <c r="I174" s="104"/>
       <c r="J174" s="38" t="s">
         <v>27</v>
       </c>
@@ -22834,10 +22674,10 @@
       <c r="E415" s="47">
         <v>20</v>
       </c>
-      <c r="F415" s="66" t="s">
+      <c r="F415" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="G415" s="61"/>
+      <c r="G415" s="104"/>
       <c r="H415" s="48" t="s">
         <v>517</v>
       </c>
@@ -22876,10 +22716,10 @@
       <c r="E416" s="47">
         <v>20</v>
       </c>
-      <c r="F416" s="66" t="s">
+      <c r="F416" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="G416" s="61"/>
+      <c r="G416" s="104"/>
       <c r="H416" s="48" t="s">
         <v>518</v>
       </c>
@@ -22918,10 +22758,10 @@
       <c r="E417" s="47">
         <v>20</v>
       </c>
-      <c r="F417" s="66" t="s">
+      <c r="F417" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="G417" s="61"/>
+      <c r="G417" s="104"/>
       <c r="H417" s="48" t="s">
         <v>519</v>
       </c>
@@ -22960,10 +22800,10 @@
       <c r="E418" s="47">
         <v>20</v>
       </c>
-      <c r="F418" s="66" t="s">
+      <c r="F418" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="G418" s="61"/>
+      <c r="G418" s="104"/>
       <c r="H418" s="48" t="s">
         <v>520</v>
       </c>
@@ -23002,10 +22842,10 @@
       <c r="E419" s="47">
         <v>20</v>
       </c>
-      <c r="F419" s="66" t="s">
+      <c r="F419" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="G419" s="61"/>
+      <c r="G419" s="104"/>
       <c r="H419" s="48" t="s">
         <v>521</v>
       </c>
@@ -23044,10 +22884,10 @@
       <c r="E420" s="47">
         <v>20</v>
       </c>
-      <c r="F420" s="66" t="s">
+      <c r="F420" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="G420" s="61"/>
+      <c r="G420" s="104"/>
       <c r="H420" s="48" t="s">
         <v>522</v>
       </c>
@@ -23086,10 +22926,10 @@
       <c r="E421" s="47">
         <v>20</v>
       </c>
-      <c r="F421" s="66" t="s">
+      <c r="F421" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="G421" s="61"/>
+      <c r="G421" s="104"/>
       <c r="H421" s="48" t="s">
         <v>523</v>
       </c>
@@ -23128,10 +22968,10 @@
       <c r="E422" s="47">
         <v>20</v>
       </c>
-      <c r="F422" s="66" t="s">
+      <c r="F422" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="G422" s="61"/>
+      <c r="G422" s="104"/>
       <c r="H422" s="48" t="s">
         <v>524</v>
       </c>
@@ -23170,10 +23010,10 @@
       <c r="E423" s="47">
         <v>20</v>
       </c>
-      <c r="F423" s="66" t="s">
+      <c r="F423" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="G423" s="61"/>
+      <c r="G423" s="104"/>
       <c r="H423" s="48" t="s">
         <v>525</v>
       </c>
@@ -23212,10 +23052,10 @@
       <c r="E424" s="47">
         <v>20</v>
       </c>
-      <c r="F424" s="66" t="s">
+      <c r="F424" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="G424" s="61"/>
+      <c r="G424" s="104"/>
       <c r="H424" s="48" t="s">
         <v>526</v>
       </c>
@@ -23254,10 +23094,10 @@
       <c r="E425" s="47">
         <v>20</v>
       </c>
-      <c r="F425" s="66" t="s">
+      <c r="F425" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="G425" s="61"/>
+      <c r="G425" s="104"/>
       <c r="H425" s="48" t="s">
         <v>527</v>
       </c>
@@ -23296,10 +23136,10 @@
       <c r="E426" s="47">
         <v>20</v>
       </c>
-      <c r="F426" s="66" t="s">
+      <c r="F426" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="G426" s="61"/>
+      <c r="G426" s="104"/>
       <c r="H426" s="48" t="s">
         <v>528</v>
       </c>
@@ -23338,10 +23178,10 @@
       <c r="E427" s="47">
         <v>20</v>
       </c>
-      <c r="F427" s="66" t="s">
+      <c r="F427" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="G427" s="61"/>
+      <c r="G427" s="104"/>
       <c r="H427" s="48" t="s">
         <v>529</v>
       </c>
@@ -23380,10 +23220,10 @@
       <c r="E428" s="47">
         <v>20</v>
       </c>
-      <c r="F428" s="66" t="s">
+      <c r="F428" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="G428" s="61"/>
+      <c r="G428" s="104"/>
       <c r="H428" s="48" t="s">
         <v>530</v>
       </c>
@@ -23422,10 +23262,10 @@
       <c r="E429" s="47">
         <v>20</v>
       </c>
-      <c r="F429" s="66" t="s">
+      <c r="F429" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="G429" s="61"/>
+      <c r="G429" s="104"/>
       <c r="H429" s="48" t="s">
         <v>531</v>
       </c>
@@ -26036,10 +25876,10 @@
       <c r="E491" s="47">
         <v>25</v>
       </c>
-      <c r="F491" s="66" t="s">
+      <c r="F491" s="109" t="s">
         <v>594</v>
       </c>
-      <c r="G491" s="61"/>
+      <c r="G491" s="104"/>
       <c r="H491" s="48" t="s">
         <v>596</v>
       </c>
@@ -26078,10 +25918,10 @@
       <c r="E492" s="47">
         <v>25</v>
       </c>
-      <c r="F492" s="66" t="s">
+      <c r="F492" s="109" t="s">
         <v>594</v>
       </c>
-      <c r="G492" s="61"/>
+      <c r="G492" s="104"/>
       <c r="H492" s="48" t="s">
         <v>597</v>
       </c>
@@ -26120,10 +25960,10 @@
       <c r="E493" s="47">
         <v>25</v>
       </c>
-      <c r="F493" s="66" t="s">
+      <c r="F493" s="109" t="s">
         <v>594</v>
       </c>
-      <c r="G493" s="61"/>
+      <c r="G493" s="104"/>
       <c r="H493" s="48" t="s">
         <v>598</v>
       </c>
@@ -26162,10 +26002,10 @@
       <c r="E494" s="47">
         <v>25</v>
       </c>
-      <c r="F494" s="66" t="s">
+      <c r="F494" s="109" t="s">
         <v>594</v>
       </c>
-      <c r="G494" s="61"/>
+      <c r="G494" s="104"/>
       <c r="H494" s="48" t="s">
         <v>599</v>
       </c>
@@ -26204,10 +26044,10 @@
       <c r="E495" s="47">
         <v>25</v>
       </c>
-      <c r="F495" s="66" t="s">
+      <c r="F495" s="109" t="s">
         <v>594</v>
       </c>
-      <c r="G495" s="61"/>
+      <c r="G495" s="104"/>
       <c r="H495" s="48" t="s">
         <v>600</v>
       </c>
@@ -26246,10 +26086,10 @@
       <c r="E496" s="47">
         <v>25</v>
       </c>
-      <c r="F496" s="66" t="s">
+      <c r="F496" s="109" t="s">
         <v>594</v>
       </c>
-      <c r="G496" s="61"/>
+      <c r="G496" s="104"/>
       <c r="H496" s="48" t="s">
         <v>601</v>
       </c>
@@ -26288,10 +26128,10 @@
       <c r="E497" s="47">
         <v>25</v>
       </c>
-      <c r="F497" s="66" t="s">
+      <c r="F497" s="109" t="s">
         <v>594</v>
       </c>
-      <c r="G497" s="61"/>
+      <c r="G497" s="104"/>
       <c r="H497" s="48" t="s">
         <v>602</v>
       </c>
@@ -26330,10 +26170,10 @@
       <c r="E498" s="47">
         <v>25</v>
       </c>
-      <c r="F498" s="66" t="s">
+      <c r="F498" s="109" t="s">
         <v>594</v>
       </c>
-      <c r="G498" s="61"/>
+      <c r="G498" s="104"/>
       <c r="H498" s="48" t="s">
         <v>603</v>
       </c>
@@ -26372,14 +26212,14 @@
       <c r="E499" s="47">
         <v>25</v>
       </c>
-      <c r="F499" s="66" t="s">
+      <c r="F499" s="109" t="s">
         <v>594</v>
       </c>
-      <c r="G499" s="61"/>
-      <c r="H499" s="66" t="s">
+      <c r="G499" s="104"/>
+      <c r="H499" s="109" t="s">
         <v>604</v>
       </c>
-      <c r="I499" s="61"/>
+      <c r="I499" s="104"/>
       <c r="J499" s="38"/>
       <c r="K499" s="27">
         <f t="shared" si="0"/>
@@ -26414,10 +26254,10 @@
       <c r="E500" s="47">
         <v>25</v>
       </c>
-      <c r="F500" s="66" t="s">
+      <c r="F500" s="109" t="s">
         <v>594</v>
       </c>
-      <c r="G500" s="61"/>
+      <c r="G500" s="104"/>
       <c r="H500" s="48" t="s">
         <v>605</v>
       </c>
@@ -26500,10 +26340,10 @@
       <c r="E502" s="47">
         <v>26</v>
       </c>
-      <c r="F502" s="66" t="s">
+      <c r="F502" s="109" t="s">
         <v>606</v>
       </c>
-      <c r="G502" s="61"/>
+      <c r="G502" s="104"/>
       <c r="H502" s="48" t="s">
         <v>608</v>
       </c>
@@ -26542,14 +26382,14 @@
       <c r="E503" s="47">
         <v>26</v>
       </c>
-      <c r="F503" s="66" t="s">
+      <c r="F503" s="109" t="s">
         <v>606</v>
       </c>
-      <c r="G503" s="61"/>
-      <c r="H503" s="66" t="s">
+      <c r="G503" s="104"/>
+      <c r="H503" s="109" t="s">
         <v>609</v>
       </c>
-      <c r="I503" s="61"/>
+      <c r="I503" s="104"/>
       <c r="J503" s="38"/>
       <c r="K503" s="27">
         <f t="shared" si="0"/>
@@ -26584,10 +26424,10 @@
       <c r="E504" s="47">
         <v>26</v>
       </c>
-      <c r="F504" s="66" t="s">
+      <c r="F504" s="109" t="s">
         <v>606</v>
       </c>
-      <c r="G504" s="61"/>
+      <c r="G504" s="104"/>
       <c r="H504" s="48" t="s">
         <v>610</v>
       </c>
@@ -26626,10 +26466,10 @@
       <c r="E505" s="47">
         <v>26</v>
       </c>
-      <c r="F505" s="66" t="s">
+      <c r="F505" s="109" t="s">
         <v>606</v>
       </c>
-      <c r="G505" s="61"/>
+      <c r="G505" s="104"/>
       <c r="H505" s="48" t="s">
         <v>611</v>
       </c>
@@ -26668,10 +26508,10 @@
       <c r="E506" s="47">
         <v>26</v>
       </c>
-      <c r="F506" s="66" t="s">
+      <c r="F506" s="109" t="s">
         <v>606</v>
       </c>
-      <c r="G506" s="61"/>
+      <c r="G506" s="104"/>
       <c r="H506" s="48" t="s">
         <v>612</v>
       </c>
@@ -26710,14 +26550,14 @@
       <c r="E507" s="47">
         <v>26</v>
       </c>
-      <c r="F507" s="66" t="s">
+      <c r="F507" s="109" t="s">
         <v>606</v>
       </c>
-      <c r="G507" s="61"/>
-      <c r="H507" s="66" t="s">
+      <c r="G507" s="104"/>
+      <c r="H507" s="109" t="s">
         <v>613</v>
       </c>
-      <c r="I507" s="61"/>
+      <c r="I507" s="104"/>
       <c r="J507" s="38"/>
       <c r="K507" s="27">
         <f t="shared" si="0"/>
@@ -26752,10 +26592,10 @@
       <c r="E508" s="47">
         <v>26</v>
       </c>
-      <c r="F508" s="66" t="s">
+      <c r="F508" s="109" t="s">
         <v>606</v>
       </c>
-      <c r="G508" s="61"/>
+      <c r="G508" s="104"/>
       <c r="H508" s="48" t="s">
         <v>614</v>
       </c>
@@ -26794,10 +26634,10 @@
       <c r="E509" s="47">
         <v>26</v>
       </c>
-      <c r="F509" s="66" t="s">
+      <c r="F509" s="109" t="s">
         <v>606</v>
       </c>
-      <c r="G509" s="61"/>
+      <c r="G509" s="104"/>
       <c r="H509" s="48" t="s">
         <v>615</v>
       </c>
@@ -26991,69 +26831,24 @@
       <c r="P513" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:P513" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A4:P513">
     <filterColumn colId="2">
       <filters>
         <filter val="Udemy"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">
-      <filters blank="1">
+      <filters>
         <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="67">
-    <mergeCell ref="F491:G491"/>
-    <mergeCell ref="F492:G492"/>
-    <mergeCell ref="F493:G493"/>
-    <mergeCell ref="F494:G494"/>
-    <mergeCell ref="F425:G425"/>
-    <mergeCell ref="F426:G426"/>
-    <mergeCell ref="F427:G427"/>
-    <mergeCell ref="F428:G428"/>
-    <mergeCell ref="F429:G429"/>
-    <mergeCell ref="F420:G420"/>
-    <mergeCell ref="F421:G421"/>
-    <mergeCell ref="F422:G422"/>
-    <mergeCell ref="F423:G423"/>
-    <mergeCell ref="F424:G424"/>
-    <mergeCell ref="F415:G415"/>
-    <mergeCell ref="F416:G416"/>
-    <mergeCell ref="F417:G417"/>
-    <mergeCell ref="F418:G418"/>
-    <mergeCell ref="F419:G419"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F495:G495"/>
+    <mergeCell ref="F496:G496"/>
+    <mergeCell ref="F497:G497"/>
+    <mergeCell ref="F498:G498"/>
+    <mergeCell ref="F499:G499"/>
     <mergeCell ref="H499:I499"/>
     <mergeCell ref="F500:G500"/>
     <mergeCell ref="F507:G507"/>
@@ -27066,58 +26861,103 @@
     <mergeCell ref="F505:G505"/>
     <mergeCell ref="F506:G506"/>
     <mergeCell ref="H507:I507"/>
-    <mergeCell ref="F495:G495"/>
-    <mergeCell ref="F496:G496"/>
-    <mergeCell ref="F497:G497"/>
-    <mergeCell ref="F498:G498"/>
-    <mergeCell ref="F499:G499"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F415:G415"/>
+    <mergeCell ref="F416:G416"/>
+    <mergeCell ref="F417:G417"/>
+    <mergeCell ref="F418:G418"/>
+    <mergeCell ref="F419:G419"/>
+    <mergeCell ref="F420:G420"/>
+    <mergeCell ref="F421:G421"/>
+    <mergeCell ref="F422:G422"/>
+    <mergeCell ref="F423:G423"/>
+    <mergeCell ref="F424:G424"/>
+    <mergeCell ref="F491:G491"/>
+    <mergeCell ref="F492:G492"/>
+    <mergeCell ref="F493:G493"/>
+    <mergeCell ref="F494:G494"/>
+    <mergeCell ref="F425:G425"/>
+    <mergeCell ref="F426:G426"/>
+    <mergeCell ref="F427:G427"/>
+    <mergeCell ref="F428:G428"/>
+    <mergeCell ref="F429:G429"/>
   </mergeCells>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>RegExMatch(($J25),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:J513 A6:B513">
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P513">
-    <cfRule type="expression" dxfId="36" priority="3">
+    <cfRule type="expression" dxfId="22" priority="3">
       <formula>RegExMatch(($J5),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P513">
-    <cfRule type="expression" dxfId="35" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>RegExMatch(($J5),"Skipped")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P513">
-    <cfRule type="expression" dxfId="34" priority="5">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>RegExMatch(($J5),"In progress")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Status of this assignment" sqref="F5:J5 J6:J26" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Status of this assignment" sqref="F5:J5 J6:J26">
       <formula1>"Not started,In progress,Skipped,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items" sqref="J172:J215" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items" sqref="J172:J215">
       <formula1>"Not started,In progress,Done,Skipped"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" prompt="Enter a valid date" sqref="L5:N513" xr:uid="{00000000-0002-0000-0200-000004000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" prompt="Enter a valid date" sqref="L5:N513">
       <formula1>OR(NOT(ISERROR(DATEVALUE(L5))), AND(ISNUMBER(L5), LEFT(CELL("format", L5))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items" sqref="J27:J171 J216:J513" xr:uid="{00000000-0002-0000-0200-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items" sqref="J27:J171 J216:J513">
       <formula1>"Not started,In progress,Done"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H275" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="H276" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="H277" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="H275" r:id="rId1"/>
+    <hyperlink ref="H276" r:id="rId2"/>
+    <hyperlink ref="H277" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from range Subjects!B5:B20" xr:uid="{00000000-0002-0000-0200-000001000000}">
@@ -27145,7 +26985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -27298,7 +27138,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C21">
-    <cfRule type="expression" dxfId="33" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27307,7 +27147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -27471,22 +27311,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:D20">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="C9" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -27612,7 +27452,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C20">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27621,7 +27461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -27634,283 +27474,283 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="69" customWidth="1"/>
-    <col min="2" max="2" width="53.44140625" style="69" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" style="69" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" style="69" customWidth="1"/>
-    <col min="5" max="16384" width="14.44140625" style="69"/>
+    <col min="1" max="1" width="2.88671875" style="62" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" style="62" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" style="62" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" style="62" customWidth="1"/>
+    <col min="5" max="16384" width="14.44140625" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="12" customHeight="1">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
     </row>
     <row r="2" spans="1:24" ht="29.25" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="70" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="63" t="s">
         <v>635</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
     </row>
     <row r="3" spans="1:24" ht="29.25" customHeight="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65" t="s">
         <v>636</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
     </row>
     <row r="4" spans="1:24" ht="37.799999999999997" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
     </row>
     <row r="5" spans="1:24" ht="11.4" customHeight="1">
-      <c r="A5" s="73"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
     </row>
     <row r="6" spans="1:24" ht="15">
-      <c r="A6" s="74"/>
-      <c r="B6" s="81" t="s">
+      <c r="A6" s="67"/>
+      <c r="B6" s="74" t="s">
         <v>637</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="75" t="s">
         <v>638</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="78" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15">
-      <c r="A7" s="74"/>
-      <c r="B7" s="81" t="s">
+      <c r="A7" s="67"/>
+      <c r="B7" s="74" t="s">
         <v>639</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="75" t="s">
         <v>640</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="78" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="15">
-      <c r="A8" s="74"/>
-      <c r="B8" s="79" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="73" t="s">
         <v>642</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="78" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15">
-      <c r="A9" s="74"/>
-      <c r="B9" s="79" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="73" t="s">
         <v>644</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="78" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15">
-      <c r="A10" s="74"/>
-      <c r="B10" s="83" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="76" t="s">
         <v>645</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="77" t="s">
         <v>646</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="78" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15">
-      <c r="A11" s="74"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="85"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="78"/>
     </row>
     <row r="12" spans="1:24" ht="15">
-      <c r="A12" s="74"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="85"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="78"/>
     </row>
     <row r="13" spans="1:24" ht="15">
-      <c r="A13" s="74"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="85"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="78"/>
     </row>
     <row r="14" spans="1:24" ht="15">
-      <c r="A14" s="74"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="85"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="78"/>
     </row>
     <row r="15" spans="1:24" ht="15">
-      <c r="A15" s="74"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="85"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="78"/>
     </row>
     <row r="16" spans="1:24" ht="15">
-      <c r="A16" s="74"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="85"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="78"/>
     </row>
     <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="74"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="85"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="78"/>
     </row>
     <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="74"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="85"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="78"/>
     </row>
     <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="74"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="85"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="78"/>
     </row>
     <row r="20" spans="1:4" ht="15">
-      <c r="A20" s="74"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="85"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="78"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="85"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="78"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B22" s="81"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="85"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="78"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="85"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="78"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B24" s="81"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="85"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="78"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="85"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="78"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B26" s="81"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="85"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="78"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:D8 A9:A20 D6:D26">
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C10">
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C13">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:C26">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="C9" r:id="rId4"/>
+    <hyperlink ref="C10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB90C2-8C88-42CD-8DCE-DC32700E6062}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27919,457 +27759,459 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.21875" style="69" customWidth="1"/>
-    <col min="2" max="2" width="46.21875" style="69" customWidth="1"/>
-    <col min="3" max="3" width="39" style="69" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" style="69" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="69"/>
+    <col min="1" max="1" width="3.21875" style="62" customWidth="1"/>
+    <col min="2" max="2" width="46.21875" style="62" customWidth="1"/>
+    <col min="3" max="3" width="39" style="62" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" style="62" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="10.8" customHeight="1">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
     </row>
     <row r="2" spans="1:4" ht="34.799999999999997" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="70" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="63" t="s">
         <v>635</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
     </row>
     <row r="3" spans="1:4" ht="11.4" customHeight="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65" t="s">
         <v>636</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="80"/>
     </row>
     <row r="4" spans="1:4" ht="2.4" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="88"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="81"/>
     </row>
     <row r="5" spans="1:4" ht="15.6" thickBot="1">
-      <c r="A5" s="73"/>
-      <c r="B5" s="106" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="99" t="s">
         <v>648</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="99" t="s">
         <v>635</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="98" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" thickTop="1">
-      <c r="A6" s="74"/>
-      <c r="B6" s="97" t="s">
+      <c r="A6" s="67"/>
+      <c r="B6" s="90" t="s">
         <v>637</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="94" t="s">
         <v>638</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="91" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="74"/>
-      <c r="B7" s="81" t="s">
+      <c r="A7" s="67"/>
+      <c r="B7" s="74" t="s">
         <v>639</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="78" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="74"/>
-      <c r="B8" s="81" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="74" t="s">
         <v>641</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="96" t="s">
         <v>642</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="78" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="74"/>
-      <c r="B9" s="81" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="74" t="s">
         <v>643</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="74" t="s">
         <v>644</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="78" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="74"/>
-      <c r="B10" s="83" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="76" t="s">
         <v>645</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="97" t="s">
         <v>646</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="78" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="74"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="85"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="78"/>
     </row>
     <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="74"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="85"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="78"/>
     </row>
     <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="74"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="85"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="78"/>
     </row>
     <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="74"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="85"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="78"/>
     </row>
     <row r="15" spans="1:4" ht="15">
-      <c r="A15" s="74"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="85"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="78"/>
     </row>
     <row r="16" spans="1:4" ht="15">
-      <c r="A16" s="74"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="85"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="78"/>
     </row>
     <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="74"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="85"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="78"/>
     </row>
     <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="74"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="85"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="78"/>
     </row>
     <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="74"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="85"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="78"/>
     </row>
     <row r="20" spans="1:4" ht="15">
-      <c r="A20" s="74"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="85"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="78"/>
     </row>
     <row r="21" spans="1:4" ht="15">
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="85"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="78"/>
     </row>
     <row r="22" spans="1:4" ht="15">
-      <c r="B22" s="81"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="85"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="78"/>
     </row>
     <row r="23" spans="1:4" ht="15">
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="85"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="78"/>
     </row>
     <row r="24" spans="1:4" ht="15">
-      <c r="B24" s="81"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="85"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="78"/>
     </row>
     <row r="25" spans="1:4" ht="15">
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="85"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="78"/>
     </row>
     <row r="26" spans="1:4" ht="15">
-      <c r="B26" s="81"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="85"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="78"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:D7 D9:D26 A8:A20 C8:D8">
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:C10">
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C13">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:C26">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{60932E1B-3781-4301-9058-6831A9358FCD}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{70B22630-467F-45EA-BAA8-49D768CC77A1}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{CA82F52E-04F7-41F7-B5CC-DEAA36F231E3}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{E43B6474-CF31-4B4D-993B-4EEB41D79DE4}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{52772F7B-ADBE-494C-97E6-13180604034D}"/>
+    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="C9" r:id="rId4"/>
+    <hyperlink ref="C10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3390E5-0EBD-43B9-B481-89C4A5916C25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.21875" style="69" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="69" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="69" customWidth="1"/>
-    <col min="4" max="4" width="47.109375" style="69" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="69"/>
+    <col min="1" max="1" width="3.21875" style="62" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="62" customWidth="1"/>
+    <col min="4" max="4" width="59.88671875" style="62" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="10.8" customHeight="1">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
     </row>
     <row r="2" spans="1:4" ht="34.799999999999997" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="70" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="63" t="s">
         <v>649</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
     </row>
     <row r="3" spans="1:4" ht="11.4" customHeight="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="109" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="102" t="s">
         <v>659</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="80"/>
     </row>
     <row r="4" spans="1:4" ht="2.4" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="88"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="81"/>
     </row>
     <row r="5" spans="1:4" ht="15.6" thickBot="1">
-      <c r="A5" s="73"/>
-      <c r="B5" s="99" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="92" t="s">
         <v>651</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="92" t="s">
         <v>652</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="92" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" thickTop="1">
-      <c r="A6" s="74"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="107">
-        <v>44044</v>
-      </c>
-      <c r="D6" s="108" t="s">
+      <c r="A6" s="67"/>
+      <c r="B6" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="100">
+        <v>44044</v>
+      </c>
+      <c r="D6" s="101" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="74"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="108" t="s">
+      <c r="A7" s="67"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="74"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="108" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="101" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="74"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="108" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="74"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="74"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
     </row>
     <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="74"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="108"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
     </row>
     <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="74"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
     </row>
     <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="74"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
     </row>
     <row r="15" spans="1:4" ht="15">
-      <c r="A15" s="74"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="108"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
     </row>
     <row r="16" spans="1:4" ht="15">
-      <c r="A16" s="74"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
     </row>
     <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="74"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="108"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="101"/>
     </row>
     <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="74"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="108"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="101"/>
     </row>
     <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="74"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="108"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="101"/>
     </row>
     <row r="20" spans="1:4" ht="15">
-      <c r="A20" s="74"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="108"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="101"/>
     </row>
     <row r="21" spans="1:4" ht="15">
-      <c r="B21" s="81"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="101"/>
     </row>
     <row r="22" spans="1:4" ht="15">
-      <c r="B22" s="81"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="108"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="101"/>
     </row>
     <row r="23" spans="1:4" ht="15">
-      <c r="B23" s="81"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="108"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="101"/>
     </row>
     <row r="24" spans="1:4" ht="15">
-      <c r="B24" s="81"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="108"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="101"/>
     </row>
     <row r="25" spans="1:4" ht="15">
-      <c r="B25" s="81"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="108"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="101"/>
     </row>
     <row r="26" spans="1:4" ht="15">
-      <c r="B26" s="81"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="108"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="101"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:D6 A7:A20 D6:D26">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B26">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28384,7 +28226,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5EBD88F1-3224-46FF-BD40-E9BB55E72FE4}">

--- a/py/apps/web-scraper/Final/Learning Track.xlsx
+++ b/py/apps/web-scraper/Final/Learning Track.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiments\Playground\py\apps\web-scraper\Final\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC0AA46-5C00-40F3-BCCC-9E46661C052D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" activeTab="8"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="To do" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LearningTracker!$A$4:$M$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'To do'!$A$3:$C$50</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,12 +44,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D17" authorId="0">
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2073,12 +2079,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m&quot;/&quot;d"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2294,6 +2300,13 @@
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2677,7 +2690,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2910,6 +2923,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
@@ -3557,14 +3573,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3573,7 +3589,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3957,7 +3973,7 @@
       <c r="C50" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C50"/>
+  <autoFilter ref="A3:C50" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
@@ -3967,7 +3983,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B4:B49">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B4:B49" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(B4))), AND(ISNUMBER(B4), LEFT(CELL("format", B4))="D"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -3976,7 +3992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4009,7 +4025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4155,7 +4171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" hidden="1">
+    <row r="6" spans="1:13" ht="13.2" hidden="1">
       <c r="A6" s="23"/>
       <c r="B6" s="24" t="s">
         <v>24</v>
@@ -4190,7 +4206,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" hidden="1">
+    <row r="7" spans="1:13" ht="13.2" hidden="1">
       <c r="A7" s="23"/>
       <c r="B7" s="24" t="s">
         <v>33</v>
@@ -4223,7 +4239,7 @@
       </c>
       <c r="M7" s="28"/>
     </row>
-    <row r="8" spans="1:13" ht="15" hidden="1">
+    <row r="8" spans="1:13" ht="13.2" hidden="1">
       <c r="A8" s="23"/>
       <c r="B8" s="24" t="s">
         <v>24</v>
@@ -4262,7 +4278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" hidden="1">
+    <row r="9" spans="1:13" ht="13.2" hidden="1">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>24</v>
@@ -4301,7 +4317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" hidden="1">
+    <row r="10" spans="1:13" ht="13.2" hidden="1">
       <c r="A10" s="23"/>
       <c r="B10" s="24" t="s">
         <v>24</v>
@@ -4340,7 +4356,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" hidden="1">
+    <row r="11" spans="1:13" ht="13.2" hidden="1">
       <c r="A11" s="23"/>
       <c r="B11" s="24" t="s">
         <v>24</v>
@@ -4379,7 +4395,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" hidden="1">
+    <row r="12" spans="1:13" ht="13.2" hidden="1">
       <c r="A12" s="23"/>
       <c r="B12" s="24" t="s">
         <v>24</v>
@@ -4418,7 +4434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30" hidden="1">
+    <row r="13" spans="1:13" ht="13.2" hidden="1">
       <c r="A13" s="23"/>
       <c r="B13" s="24" t="s">
         <v>41</v>
@@ -4457,7 +4473,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" hidden="1">
+    <row r="14" spans="1:13" ht="13.2" hidden="1">
       <c r="A14" s="23"/>
       <c r="B14" s="24" t="s">
         <v>24</v>
@@ -4496,7 +4512,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" hidden="1">
+    <row r="15" spans="1:13" ht="13.2" hidden="1">
       <c r="A15" s="23"/>
       <c r="B15" s="24" t="s">
         <v>44</v>
@@ -4531,7 +4547,7 @@
       </c>
       <c r="M15" s="30"/>
     </row>
-    <row r="16" spans="1:13" ht="15" hidden="1">
+    <row r="16" spans="1:13" ht="13.2" hidden="1">
       <c r="A16" s="23"/>
       <c r="B16" s="24" t="s">
         <v>44</v>
@@ -4566,7 +4582,7 @@
       </c>
       <c r="M16" s="30"/>
     </row>
-    <row r="17" spans="1:13" ht="15" hidden="1">
+    <row r="17" spans="1:13" ht="13.2" hidden="1">
       <c r="A17" s="23"/>
       <c r="B17" s="24" t="s">
         <v>24</v>
@@ -4597,7 +4613,7 @@
       </c>
       <c r="M17" s="30"/>
     </row>
-    <row r="18" spans="1:13" ht="30" hidden="1">
+    <row r="18" spans="1:13" ht="26.4" hidden="1">
       <c r="A18" s="23"/>
       <c r="B18" s="24" t="s">
         <v>48</v>
@@ -4634,7 +4650,7 @@
       </c>
       <c r="M18" s="30"/>
     </row>
-    <row r="19" spans="1:13" ht="15">
+    <row r="19" spans="1:13" ht="13.2">
       <c r="A19" s="23"/>
       <c r="B19" s="24" t="s">
         <v>53</v>
@@ -4673,7 +4689,7 @@
       </c>
       <c r="M19" s="30"/>
     </row>
-    <row r="20" spans="1:13" ht="15">
+    <row r="20" spans="1:13" ht="13.2">
       <c r="A20" s="23"/>
       <c r="B20" s="24" t="s">
         <v>53</v>
@@ -4706,7 +4722,7 @@
       </c>
       <c r="M20" s="30"/>
     </row>
-    <row r="21" spans="1:13" ht="15">
+    <row r="21" spans="1:13" ht="13.2">
       <c r="A21" s="23"/>
       <c r="B21" s="24" t="s">
         <v>53</v>
@@ -4745,7 +4761,7 @@
       </c>
       <c r="M21" s="28"/>
     </row>
-    <row r="22" spans="1:13" ht="15">
+    <row r="22" spans="1:13" ht="13.2">
       <c r="A22" s="23"/>
       <c r="B22" s="24" t="s">
         <v>64</v>
@@ -4782,7 +4798,7 @@
       </c>
       <c r="M22" s="30"/>
     </row>
-    <row r="23" spans="1:13" ht="15">
+    <row r="23" spans="1:13" ht="13.2">
       <c r="A23" s="23"/>
       <c r="B23" s="24" t="s">
         <v>53</v>
@@ -4817,7 +4833,7 @@
       </c>
       <c r="M23" s="28"/>
     </row>
-    <row r="24" spans="1:13" ht="15">
+    <row r="24" spans="1:13" ht="13.2">
       <c r="A24" s="23"/>
       <c r="B24" s="24" t="s">
         <v>64</v>
@@ -4852,7 +4868,7 @@
       </c>
       <c r="M24" s="30"/>
     </row>
-    <row r="25" spans="1:13" ht="15">
+    <row r="25" spans="1:13" ht="13.2">
       <c r="A25" s="23"/>
       <c r="B25" s="24" t="s">
         <v>74</v>
@@ -4885,7 +4901,7 @@
       </c>
       <c r="M25" s="30"/>
     </row>
-    <row r="26" spans="1:13" ht="15">
+    <row r="26" spans="1:13" ht="13.2">
       <c r="A26" s="23"/>
       <c r="B26" s="24" t="s">
         <v>74</v>
@@ -4918,7 +4934,7 @@
       </c>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:13" ht="15" hidden="1">
+    <row r="27" spans="1:13" ht="13.2" hidden="1">
       <c r="A27" s="39"/>
       <c r="B27" s="24"/>
       <c r="C27" s="16"/>
@@ -4941,7 +4957,7 @@
       </c>
       <c r="M27" s="39"/>
     </row>
-    <row r="28" spans="1:13" ht="15">
+    <row r="28" spans="1:13" ht="13.2">
       <c r="A28" s="42"/>
       <c r="B28" s="24" t="s">
         <v>74</v>
@@ -4974,7 +4990,7 @@
       </c>
       <c r="M28" s="45"/>
     </row>
-    <row r="29" spans="1:13" ht="15">
+    <row r="29" spans="1:13" ht="13.2">
       <c r="A29" s="42"/>
       <c r="B29" s="24"/>
       <c r="C29" s="16"/>
@@ -4997,7 +5013,7 @@
       </c>
       <c r="M29" s="42"/>
     </row>
-    <row r="30" spans="1:13" ht="15">
+    <row r="30" spans="1:13" ht="13.2">
       <c r="A30" s="42"/>
       <c r="B30" s="24"/>
       <c r="C30" s="16"/>
@@ -5018,7 +5034,7 @@
       <c r="M30" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:M22">
+  <autoFilter ref="A4:M22" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="5">
       <filters>
         <filter val="Done"/>
@@ -5063,48 +5079,48 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Status of this assignment" sqref="F5:F17 F19:F26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Status of this assignment" sqref="F5:F17 F19:F26" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Not started,In progress,Skipped,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Status of this assignment" sqref="F18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Status of this assignment" sqref="F18" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Not started,In progress,Skipped,ON-HOLD,Done"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" prompt="Enter a valid date" sqref="I5:K29 H30:K30">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" prompt="Enter a valid date" sqref="I5:K29 H30:K30" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(H5))), AND(ISNUMBER(H5), LEFT(CELL("format", H5))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items" sqref="F27:F30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items" sqref="F27:F30" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Not started,In progress,Done"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M6" r:id="rId1"/>
-    <hyperlink ref="M8" r:id="rId2"/>
-    <hyperlink ref="M9" r:id="rId3"/>
-    <hyperlink ref="M10" r:id="rId4"/>
-    <hyperlink ref="M11" r:id="rId5"/>
-    <hyperlink ref="M12" r:id="rId6"/>
-    <hyperlink ref="M13" r:id="rId7"/>
-    <hyperlink ref="M14" r:id="rId8"/>
-    <hyperlink ref="E18" r:id="rId9"/>
-    <hyperlink ref="E19" r:id="rId10"/>
-    <hyperlink ref="D20" r:id="rId11"/>
-    <hyperlink ref="D21" r:id="rId12"/>
-    <hyperlink ref="E21" r:id="rId13"/>
-    <hyperlink ref="D22" r:id="rId14"/>
-    <hyperlink ref="E22" r:id="rId15"/>
-    <hyperlink ref="D23" r:id="rId16"/>
-    <hyperlink ref="E23" r:id="rId17"/>
-    <hyperlink ref="E24" r:id="rId18"/>
-    <hyperlink ref="D25" r:id="rId19"/>
-    <hyperlink ref="D26" r:id="rId20"/>
-    <hyperlink ref="E26" r:id="rId21"/>
-    <hyperlink ref="D28" r:id="rId22"/>
-    <hyperlink ref="E28" r:id="rId23"/>
+    <hyperlink ref="M6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="M8" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="M9" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="M10" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="M11" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="M12" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="M13" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="M14" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="E18" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="E19" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D20" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D21" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="E21" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D22" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="E22" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D23" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="E23" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="E24" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D25" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D26" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="E26" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D28" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="E28" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId24"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from range Subjects!B5:B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
@@ -5131,7 +5147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5276,7 +5292,7 @@
       <c r="O5" s="21"/>
       <c r="P5" s="22"/>
     </row>
-    <row r="6" spans="1:16" ht="15" hidden="1">
+    <row r="6" spans="1:16" ht="14.4" hidden="1">
       <c r="A6" s="47">
         <v>1</v>
       </c>
@@ -5320,7 +5336,7 @@
       </c>
       <c r="P6" s="29"/>
     </row>
-    <row r="7" spans="1:16" ht="15" hidden="1">
+    <row r="7" spans="1:16" ht="14.4" hidden="1">
       <c r="A7" s="47">
         <v>1</v>
       </c>
@@ -5362,7 +5378,7 @@
       </c>
       <c r="P7" s="28"/>
     </row>
-    <row r="8" spans="1:16" ht="15" hidden="1">
+    <row r="8" spans="1:16" ht="14.4" hidden="1">
       <c r="A8" s="47">
         <v>1</v>
       </c>
@@ -5404,7 +5420,7 @@
       </c>
       <c r="P8" s="29"/>
     </row>
-    <row r="9" spans="1:16" ht="15" hidden="1">
+    <row r="9" spans="1:16" ht="14.4" hidden="1">
       <c r="A9" s="47">
         <v>1</v>
       </c>
@@ -5446,7 +5462,7 @@
       </c>
       <c r="P9" s="29"/>
     </row>
-    <row r="10" spans="1:16" ht="15" hidden="1">
+    <row r="10" spans="1:16" ht="14.4" hidden="1">
       <c r="A10" s="47">
         <v>1</v>
       </c>
@@ -5490,7 +5506,7 @@
       </c>
       <c r="P10" s="29"/>
     </row>
-    <row r="11" spans="1:16" ht="15" hidden="1">
+    <row r="11" spans="1:16" ht="14.4" hidden="1">
       <c r="A11" s="47">
         <v>1</v>
       </c>
@@ -5532,7 +5548,7 @@
       </c>
       <c r="P11" s="29"/>
     </row>
-    <row r="12" spans="1:16" ht="15" hidden="1">
+    <row r="12" spans="1:16" ht="14.4" hidden="1">
       <c r="A12" s="47">
         <v>1</v>
       </c>
@@ -5574,7 +5590,7 @@
       </c>
       <c r="P12" s="29"/>
     </row>
-    <row r="13" spans="1:16" ht="15" hidden="1">
+    <row r="13" spans="1:16" ht="14.4" hidden="1">
       <c r="A13" s="47">
         <v>1</v>
       </c>
@@ -5616,7 +5632,7 @@
       </c>
       <c r="P13" s="29"/>
     </row>
-    <row r="14" spans="1:16" ht="15" hidden="1">
+    <row r="14" spans="1:16" ht="14.4" hidden="1">
       <c r="A14" s="47">
         <v>1</v>
       </c>
@@ -5658,7 +5674,7 @@
       </c>
       <c r="P14" s="29"/>
     </row>
-    <row r="15" spans="1:16" ht="15" hidden="1">
+    <row r="15" spans="1:16" ht="14.4" hidden="1">
       <c r="A15" s="47">
         <v>1</v>
       </c>
@@ -5702,7 +5718,7 @@
       </c>
       <c r="P15" s="30"/>
     </row>
-    <row r="16" spans="1:16" ht="15" hidden="1">
+    <row r="16" spans="1:16" ht="14.4" hidden="1">
       <c r="A16" s="47">
         <v>1</v>
       </c>
@@ -5744,7 +5760,7 @@
       </c>
       <c r="P16" s="30"/>
     </row>
-    <row r="17" spans="1:16" ht="15" hidden="1">
+    <row r="17" spans="1:16" ht="14.4" hidden="1">
       <c r="A17" s="47">
         <v>1</v>
       </c>
@@ -5786,7 +5802,7 @@
       </c>
       <c r="P17" s="30"/>
     </row>
-    <row r="18" spans="1:16" ht="15" hidden="1">
+    <row r="18" spans="1:16" ht="14.4" hidden="1">
       <c r="A18" s="47">
         <v>1</v>
       </c>
@@ -5828,7 +5844,7 @@
       </c>
       <c r="P18" s="30"/>
     </row>
-    <row r="19" spans="1:16" ht="15" hidden="1">
+    <row r="19" spans="1:16" ht="14.4" hidden="1">
       <c r="A19" s="47">
         <v>1</v>
       </c>
@@ -5870,7 +5886,7 @@
       </c>
       <c r="P19" s="30"/>
     </row>
-    <row r="20" spans="1:16" ht="15" hidden="1">
+    <row r="20" spans="1:16" ht="14.4" hidden="1">
       <c r="A20" s="47">
         <v>1</v>
       </c>
@@ -5912,7 +5928,7 @@
       </c>
       <c r="P20" s="30"/>
     </row>
-    <row r="21" spans="1:16" ht="15" hidden="1">
+    <row r="21" spans="1:16" ht="14.4" hidden="1">
       <c r="A21" s="47">
         <v>1</v>
       </c>
@@ -5954,7 +5970,7 @@
       </c>
       <c r="P21" s="28"/>
     </row>
-    <row r="22" spans="1:16" ht="15" hidden="1">
+    <row r="22" spans="1:16" ht="14.4" hidden="1">
       <c r="A22" s="47">
         <v>1</v>
       </c>
@@ -5996,7 +6012,7 @@
       </c>
       <c r="P22" s="30"/>
     </row>
-    <row r="23" spans="1:16" ht="15" hidden="1">
+    <row r="23" spans="1:16" ht="14.4" hidden="1">
       <c r="A23" s="47">
         <v>1</v>
       </c>
@@ -6038,7 +6054,7 @@
       </c>
       <c r="P23" s="28"/>
     </row>
-    <row r="24" spans="1:16" ht="15" hidden="1">
+    <row r="24" spans="1:16" ht="14.4" hidden="1">
       <c r="A24" s="47">
         <v>1</v>
       </c>
@@ -6080,7 +6096,7 @@
       </c>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:16" ht="15" hidden="1">
+    <row r="25" spans="1:16" ht="14.4" hidden="1">
       <c r="A25" s="47">
         <v>1</v>
       </c>
@@ -6122,7 +6138,7 @@
       </c>
       <c r="P25" s="30"/>
     </row>
-    <row r="26" spans="1:16" ht="15" hidden="1">
+    <row r="26" spans="1:16" ht="14.4" hidden="1">
       <c r="A26" s="47">
         <v>1</v>
       </c>
@@ -6164,7 +6180,7 @@
       </c>
       <c r="P26" s="30"/>
     </row>
-    <row r="27" spans="1:16" ht="15" hidden="1">
+    <row r="27" spans="1:16" ht="14.4" hidden="1">
       <c r="A27" s="47">
         <v>1</v>
       </c>
@@ -6206,7 +6222,7 @@
       </c>
       <c r="P27" s="39"/>
     </row>
-    <row r="28" spans="1:16" ht="15" hidden="1">
+    <row r="28" spans="1:16" ht="14.4" hidden="1">
       <c r="A28" s="47">
         <v>1</v>
       </c>
@@ -6248,7 +6264,7 @@
       </c>
       <c r="P28" s="45"/>
     </row>
-    <row r="29" spans="1:16" ht="15" hidden="1">
+    <row r="29" spans="1:16" ht="14.4" hidden="1">
       <c r="A29" s="47">
         <v>1</v>
       </c>
@@ -6290,7 +6306,7 @@
       </c>
       <c r="P29" s="42"/>
     </row>
-    <row r="30" spans="1:16" ht="15" hidden="1">
+    <row r="30" spans="1:16" ht="14.4" hidden="1">
       <c r="A30" s="47">
         <v>1</v>
       </c>
@@ -6332,7 +6348,7 @@
       </c>
       <c r="P30" s="42"/>
     </row>
-    <row r="31" spans="1:16" ht="15" hidden="1">
+    <row r="31" spans="1:16" ht="14.4" hidden="1">
       <c r="A31" s="47">
         <v>1</v>
       </c>
@@ -6374,7 +6390,7 @@
       </c>
       <c r="P31" s="42"/>
     </row>
-    <row r="32" spans="1:16" ht="15" hidden="1">
+    <row r="32" spans="1:16" ht="14.4" hidden="1">
       <c r="A32" s="47">
         <v>1</v>
       </c>
@@ -6416,7 +6432,7 @@
       </c>
       <c r="P32" s="42"/>
     </row>
-    <row r="33" spans="1:16" ht="15" hidden="1">
+    <row r="33" spans="1:16" ht="14.4" hidden="1">
       <c r="A33" s="47">
         <v>1</v>
       </c>
@@ -6458,7 +6474,7 @@
       </c>
       <c r="P33" s="42"/>
     </row>
-    <row r="34" spans="1:16" ht="15" hidden="1">
+    <row r="34" spans="1:16" ht="14.4" hidden="1">
       <c r="A34" s="47">
         <v>1</v>
       </c>
@@ -6500,7 +6516,7 @@
       </c>
       <c r="P34" s="42"/>
     </row>
-    <row r="35" spans="1:16" ht="15" hidden="1">
+    <row r="35" spans="1:16" ht="14.4" hidden="1">
       <c r="A35" s="47">
         <v>1</v>
       </c>
@@ -6542,7 +6558,7 @@
       </c>
       <c r="P35" s="42"/>
     </row>
-    <row r="36" spans="1:16" ht="15" hidden="1">
+    <row r="36" spans="1:16" ht="14.4" hidden="1">
       <c r="A36" s="47">
         <v>1</v>
       </c>
@@ -6584,7 +6600,7 @@
       </c>
       <c r="P36" s="42"/>
     </row>
-    <row r="37" spans="1:16" ht="15" hidden="1">
+    <row r="37" spans="1:16" ht="14.4" hidden="1">
       <c r="A37" s="47">
         <v>1</v>
       </c>
@@ -6626,7 +6642,7 @@
       </c>
       <c r="P37" s="42"/>
     </row>
-    <row r="38" spans="1:16" ht="15" hidden="1">
+    <row r="38" spans="1:16" ht="14.4" hidden="1">
       <c r="A38" s="47">
         <v>1</v>
       </c>
@@ -6668,7 +6684,7 @@
       </c>
       <c r="P38" s="42"/>
     </row>
-    <row r="39" spans="1:16" ht="15" hidden="1">
+    <row r="39" spans="1:16" ht="14.4" hidden="1">
       <c r="A39" s="47">
         <v>1</v>
       </c>
@@ -6710,7 +6726,7 @@
       </c>
       <c r="P39" s="42"/>
     </row>
-    <row r="40" spans="1:16" ht="15" hidden="1">
+    <row r="40" spans="1:16" ht="14.4" hidden="1">
       <c r="A40" s="47">
         <v>1</v>
       </c>
@@ -6752,7 +6768,7 @@
       </c>
       <c r="P40" s="42"/>
     </row>
-    <row r="41" spans="1:16" ht="15" hidden="1">
+    <row r="41" spans="1:16" ht="14.4" hidden="1">
       <c r="A41" s="47">
         <v>1</v>
       </c>
@@ -6794,7 +6810,7 @@
       </c>
       <c r="P41" s="42"/>
     </row>
-    <row r="42" spans="1:16" ht="15" hidden="1">
+    <row r="42" spans="1:16" ht="14.4" hidden="1">
       <c r="A42" s="47">
         <v>1</v>
       </c>
@@ -6836,7 +6852,7 @@
       </c>
       <c r="P42" s="42"/>
     </row>
-    <row r="43" spans="1:16" ht="15" hidden="1">
+    <row r="43" spans="1:16" ht="14.4" hidden="1">
       <c r="A43" s="47">
         <v>1</v>
       </c>
@@ -6880,7 +6896,7 @@
       </c>
       <c r="P43" s="42"/>
     </row>
-    <row r="44" spans="1:16" ht="15" hidden="1">
+    <row r="44" spans="1:16" ht="14.4" hidden="1">
       <c r="A44" s="47">
         <v>1</v>
       </c>
@@ -6922,7 +6938,7 @@
       </c>
       <c r="P44" s="42"/>
     </row>
-    <row r="45" spans="1:16" ht="15" hidden="1">
+    <row r="45" spans="1:16" ht="14.4" hidden="1">
       <c r="A45" s="47">
         <v>1</v>
       </c>
@@ -6964,7 +6980,7 @@
       </c>
       <c r="P45" s="42"/>
     </row>
-    <row r="46" spans="1:16" ht="15" hidden="1">
+    <row r="46" spans="1:16" ht="14.4" hidden="1">
       <c r="A46" s="47">
         <v>1</v>
       </c>
@@ -7006,7 +7022,7 @@
       </c>
       <c r="P46" s="42"/>
     </row>
-    <row r="47" spans="1:16" ht="15" hidden="1">
+    <row r="47" spans="1:16" ht="14.4" hidden="1">
       <c r="A47" s="47">
         <v>1</v>
       </c>
@@ -7048,7 +7064,7 @@
       </c>
       <c r="P47" s="42"/>
     </row>
-    <row r="48" spans="1:16" ht="15" hidden="1">
+    <row r="48" spans="1:16" ht="14.4" hidden="1">
       <c r="A48" s="47">
         <v>1</v>
       </c>
@@ -7090,7 +7106,7 @@
       </c>
       <c r="P48" s="42"/>
     </row>
-    <row r="49" spans="1:16" ht="15" hidden="1">
+    <row r="49" spans="1:16" ht="14.4" hidden="1">
       <c r="A49" s="47">
         <v>1</v>
       </c>
@@ -7132,7 +7148,7 @@
       </c>
       <c r="P49" s="42"/>
     </row>
-    <row r="50" spans="1:16" ht="15" hidden="1">
+    <row r="50" spans="1:16" ht="14.4" hidden="1">
       <c r="A50" s="47">
         <v>1</v>
       </c>
@@ -7174,7 +7190,7 @@
       </c>
       <c r="P50" s="42"/>
     </row>
-    <row r="51" spans="1:16" ht="15" hidden="1">
+    <row r="51" spans="1:16" ht="14.4" hidden="1">
       <c r="A51" s="47">
         <v>1</v>
       </c>
@@ -7216,7 +7232,7 @@
       </c>
       <c r="P51" s="42"/>
     </row>
-    <row r="52" spans="1:16" ht="15" hidden="1">
+    <row r="52" spans="1:16" ht="14.4" hidden="1">
       <c r="A52" s="47">
         <v>1</v>
       </c>
@@ -7258,7 +7274,7 @@
       </c>
       <c r="P52" s="42"/>
     </row>
-    <row r="53" spans="1:16" ht="15" hidden="1">
+    <row r="53" spans="1:16" ht="14.4" hidden="1">
       <c r="A53" s="47">
         <v>1</v>
       </c>
@@ -7300,7 +7316,7 @@
       </c>
       <c r="P53" s="42"/>
     </row>
-    <row r="54" spans="1:16" ht="15" hidden="1">
+    <row r="54" spans="1:16" ht="14.4" hidden="1">
       <c r="A54" s="47">
         <v>1</v>
       </c>
@@ -7342,7 +7358,7 @@
       </c>
       <c r="P54" s="42"/>
     </row>
-    <row r="55" spans="1:16" ht="15" hidden="1">
+    <row r="55" spans="1:16" ht="14.4" hidden="1">
       <c r="A55" s="47">
         <v>1</v>
       </c>
@@ -7384,7 +7400,7 @@
       </c>
       <c r="P55" s="42"/>
     </row>
-    <row r="56" spans="1:16" ht="15" hidden="1">
+    <row r="56" spans="1:16" ht="14.4" hidden="1">
       <c r="A56" s="47">
         <v>1</v>
       </c>
@@ -7426,7 +7442,7 @@
       </c>
       <c r="P56" s="42"/>
     </row>
-    <row r="57" spans="1:16" ht="15" hidden="1">
+    <row r="57" spans="1:16" ht="14.4" hidden="1">
       <c r="A57" s="47">
         <v>1</v>
       </c>
@@ -7468,7 +7484,7 @@
       </c>
       <c r="P57" s="42"/>
     </row>
-    <row r="58" spans="1:16" ht="15" hidden="1">
+    <row r="58" spans="1:16" ht="14.4" hidden="1">
       <c r="A58" s="47">
         <v>1</v>
       </c>
@@ -7510,7 +7526,7 @@
       </c>
       <c r="P58" s="42"/>
     </row>
-    <row r="59" spans="1:16" ht="15" hidden="1">
+    <row r="59" spans="1:16" ht="14.4" hidden="1">
       <c r="A59" s="47">
         <v>1</v>
       </c>
@@ -7552,7 +7568,7 @@
       </c>
       <c r="P59" s="42"/>
     </row>
-    <row r="60" spans="1:16" ht="15" hidden="1">
+    <row r="60" spans="1:16" ht="14.4" hidden="1">
       <c r="A60" s="47">
         <v>1</v>
       </c>
@@ -7594,7 +7610,7 @@
       </c>
       <c r="P60" s="42"/>
     </row>
-    <row r="61" spans="1:16" ht="15" hidden="1">
+    <row r="61" spans="1:16" ht="14.4" hidden="1">
       <c r="A61" s="47">
         <v>1</v>
       </c>
@@ -7636,7 +7652,7 @@
       </c>
       <c r="P61" s="42"/>
     </row>
-    <row r="62" spans="1:16" ht="15" hidden="1">
+    <row r="62" spans="1:16" ht="14.4" hidden="1">
       <c r="A62" s="47">
         <v>1</v>
       </c>
@@ -7678,7 +7694,7 @@
       </c>
       <c r="P62" s="42"/>
     </row>
-    <row r="63" spans="1:16" ht="15" hidden="1">
+    <row r="63" spans="1:16" ht="14.4" hidden="1">
       <c r="A63" s="47">
         <v>1</v>
       </c>
@@ -7720,7 +7736,7 @@
       </c>
       <c r="P63" s="42"/>
     </row>
-    <row r="64" spans="1:16" ht="15" hidden="1">
+    <row r="64" spans="1:16" ht="14.4" hidden="1">
       <c r="A64" s="47">
         <v>1</v>
       </c>
@@ -7762,7 +7778,7 @@
       </c>
       <c r="P64" s="42"/>
     </row>
-    <row r="65" spans="1:16" ht="15" hidden="1">
+    <row r="65" spans="1:16" ht="14.4" hidden="1">
       <c r="A65" s="47">
         <v>1</v>
       </c>
@@ -7804,7 +7820,7 @@
       </c>
       <c r="P65" s="42"/>
     </row>
-    <row r="66" spans="1:16" ht="15" hidden="1">
+    <row r="66" spans="1:16" ht="14.4" hidden="1">
       <c r="A66" s="47">
         <v>1</v>
       </c>
@@ -7846,7 +7862,7 @@
       </c>
       <c r="P66" s="42"/>
     </row>
-    <row r="67" spans="1:16" ht="15" hidden="1">
+    <row r="67" spans="1:16" ht="14.4" hidden="1">
       <c r="A67" s="47">
         <v>1</v>
       </c>
@@ -7888,7 +7904,7 @@
       </c>
       <c r="P67" s="42"/>
     </row>
-    <row r="68" spans="1:16" ht="15" hidden="1">
+    <row r="68" spans="1:16" ht="14.4" hidden="1">
       <c r="A68" s="47">
         <v>1</v>
       </c>
@@ -7932,7 +7948,7 @@
       </c>
       <c r="P68" s="42"/>
     </row>
-    <row r="69" spans="1:16" ht="15" hidden="1">
+    <row r="69" spans="1:16" ht="14.4" hidden="1">
       <c r="A69" s="47">
         <v>1</v>
       </c>
@@ -7974,7 +7990,7 @@
       </c>
       <c r="P69" s="42"/>
     </row>
-    <row r="70" spans="1:16" ht="15" hidden="1">
+    <row r="70" spans="1:16" ht="14.4" hidden="1">
       <c r="A70" s="47">
         <v>1</v>
       </c>
@@ -8016,7 +8032,7 @@
       </c>
       <c r="P70" s="42"/>
     </row>
-    <row r="71" spans="1:16" ht="15" hidden="1">
+    <row r="71" spans="1:16" ht="14.4" hidden="1">
       <c r="A71" s="47">
         <v>1</v>
       </c>
@@ -8058,7 +8074,7 @@
       </c>
       <c r="P71" s="42"/>
     </row>
-    <row r="72" spans="1:16" ht="15" hidden="1">
+    <row r="72" spans="1:16" ht="14.4" hidden="1">
       <c r="A72" s="47">
         <v>1</v>
       </c>
@@ -8100,7 +8116,7 @@
       </c>
       <c r="P72" s="42"/>
     </row>
-    <row r="73" spans="1:16" ht="15" hidden="1">
+    <row r="73" spans="1:16" ht="14.4" hidden="1">
       <c r="A73" s="47">
         <v>1</v>
       </c>
@@ -8142,7 +8158,7 @@
       </c>
       <c r="P73" s="42"/>
     </row>
-    <row r="74" spans="1:16" ht="15" hidden="1">
+    <row r="74" spans="1:16" ht="14.4" hidden="1">
       <c r="A74" s="47">
         <v>1</v>
       </c>
@@ -8184,7 +8200,7 @@
       </c>
       <c r="P74" s="42"/>
     </row>
-    <row r="75" spans="1:16" ht="15" hidden="1">
+    <row r="75" spans="1:16" ht="14.4" hidden="1">
       <c r="A75" s="47">
         <v>1</v>
       </c>
@@ -8226,7 +8242,7 @@
       </c>
       <c r="P75" s="42"/>
     </row>
-    <row r="76" spans="1:16" ht="15" hidden="1">
+    <row r="76" spans="1:16" ht="14.4" hidden="1">
       <c r="A76" s="47">
         <v>1</v>
       </c>
@@ -8268,7 +8284,7 @@
       </c>
       <c r="P76" s="42"/>
     </row>
-    <row r="77" spans="1:16" ht="15" hidden="1">
+    <row r="77" spans="1:16" ht="14.4" hidden="1">
       <c r="A77" s="47">
         <v>1</v>
       </c>
@@ -8310,7 +8326,7 @@
       </c>
       <c r="P77" s="42"/>
     </row>
-    <row r="78" spans="1:16" ht="15" hidden="1">
+    <row r="78" spans="1:16" ht="14.4" hidden="1">
       <c r="A78" s="47">
         <v>1</v>
       </c>
@@ -8352,7 +8368,7 @@
       </c>
       <c r="P78" s="42"/>
     </row>
-    <row r="79" spans="1:16" ht="15" hidden="1">
+    <row r="79" spans="1:16" ht="14.4" hidden="1">
       <c r="A79" s="47">
         <v>1</v>
       </c>
@@ -8394,7 +8410,7 @@
       </c>
       <c r="P79" s="42"/>
     </row>
-    <row r="80" spans="1:16" ht="15" hidden="1">
+    <row r="80" spans="1:16" ht="14.4" hidden="1">
       <c r="A80" s="47">
         <v>1</v>
       </c>
@@ -8436,7 +8452,7 @@
       </c>
       <c r="P80" s="42"/>
     </row>
-    <row r="81" spans="1:16" ht="15" hidden="1">
+    <row r="81" spans="1:16" ht="14.4" hidden="1">
       <c r="A81" s="47">
         <v>1</v>
       </c>
@@ -8478,7 +8494,7 @@
       </c>
       <c r="P81" s="42"/>
     </row>
-    <row r="82" spans="1:16" ht="15" hidden="1">
+    <row r="82" spans="1:16" ht="14.4" hidden="1">
       <c r="A82" s="47">
         <v>1</v>
       </c>
@@ -8520,7 +8536,7 @@
       </c>
       <c r="P82" s="42"/>
     </row>
-    <row r="83" spans="1:16" ht="15" hidden="1">
+    <row r="83" spans="1:16" ht="14.4" hidden="1">
       <c r="A83" s="47">
         <v>1</v>
       </c>
@@ -8564,7 +8580,7 @@
       </c>
       <c r="P83" s="42"/>
     </row>
-    <row r="84" spans="1:16" ht="15" hidden="1">
+    <row r="84" spans="1:16" ht="14.4" hidden="1">
       <c r="A84" s="47">
         <v>1</v>
       </c>
@@ -8606,7 +8622,7 @@
       </c>
       <c r="P84" s="42"/>
     </row>
-    <row r="85" spans="1:16" ht="15" hidden="1">
+    <row r="85" spans="1:16" ht="14.4" hidden="1">
       <c r="A85" s="47">
         <v>1</v>
       </c>
@@ -8648,7 +8664,7 @@
       </c>
       <c r="P85" s="42"/>
     </row>
-    <row r="86" spans="1:16" ht="15" hidden="1">
+    <row r="86" spans="1:16" ht="14.4" hidden="1">
       <c r="A86" s="47">
         <v>1</v>
       </c>
@@ -8690,7 +8706,7 @@
       </c>
       <c r="P86" s="42"/>
     </row>
-    <row r="87" spans="1:16" ht="15" hidden="1">
+    <row r="87" spans="1:16" ht="14.4" hidden="1">
       <c r="A87" s="47">
         <v>1</v>
       </c>
@@ -8732,7 +8748,7 @@
       </c>
       <c r="P87" s="42"/>
     </row>
-    <row r="88" spans="1:16" ht="15" hidden="1">
+    <row r="88" spans="1:16" ht="14.4" hidden="1">
       <c r="A88" s="47">
         <v>1</v>
       </c>
@@ -8774,7 +8790,7 @@
       </c>
       <c r="P88" s="42"/>
     </row>
-    <row r="89" spans="1:16" ht="15" hidden="1">
+    <row r="89" spans="1:16" ht="14.4" hidden="1">
       <c r="A89" s="47">
         <v>1</v>
       </c>
@@ -8818,7 +8834,7 @@
       </c>
       <c r="P89" s="42"/>
     </row>
-    <row r="90" spans="1:16" ht="15" hidden="1">
+    <row r="90" spans="1:16" ht="14.4" hidden="1">
       <c r="A90" s="47">
         <v>1</v>
       </c>
@@ -8860,7 +8876,7 @@
       </c>
       <c r="P90" s="42"/>
     </row>
-    <row r="91" spans="1:16" ht="15" hidden="1">
+    <row r="91" spans="1:16" ht="14.4" hidden="1">
       <c r="A91" s="47">
         <v>1</v>
       </c>
@@ -8902,7 +8918,7 @@
       </c>
       <c r="P91" s="42"/>
     </row>
-    <row r="92" spans="1:16" ht="15" hidden="1">
+    <row r="92" spans="1:16" ht="14.4" hidden="1">
       <c r="A92" s="47">
         <v>1</v>
       </c>
@@ -8944,7 +8960,7 @@
       </c>
       <c r="P92" s="42"/>
     </row>
-    <row r="93" spans="1:16" ht="15" hidden="1">
+    <row r="93" spans="1:16" ht="14.4" hidden="1">
       <c r="A93" s="47">
         <v>1</v>
       </c>
@@ -8986,7 +9002,7 @@
       </c>
       <c r="P93" s="42"/>
     </row>
-    <row r="94" spans="1:16" ht="15" hidden="1">
+    <row r="94" spans="1:16" ht="14.4" hidden="1">
       <c r="A94" s="47">
         <v>1</v>
       </c>
@@ -9028,7 +9044,7 @@
       </c>
       <c r="P94" s="42"/>
     </row>
-    <row r="95" spans="1:16" ht="15" hidden="1">
+    <row r="95" spans="1:16" ht="14.4" hidden="1">
       <c r="A95" s="47">
         <v>1</v>
       </c>
@@ -9070,7 +9086,7 @@
       </c>
       <c r="P95" s="42"/>
     </row>
-    <row r="96" spans="1:16" ht="15" hidden="1">
+    <row r="96" spans="1:16" ht="14.4" hidden="1">
       <c r="A96" s="47">
         <v>1</v>
       </c>
@@ -9112,7 +9128,7 @@
       </c>
       <c r="P96" s="42"/>
     </row>
-    <row r="97" spans="1:16" ht="15" hidden="1">
+    <row r="97" spans="1:16" ht="14.4" hidden="1">
       <c r="A97" s="47">
         <v>1</v>
       </c>
@@ -9154,7 +9170,7 @@
       </c>
       <c r="P97" s="42"/>
     </row>
-    <row r="98" spans="1:16" ht="15" hidden="1">
+    <row r="98" spans="1:16" ht="14.4" hidden="1">
       <c r="A98" s="47">
         <v>1</v>
       </c>
@@ -9196,7 +9212,7 @@
       </c>
       <c r="P98" s="42"/>
     </row>
-    <row r="99" spans="1:16" ht="15" hidden="1">
+    <row r="99" spans="1:16" ht="14.4" hidden="1">
       <c r="A99" s="47">
         <v>1</v>
       </c>
@@ -9238,7 +9254,7 @@
       </c>
       <c r="P99" s="42"/>
     </row>
-    <row r="100" spans="1:16" ht="15" hidden="1">
+    <row r="100" spans="1:16" ht="14.4" hidden="1">
       <c r="A100" s="47">
         <v>1</v>
       </c>
@@ -9280,7 +9296,7 @@
       </c>
       <c r="P100" s="42"/>
     </row>
-    <row r="101" spans="1:16" ht="15" hidden="1">
+    <row r="101" spans="1:16" ht="14.4" hidden="1">
       <c r="A101" s="47">
         <v>1</v>
       </c>
@@ -9322,7 +9338,7 @@
       </c>
       <c r="P101" s="42"/>
     </row>
-    <row r="102" spans="1:16" ht="15" hidden="1">
+    <row r="102" spans="1:16" ht="14.4" hidden="1">
       <c r="A102" s="47">
         <v>1</v>
       </c>
@@ -9366,7 +9382,7 @@
       </c>
       <c r="P102" s="42"/>
     </row>
-    <row r="103" spans="1:16" ht="15" hidden="1">
+    <row r="103" spans="1:16" ht="14.4" hidden="1">
       <c r="A103" s="47">
         <v>1</v>
       </c>
@@ -9408,7 +9424,7 @@
       </c>
       <c r="P103" s="42"/>
     </row>
-    <row r="104" spans="1:16" ht="15" hidden="1">
+    <row r="104" spans="1:16" ht="14.4" hidden="1">
       <c r="A104" s="47">
         <v>1</v>
       </c>
@@ -9450,7 +9466,7 @@
       </c>
       <c r="P104" s="42"/>
     </row>
-    <row r="105" spans="1:16" ht="15" hidden="1">
+    <row r="105" spans="1:16" ht="14.4" hidden="1">
       <c r="A105" s="47">
         <v>1</v>
       </c>
@@ -9492,7 +9508,7 @@
       </c>
       <c r="P105" s="42"/>
     </row>
-    <row r="106" spans="1:16" ht="15" hidden="1">
+    <row r="106" spans="1:16" ht="14.4" hidden="1">
       <c r="A106" s="47">
         <v>1</v>
       </c>
@@ -9534,7 +9550,7 @@
       </c>
       <c r="P106" s="42"/>
     </row>
-    <row r="107" spans="1:16" ht="15" hidden="1">
+    <row r="107" spans="1:16" ht="14.4" hidden="1">
       <c r="A107" s="47">
         <v>1</v>
       </c>
@@ -9576,7 +9592,7 @@
       </c>
       <c r="P107" s="42"/>
     </row>
-    <row r="108" spans="1:16" ht="15" hidden="1">
+    <row r="108" spans="1:16" ht="14.4" hidden="1">
       <c r="A108" s="47">
         <v>1</v>
       </c>
@@ -9618,7 +9634,7 @@
       </c>
       <c r="P108" s="42"/>
     </row>
-    <row r="109" spans="1:16" ht="15" hidden="1">
+    <row r="109" spans="1:16" ht="14.4" hidden="1">
       <c r="A109" s="47">
         <v>1</v>
       </c>
@@ -9660,7 +9676,7 @@
       </c>
       <c r="P109" s="42"/>
     </row>
-    <row r="110" spans="1:16" ht="15" hidden="1">
+    <row r="110" spans="1:16" ht="14.4" hidden="1">
       <c r="A110" s="47">
         <v>1</v>
       </c>
@@ -9702,7 +9718,7 @@
       </c>
       <c r="P110" s="42"/>
     </row>
-    <row r="111" spans="1:16" ht="15" hidden="1">
+    <row r="111" spans="1:16" ht="14.4" hidden="1">
       <c r="A111" s="47">
         <v>1</v>
       </c>
@@ -9744,7 +9760,7 @@
       </c>
       <c r="P111" s="42"/>
     </row>
-    <row r="112" spans="1:16" ht="15" hidden="1">
+    <row r="112" spans="1:16" ht="14.4" hidden="1">
       <c r="A112" s="47">
         <v>1</v>
       </c>
@@ -9786,7 +9802,7 @@
       </c>
       <c r="P112" s="42"/>
     </row>
-    <row r="113" spans="1:16" ht="15" hidden="1">
+    <row r="113" spans="1:16" ht="14.4" hidden="1">
       <c r="A113" s="47">
         <v>1</v>
       </c>
@@ -9828,7 +9844,7 @@
       </c>
       <c r="P113" s="42"/>
     </row>
-    <row r="114" spans="1:16" ht="15" hidden="1">
+    <row r="114" spans="1:16" ht="14.4" hidden="1">
       <c r="A114" s="47">
         <v>1</v>
       </c>
@@ -9870,7 +9886,7 @@
       </c>
       <c r="P114" s="42"/>
     </row>
-    <row r="115" spans="1:16" ht="15" hidden="1">
+    <row r="115" spans="1:16" ht="14.4" hidden="1">
       <c r="A115" s="47">
         <v>1</v>
       </c>
@@ -9912,7 +9928,7 @@
       </c>
       <c r="P115" s="42"/>
     </row>
-    <row r="116" spans="1:16" ht="15" hidden="1">
+    <row r="116" spans="1:16" ht="14.4" hidden="1">
       <c r="A116" s="47">
         <v>1</v>
       </c>
@@ -9954,7 +9970,7 @@
       </c>
       <c r="P116" s="42"/>
     </row>
-    <row r="117" spans="1:16" ht="15" hidden="1">
+    <row r="117" spans="1:16" ht="14.4" hidden="1">
       <c r="A117" s="47">
         <v>1</v>
       </c>
@@ -9996,7 +10012,7 @@
       </c>
       <c r="P117" s="42"/>
     </row>
-    <row r="118" spans="1:16" ht="15" hidden="1">
+    <row r="118" spans="1:16" ht="14.4" hidden="1">
       <c r="A118" s="47">
         <v>1</v>
       </c>
@@ -10038,7 +10054,7 @@
       </c>
       <c r="P118" s="42"/>
     </row>
-    <row r="119" spans="1:16" ht="15" hidden="1">
+    <row r="119" spans="1:16" ht="14.4" hidden="1">
       <c r="A119" s="47">
         <v>1</v>
       </c>
@@ -10080,7 +10096,7 @@
       </c>
       <c r="P119" s="42"/>
     </row>
-    <row r="120" spans="1:16" ht="15" hidden="1">
+    <row r="120" spans="1:16" ht="14.4" hidden="1">
       <c r="A120" s="47">
         <v>1</v>
       </c>
@@ -10122,7 +10138,7 @@
       </c>
       <c r="P120" s="42"/>
     </row>
-    <row r="121" spans="1:16" ht="15" hidden="1">
+    <row r="121" spans="1:16" ht="14.4" hidden="1">
       <c r="A121" s="47">
         <v>1</v>
       </c>
@@ -10166,7 +10182,7 @@
       </c>
       <c r="P121" s="42"/>
     </row>
-    <row r="122" spans="1:16" ht="15" hidden="1">
+    <row r="122" spans="1:16" ht="14.4" hidden="1">
       <c r="A122" s="47">
         <v>1</v>
       </c>
@@ -10208,7 +10224,7 @@
       </c>
       <c r="P122" s="42"/>
     </row>
-    <row r="123" spans="1:16" ht="15" hidden="1">
+    <row r="123" spans="1:16" ht="14.4" hidden="1">
       <c r="A123" s="47">
         <v>1</v>
       </c>
@@ -10250,7 +10266,7 @@
       </c>
       <c r="P123" s="42"/>
     </row>
-    <row r="124" spans="1:16" ht="15" hidden="1">
+    <row r="124" spans="1:16" ht="14.4" hidden="1">
       <c r="A124" s="47">
         <v>1</v>
       </c>
@@ -10292,7 +10308,7 @@
       </c>
       <c r="P124" s="42"/>
     </row>
-    <row r="125" spans="1:16" ht="15" hidden="1">
+    <row r="125" spans="1:16" ht="14.4" hidden="1">
       <c r="A125" s="47">
         <v>1</v>
       </c>
@@ -10334,7 +10350,7 @@
       </c>
       <c r="P125" s="42"/>
     </row>
-    <row r="126" spans="1:16" ht="15" hidden="1">
+    <row r="126" spans="1:16" ht="14.4" hidden="1">
       <c r="A126" s="47">
         <v>1</v>
       </c>
@@ -10376,7 +10392,7 @@
       </c>
       <c r="P126" s="42"/>
     </row>
-    <row r="127" spans="1:16" ht="15" hidden="1">
+    <row r="127" spans="1:16" ht="14.4" hidden="1">
       <c r="A127" s="47">
         <v>1</v>
       </c>
@@ -10418,7 +10434,7 @@
       </c>
       <c r="P127" s="42"/>
     </row>
-    <row r="128" spans="1:16" ht="15" hidden="1">
+    <row r="128" spans="1:16" ht="14.4" hidden="1">
       <c r="A128" s="47">
         <v>1</v>
       </c>
@@ -10460,7 +10476,7 @@
       </c>
       <c r="P128" s="42"/>
     </row>
-    <row r="129" spans="1:16" ht="15" hidden="1">
+    <row r="129" spans="1:16" ht="14.4" hidden="1">
       <c r="A129" s="47">
         <v>1</v>
       </c>
@@ -10502,7 +10518,7 @@
       </c>
       <c r="P129" s="42"/>
     </row>
-    <row r="130" spans="1:16" ht="15" hidden="1">
+    <row r="130" spans="1:16" ht="14.4" hidden="1">
       <c r="A130" s="47">
         <v>1</v>
       </c>
@@ -10544,7 +10560,7 @@
       </c>
       <c r="P130" s="42"/>
     </row>
-    <row r="131" spans="1:16" ht="15" hidden="1">
+    <row r="131" spans="1:16" ht="14.4" hidden="1">
       <c r="A131" s="47">
         <v>1</v>
       </c>
@@ -10586,7 +10602,7 @@
       </c>
       <c r="P131" s="42"/>
     </row>
-    <row r="132" spans="1:16" ht="15" hidden="1">
+    <row r="132" spans="1:16" ht="14.4" hidden="1">
       <c r="A132" s="47">
         <v>1</v>
       </c>
@@ -10628,7 +10644,7 @@
       </c>
       <c r="P132" s="42"/>
     </row>
-    <row r="133" spans="1:16" ht="15" hidden="1">
+    <row r="133" spans="1:16" ht="14.4" hidden="1">
       <c r="A133" s="47">
         <v>1</v>
       </c>
@@ -10670,7 +10686,7 @@
       </c>
       <c r="P133" s="42"/>
     </row>
-    <row r="134" spans="1:16" ht="15" hidden="1">
+    <row r="134" spans="1:16" ht="14.4" hidden="1">
       <c r="A134" s="47">
         <v>1</v>
       </c>
@@ -10712,7 +10728,7 @@
       </c>
       <c r="P134" s="42"/>
     </row>
-    <row r="135" spans="1:16" ht="15" hidden="1">
+    <row r="135" spans="1:16" ht="14.4" hidden="1">
       <c r="A135" s="47">
         <v>1</v>
       </c>
@@ -10754,7 +10770,7 @@
       </c>
       <c r="P135" s="42"/>
     </row>
-    <row r="136" spans="1:16" ht="15" hidden="1">
+    <row r="136" spans="1:16" ht="14.4" hidden="1">
       <c r="A136" s="47">
         <v>1</v>
       </c>
@@ -10796,7 +10812,7 @@
       </c>
       <c r="P136" s="42"/>
     </row>
-    <row r="137" spans="1:16" ht="15" hidden="1">
+    <row r="137" spans="1:16" ht="14.4" hidden="1">
       <c r="A137" s="47">
         <v>1</v>
       </c>
@@ -10838,7 +10854,7 @@
       </c>
       <c r="P137" s="42"/>
     </row>
-    <row r="138" spans="1:16" ht="15" hidden="1">
+    <row r="138" spans="1:16" ht="14.4" hidden="1">
       <c r="A138" s="47">
         <v>1</v>
       </c>
@@ -10882,7 +10898,7 @@
       </c>
       <c r="P138" s="42"/>
     </row>
-    <row r="139" spans="1:16" ht="15" hidden="1">
+    <row r="139" spans="1:16" ht="14.4" hidden="1">
       <c r="A139" s="47">
         <v>1</v>
       </c>
@@ -10924,7 +10940,7 @@
       </c>
       <c r="P139" s="42"/>
     </row>
-    <row r="140" spans="1:16" ht="15" hidden="1">
+    <row r="140" spans="1:16" ht="14.4" hidden="1">
       <c r="A140" s="47">
         <v>1</v>
       </c>
@@ -10966,7 +10982,7 @@
       </c>
       <c r="P140" s="42"/>
     </row>
-    <row r="141" spans="1:16" ht="15" hidden="1">
+    <row r="141" spans="1:16" ht="14.4" hidden="1">
       <c r="A141" s="47">
         <v>1</v>
       </c>
@@ -11008,7 +11024,7 @@
       </c>
       <c r="P141" s="42"/>
     </row>
-    <row r="142" spans="1:16" ht="15" hidden="1">
+    <row r="142" spans="1:16" ht="14.4" hidden="1">
       <c r="A142" s="47">
         <v>1</v>
       </c>
@@ -11050,7 +11066,7 @@
       </c>
       <c r="P142" s="42"/>
     </row>
-    <row r="143" spans="1:16" ht="15" hidden="1">
+    <row r="143" spans="1:16" ht="14.4" hidden="1">
       <c r="A143" s="47">
         <v>1</v>
       </c>
@@ -11092,7 +11108,7 @@
       </c>
       <c r="P143" s="42"/>
     </row>
-    <row r="144" spans="1:16" ht="15" hidden="1">
+    <row r="144" spans="1:16" ht="14.4" hidden="1">
       <c r="A144" s="47">
         <v>1</v>
       </c>
@@ -11134,7 +11150,7 @@
       </c>
       <c r="P144" s="42"/>
     </row>
-    <row r="145" spans="1:16" ht="15" hidden="1">
+    <row r="145" spans="1:16" ht="14.4" hidden="1">
       <c r="A145" s="47">
         <v>1</v>
       </c>
@@ -11176,7 +11192,7 @@
       </c>
       <c r="P145" s="42"/>
     </row>
-    <row r="146" spans="1:16" ht="15" hidden="1">
+    <row r="146" spans="1:16" ht="14.4" hidden="1">
       <c r="A146" s="47">
         <v>1</v>
       </c>
@@ -11218,7 +11234,7 @@
       </c>
       <c r="P146" s="42"/>
     </row>
-    <row r="147" spans="1:16" ht="15" hidden="1">
+    <row r="147" spans="1:16" ht="14.4" hidden="1">
       <c r="A147" s="47">
         <v>1</v>
       </c>
@@ -11260,7 +11276,7 @@
       </c>
       <c r="P147" s="42"/>
     </row>
-    <row r="148" spans="1:16" ht="15" hidden="1">
+    <row r="148" spans="1:16" ht="14.4" hidden="1">
       <c r="A148" s="47">
         <v>1</v>
       </c>
@@ -11302,7 +11318,7 @@
       </c>
       <c r="P148" s="42"/>
     </row>
-    <row r="149" spans="1:16" ht="15" hidden="1">
+    <row r="149" spans="1:16" ht="14.4" hidden="1">
       <c r="A149" s="47">
         <v>1</v>
       </c>
@@ -11344,7 +11360,7 @@
       </c>
       <c r="P149" s="42"/>
     </row>
-    <row r="150" spans="1:16" ht="15" hidden="1">
+    <row r="150" spans="1:16" ht="14.4" hidden="1">
       <c r="A150" s="47">
         <v>1</v>
       </c>
@@ -11388,7 +11404,7 @@
       </c>
       <c r="P150" s="42"/>
     </row>
-    <row r="151" spans="1:16" ht="15" hidden="1">
+    <row r="151" spans="1:16" ht="14.4" hidden="1">
       <c r="A151" s="47">
         <v>1</v>
       </c>
@@ -11430,7 +11446,7 @@
       </c>
       <c r="P151" s="42"/>
     </row>
-    <row r="152" spans="1:16" ht="15" hidden="1">
+    <row r="152" spans="1:16" ht="14.4" hidden="1">
       <c r="A152" s="47">
         <v>1</v>
       </c>
@@ -11472,7 +11488,7 @@
       </c>
       <c r="P152" s="42"/>
     </row>
-    <row r="153" spans="1:16" ht="15" hidden="1">
+    <row r="153" spans="1:16" ht="14.4" hidden="1">
       <c r="A153" s="47">
         <v>1</v>
       </c>
@@ -11514,7 +11530,7 @@
       </c>
       <c r="P153" s="42"/>
     </row>
-    <row r="154" spans="1:16" ht="15" hidden="1">
+    <row r="154" spans="1:16" ht="14.4" hidden="1">
       <c r="A154" s="47">
         <v>1</v>
       </c>
@@ -11556,7 +11572,7 @@
       </c>
       <c r="P154" s="42"/>
     </row>
-    <row r="155" spans="1:16" ht="15" hidden="1">
+    <row r="155" spans="1:16" ht="14.4" hidden="1">
       <c r="A155" s="47">
         <v>1</v>
       </c>
@@ -11598,7 +11614,7 @@
       </c>
       <c r="P155" s="42"/>
     </row>
-    <row r="156" spans="1:16" ht="15" hidden="1">
+    <row r="156" spans="1:16" ht="14.4" hidden="1">
       <c r="A156" s="47">
         <v>1</v>
       </c>
@@ -11640,7 +11656,7 @@
       </c>
       <c r="P156" s="42"/>
     </row>
-    <row r="157" spans="1:16" ht="15" hidden="1">
+    <row r="157" spans="1:16" ht="14.4" hidden="1">
       <c r="A157" s="47">
         <v>1</v>
       </c>
@@ -11682,7 +11698,7 @@
       </c>
       <c r="P157" s="42"/>
     </row>
-    <row r="158" spans="1:16" ht="15" hidden="1">
+    <row r="158" spans="1:16" ht="14.4" hidden="1">
       <c r="A158" s="47">
         <v>1</v>
       </c>
@@ -11726,7 +11742,7 @@
       </c>
       <c r="P158" s="42"/>
     </row>
-    <row r="159" spans="1:16" ht="15" hidden="1">
+    <row r="159" spans="1:16" ht="14.4" hidden="1">
       <c r="A159" s="47">
         <v>1</v>
       </c>
@@ -11768,7 +11784,7 @@
       </c>
       <c r="P159" s="42"/>
     </row>
-    <row r="160" spans="1:16" ht="15" hidden="1">
+    <row r="160" spans="1:16" ht="14.4" hidden="1">
       <c r="A160" s="47">
         <v>1</v>
       </c>
@@ -11810,7 +11826,7 @@
       </c>
       <c r="P160" s="42"/>
     </row>
-    <row r="161" spans="1:16" ht="15" hidden="1">
+    <row r="161" spans="1:16" ht="14.4" hidden="1">
       <c r="A161" s="47">
         <v>1</v>
       </c>
@@ -11852,7 +11868,7 @@
       </c>
       <c r="P161" s="42"/>
     </row>
-    <row r="162" spans="1:16" ht="15" hidden="1">
+    <row r="162" spans="1:16" ht="14.4" hidden="1">
       <c r="A162" s="47">
         <v>1</v>
       </c>
@@ -11894,7 +11910,7 @@
       </c>
       <c r="P162" s="42"/>
     </row>
-    <row r="163" spans="1:16" ht="15" hidden="1">
+    <row r="163" spans="1:16" ht="14.4" hidden="1">
       <c r="A163" s="47">
         <v>1</v>
       </c>
@@ -11936,7 +11952,7 @@
       </c>
       <c r="P163" s="42"/>
     </row>
-    <row r="164" spans="1:16" ht="15" hidden="1">
+    <row r="164" spans="1:16" ht="14.4" hidden="1">
       <c r="A164" s="47">
         <v>1</v>
       </c>
@@ -11978,7 +11994,7 @@
       </c>
       <c r="P164" s="42"/>
     </row>
-    <row r="165" spans="1:16" ht="15" hidden="1">
+    <row r="165" spans="1:16" ht="14.4" hidden="1">
       <c r="A165" s="47">
         <v>1</v>
       </c>
@@ -12020,7 +12036,7 @@
       </c>
       <c r="P165" s="42"/>
     </row>
-    <row r="166" spans="1:16" ht="15" hidden="1">
+    <row r="166" spans="1:16" ht="14.4" hidden="1">
       <c r="A166" s="47">
         <v>1</v>
       </c>
@@ -12064,7 +12080,7 @@
       </c>
       <c r="P166" s="42"/>
     </row>
-    <row r="167" spans="1:16" ht="15" hidden="1">
+    <row r="167" spans="1:16" ht="14.4" hidden="1">
       <c r="A167" s="47">
         <v>1</v>
       </c>
@@ -12106,7 +12122,7 @@
       </c>
       <c r="P167" s="42"/>
     </row>
-    <row r="168" spans="1:16" ht="15" hidden="1">
+    <row r="168" spans="1:16" ht="14.4" hidden="1">
       <c r="A168" s="47">
         <v>1</v>
       </c>
@@ -12148,7 +12164,7 @@
       </c>
       <c r="P168" s="42"/>
     </row>
-    <row r="169" spans="1:16" ht="15" hidden="1">
+    <row r="169" spans="1:16" ht="14.4" hidden="1">
       <c r="A169" s="47">
         <v>1</v>
       </c>
@@ -12190,7 +12206,7 @@
       </c>
       <c r="P169" s="42"/>
     </row>
-    <row r="170" spans="1:16" ht="15" hidden="1">
+    <row r="170" spans="1:16" ht="14.4" hidden="1">
       <c r="A170" s="47">
         <v>1</v>
       </c>
@@ -12232,7 +12248,7 @@
       </c>
       <c r="P170" s="42"/>
     </row>
-    <row r="171" spans="1:16" ht="15" hidden="1">
+    <row r="171" spans="1:16" ht="14.4" hidden="1">
       <c r="A171" s="47">
         <v>1</v>
       </c>
@@ -12274,7 +12290,7 @@
       </c>
       <c r="P171" s="42"/>
     </row>
-    <row r="172" spans="1:16" ht="15" hidden="1">
+    <row r="172" spans="1:16" ht="14.4" hidden="1">
       <c r="A172" s="47">
         <v>2</v>
       </c>
@@ -12322,7 +12338,7 @@
       </c>
       <c r="P172" s="42"/>
     </row>
-    <row r="173" spans="1:16" ht="15" hidden="1">
+    <row r="173" spans="1:16" ht="14.4" hidden="1">
       <c r="A173" s="47">
         <v>2</v>
       </c>
@@ -12368,7 +12384,7 @@
       </c>
       <c r="P173" s="42"/>
     </row>
-    <row r="174" spans="1:16" ht="15" hidden="1">
+    <row r="174" spans="1:16" ht="14.4" hidden="1">
       <c r="A174" s="47">
         <v>2</v>
       </c>
@@ -12414,7 +12430,7 @@
       </c>
       <c r="P174" s="42"/>
     </row>
-    <row r="175" spans="1:16" ht="15" hidden="1">
+    <row r="175" spans="1:16" ht="14.4" hidden="1">
       <c r="A175" s="47">
         <v>2</v>
       </c>
@@ -12460,7 +12476,7 @@
       </c>
       <c r="P175" s="42"/>
     </row>
-    <row r="176" spans="1:16" ht="15" hidden="1">
+    <row r="176" spans="1:16" ht="14.4" hidden="1">
       <c r="A176" s="47">
         <v>2</v>
       </c>
@@ -12506,7 +12522,7 @@
       </c>
       <c r="P176" s="42"/>
     </row>
-    <row r="177" spans="1:16" ht="15" hidden="1">
+    <row r="177" spans="1:16" ht="14.4" hidden="1">
       <c r="A177" s="47">
         <v>2</v>
       </c>
@@ -12552,7 +12568,7 @@
       </c>
       <c r="P177" s="42"/>
     </row>
-    <row r="178" spans="1:16" ht="15" hidden="1">
+    <row r="178" spans="1:16" ht="14.4" hidden="1">
       <c r="A178" s="47">
         <v>2</v>
       </c>
@@ -12598,7 +12614,7 @@
       </c>
       <c r="P178" s="42"/>
     </row>
-    <row r="179" spans="1:16" ht="15" hidden="1">
+    <row r="179" spans="1:16" ht="14.4" hidden="1">
       <c r="A179" s="47">
         <v>2</v>
       </c>
@@ -12644,7 +12660,7 @@
       </c>
       <c r="P179" s="42"/>
     </row>
-    <row r="180" spans="1:16" ht="15" hidden="1">
+    <row r="180" spans="1:16" ht="14.4" hidden="1">
       <c r="A180" s="47">
         <v>2</v>
       </c>
@@ -12690,7 +12706,7 @@
       </c>
       <c r="P180" s="42"/>
     </row>
-    <row r="181" spans="1:16" ht="15" hidden="1">
+    <row r="181" spans="1:16" ht="14.4" hidden="1">
       <c r="A181" s="47">
         <v>2</v>
       </c>
@@ -12738,7 +12754,7 @@
       </c>
       <c r="P181" s="42"/>
     </row>
-    <row r="182" spans="1:16" ht="15" hidden="1">
+    <row r="182" spans="1:16" ht="14.4" hidden="1">
       <c r="A182" s="47">
         <v>2</v>
       </c>
@@ -12784,7 +12800,7 @@
       </c>
       <c r="P182" s="42"/>
     </row>
-    <row r="183" spans="1:16" ht="15">
+    <row r="183" spans="1:16" ht="14.4">
       <c r="A183" s="47">
         <v>2</v>
       </c>
@@ -12830,7 +12846,7 @@
       </c>
       <c r="P183" s="42"/>
     </row>
-    <row r="184" spans="1:16" ht="15">
+    <row r="184" spans="1:16" ht="14.4">
       <c r="A184" s="47">
         <v>2</v>
       </c>
@@ -12876,7 +12892,7 @@
       </c>
       <c r="P184" s="42"/>
     </row>
-    <row r="185" spans="1:16" ht="15">
+    <row r="185" spans="1:16" ht="14.4">
       <c r="A185" s="47">
         <v>2</v>
       </c>
@@ -12922,7 +12938,7 @@
       </c>
       <c r="P185" s="42"/>
     </row>
-    <row r="186" spans="1:16" ht="15">
+    <row r="186" spans="1:16" ht="14.4">
       <c r="A186" s="47">
         <v>2</v>
       </c>
@@ -12968,7 +12984,7 @@
       </c>
       <c r="P186" s="42"/>
     </row>
-    <row r="187" spans="1:16" ht="15">
+    <row r="187" spans="1:16" ht="14.4">
       <c r="A187" s="47">
         <v>2</v>
       </c>
@@ -13014,7 +13030,7 @@
       </c>
       <c r="P187" s="42"/>
     </row>
-    <row r="188" spans="1:16" ht="15">
+    <row r="188" spans="1:16" ht="14.4">
       <c r="A188" s="47">
         <v>2</v>
       </c>
@@ -13060,7 +13076,7 @@
       </c>
       <c r="P188" s="42"/>
     </row>
-    <row r="189" spans="1:16" ht="15">
+    <row r="189" spans="1:16" ht="14.4">
       <c r="A189" s="47">
         <v>2</v>
       </c>
@@ -13106,7 +13122,7 @@
       </c>
       <c r="P189" s="42"/>
     </row>
-    <row r="190" spans="1:16" ht="15">
+    <row r="190" spans="1:16" ht="14.4">
       <c r="A190" s="47">
         <v>2</v>
       </c>
@@ -13150,7 +13166,7 @@
       </c>
       <c r="P190" s="42"/>
     </row>
-    <row r="191" spans="1:16" ht="15">
+    <row r="191" spans="1:16" ht="14.4">
       <c r="A191" s="47">
         <v>2</v>
       </c>
@@ -13194,7 +13210,7 @@
       </c>
       <c r="P191" s="42"/>
     </row>
-    <row r="192" spans="1:16" ht="15">
+    <row r="192" spans="1:16" ht="14.4">
       <c r="A192" s="47">
         <v>2</v>
       </c>
@@ -13240,7 +13256,7 @@
       </c>
       <c r="P192" s="42"/>
     </row>
-    <row r="193" spans="1:16" ht="15">
+    <row r="193" spans="1:16" ht="14.4">
       <c r="A193" s="47">
         <v>2</v>
       </c>
@@ -13286,7 +13302,7 @@
       </c>
       <c r="P193" s="42"/>
     </row>
-    <row r="194" spans="1:16" ht="15">
+    <row r="194" spans="1:16" ht="14.4">
       <c r="A194" s="47">
         <v>2</v>
       </c>
@@ -13332,7 +13348,7 @@
       </c>
       <c r="P194" s="42"/>
     </row>
-    <row r="195" spans="1:16" ht="15">
+    <row r="195" spans="1:16" ht="14.4">
       <c r="A195" s="47">
         <v>2</v>
       </c>
@@ -13378,7 +13394,7 @@
       </c>
       <c r="P195" s="42"/>
     </row>
-    <row r="196" spans="1:16" ht="15">
+    <row r="196" spans="1:16" ht="14.4">
       <c r="A196" s="47">
         <v>2</v>
       </c>
@@ -13424,7 +13440,7 @@
       </c>
       <c r="P196" s="42"/>
     </row>
-    <row r="197" spans="1:16" ht="15">
+    <row r="197" spans="1:16" ht="14.4">
       <c r="A197" s="47">
         <v>2</v>
       </c>
@@ -13470,7 +13486,7 @@
       </c>
       <c r="P197" s="42"/>
     </row>
-    <row r="198" spans="1:16" ht="15">
+    <row r="198" spans="1:16" ht="14.4">
       <c r="A198" s="47">
         <v>2</v>
       </c>
@@ -13516,7 +13532,7 @@
       </c>
       <c r="P198" s="42"/>
     </row>
-    <row r="199" spans="1:16" ht="15">
+    <row r="199" spans="1:16" ht="14.4">
       <c r="A199" s="47">
         <v>2</v>
       </c>
@@ -13562,7 +13578,7 @@
       </c>
       <c r="P199" s="42"/>
     </row>
-    <row r="200" spans="1:16" ht="15">
+    <row r="200" spans="1:16" ht="14.4">
       <c r="A200" s="47">
         <v>2</v>
       </c>
@@ -13606,7 +13622,7 @@
       </c>
       <c r="P200" s="42"/>
     </row>
-    <row r="201" spans="1:16" ht="15">
+    <row r="201" spans="1:16" ht="14.4">
       <c r="A201" s="47">
         <v>2</v>
       </c>
@@ -13650,7 +13666,7 @@
       </c>
       <c r="P201" s="42"/>
     </row>
-    <row r="202" spans="1:16" ht="15">
+    <row r="202" spans="1:16" ht="14.4">
       <c r="A202" s="47">
         <v>2</v>
       </c>
@@ -13694,7 +13710,7 @@
       </c>
       <c r="P202" s="42"/>
     </row>
-    <row r="203" spans="1:16" ht="15">
+    <row r="203" spans="1:16" ht="14.4">
       <c r="A203" s="47">
         <v>2</v>
       </c>
@@ -13738,7 +13754,7 @@
       </c>
       <c r="P203" s="42"/>
     </row>
-    <row r="204" spans="1:16" ht="15">
+    <row r="204" spans="1:16" ht="14.4">
       <c r="A204" s="47">
         <v>2</v>
       </c>
@@ -13782,7 +13798,7 @@
       </c>
       <c r="P204" s="42"/>
     </row>
-    <row r="205" spans="1:16" ht="15">
+    <row r="205" spans="1:16" ht="14.4">
       <c r="A205" s="47">
         <v>2</v>
       </c>
@@ -13826,7 +13842,7 @@
       </c>
       <c r="P205" s="42"/>
     </row>
-    <row r="206" spans="1:16" ht="15">
+    <row r="206" spans="1:16" ht="14.4">
       <c r="A206" s="47">
         <v>2</v>
       </c>
@@ -13870,7 +13886,7 @@
       </c>
       <c r="P206" s="42"/>
     </row>
-    <row r="207" spans="1:16" ht="15">
+    <row r="207" spans="1:16" ht="14.4">
       <c r="A207" s="47">
         <v>2</v>
       </c>
@@ -13914,7 +13930,7 @@
       </c>
       <c r="P207" s="42"/>
     </row>
-    <row r="208" spans="1:16" ht="15">
+    <row r="208" spans="1:16" ht="14.4">
       <c r="A208" s="47">
         <v>2</v>
       </c>
@@ -13958,7 +13974,7 @@
       </c>
       <c r="P208" s="42"/>
     </row>
-    <row r="209" spans="1:16" ht="15">
+    <row r="209" spans="1:16" ht="14.4">
       <c r="A209" s="47">
         <v>2</v>
       </c>
@@ -14002,7 +14018,7 @@
       </c>
       <c r="P209" s="42"/>
     </row>
-    <row r="210" spans="1:16" ht="15">
+    <row r="210" spans="1:16" ht="14.4">
       <c r="A210" s="47">
         <v>2</v>
       </c>
@@ -14046,7 +14062,7 @@
       </c>
       <c r="P210" s="42"/>
     </row>
-    <row r="211" spans="1:16" ht="15">
+    <row r="211" spans="1:16" ht="14.4">
       <c r="A211" s="47">
         <v>2</v>
       </c>
@@ -14090,7 +14106,7 @@
       </c>
       <c r="P211" s="42"/>
     </row>
-    <row r="212" spans="1:16" ht="15">
+    <row r="212" spans="1:16" ht="14.4">
       <c r="A212" s="47">
         <v>2</v>
       </c>
@@ -14134,7 +14150,7 @@
       </c>
       <c r="P212" s="42"/>
     </row>
-    <row r="213" spans="1:16" ht="15">
+    <row r="213" spans="1:16" ht="14.4">
       <c r="A213" s="47">
         <v>2</v>
       </c>
@@ -14178,7 +14194,7 @@
       </c>
       <c r="P213" s="42"/>
     </row>
-    <row r="214" spans="1:16" ht="15">
+    <row r="214" spans="1:16" ht="14.4">
       <c r="A214" s="47">
         <v>2</v>
       </c>
@@ -14222,7 +14238,7 @@
       </c>
       <c r="P214" s="42"/>
     </row>
-    <row r="215" spans="1:16" ht="15">
+    <row r="215" spans="1:16" ht="14.4">
       <c r="A215" s="47">
         <v>2</v>
       </c>
@@ -14266,7 +14282,7 @@
       </c>
       <c r="P215" s="42"/>
     </row>
-    <row r="216" spans="1:16" ht="15" hidden="1">
+    <row r="216" spans="1:16" ht="14.4" hidden="1">
       <c r="A216" s="47">
         <v>2</v>
       </c>
@@ -14310,7 +14326,7 @@
       </c>
       <c r="P216" s="42"/>
     </row>
-    <row r="217" spans="1:16" ht="15" hidden="1">
+    <row r="217" spans="1:16" ht="14.4" hidden="1">
       <c r="A217" s="47">
         <v>2</v>
       </c>
@@ -14352,7 +14368,7 @@
       </c>
       <c r="P217" s="42"/>
     </row>
-    <row r="218" spans="1:16" ht="15" hidden="1">
+    <row r="218" spans="1:16" ht="14.4" hidden="1">
       <c r="A218" s="47">
         <v>2</v>
       </c>
@@ -14394,7 +14410,7 @@
       </c>
       <c r="P218" s="42"/>
     </row>
-    <row r="219" spans="1:16" ht="15" hidden="1">
+    <row r="219" spans="1:16" ht="14.4" hidden="1">
       <c r="A219" s="47">
         <v>2</v>
       </c>
@@ -14436,7 +14452,7 @@
       </c>
       <c r="P219" s="42"/>
     </row>
-    <row r="220" spans="1:16" ht="15" hidden="1">
+    <row r="220" spans="1:16" ht="14.4" hidden="1">
       <c r="A220" s="47">
         <v>2</v>
       </c>
@@ -14478,7 +14494,7 @@
       </c>
       <c r="P220" s="42"/>
     </row>
-    <row r="221" spans="1:16" ht="15" hidden="1">
+    <row r="221" spans="1:16" ht="14.4" hidden="1">
       <c r="A221" s="47">
         <v>2</v>
       </c>
@@ -14520,7 +14536,7 @@
       </c>
       <c r="P221" s="42"/>
     </row>
-    <row r="222" spans="1:16" ht="15" hidden="1">
+    <row r="222" spans="1:16" ht="14.4" hidden="1">
       <c r="A222" s="47">
         <v>2</v>
       </c>
@@ -14562,7 +14578,7 @@
       </c>
       <c r="P222" s="42"/>
     </row>
-    <row r="223" spans="1:16" ht="15" hidden="1">
+    <row r="223" spans="1:16" ht="14.4" hidden="1">
       <c r="A223" s="47">
         <v>2</v>
       </c>
@@ -14604,7 +14620,7 @@
       </c>
       <c r="P223" s="42"/>
     </row>
-    <row r="224" spans="1:16" ht="15" hidden="1">
+    <row r="224" spans="1:16" ht="14.4" hidden="1">
       <c r="A224" s="47">
         <v>2</v>
       </c>
@@ -14646,7 +14662,7 @@
       </c>
       <c r="P224" s="42"/>
     </row>
-    <row r="225" spans="1:16" ht="15" hidden="1">
+    <row r="225" spans="1:16" ht="14.4" hidden="1">
       <c r="A225" s="47">
         <v>2</v>
       </c>
@@ -14688,7 +14704,7 @@
       </c>
       <c r="P225" s="42"/>
     </row>
-    <row r="226" spans="1:16" ht="15" hidden="1">
+    <row r="226" spans="1:16" ht="14.4" hidden="1">
       <c r="A226" s="47">
         <v>2</v>
       </c>
@@ -14730,7 +14746,7 @@
       </c>
       <c r="P226" s="42"/>
     </row>
-    <row r="227" spans="1:16" ht="15" hidden="1">
+    <row r="227" spans="1:16" ht="14.4" hidden="1">
       <c r="A227" s="47">
         <v>2</v>
       </c>
@@ -14772,7 +14788,7 @@
       </c>
       <c r="P227" s="42"/>
     </row>
-    <row r="228" spans="1:16" ht="15" hidden="1">
+    <row r="228" spans="1:16" ht="14.4" hidden="1">
       <c r="A228" s="47">
         <v>2</v>
       </c>
@@ -14814,7 +14830,7 @@
       </c>
       <c r="P228" s="42"/>
     </row>
-    <row r="229" spans="1:16" ht="15" hidden="1">
+    <row r="229" spans="1:16" ht="14.4" hidden="1">
       <c r="A229" s="47">
         <v>2</v>
       </c>
@@ -14856,7 +14872,7 @@
       </c>
       <c r="P229" s="42"/>
     </row>
-    <row r="230" spans="1:16" ht="15" hidden="1">
+    <row r="230" spans="1:16" ht="14.4" hidden="1">
       <c r="A230" s="47">
         <v>2</v>
       </c>
@@ -14898,7 +14914,7 @@
       </c>
       <c r="P230" s="42"/>
     </row>
-    <row r="231" spans="1:16" ht="15" hidden="1">
+    <row r="231" spans="1:16" ht="14.4" hidden="1">
       <c r="A231" s="47">
         <v>2</v>
       </c>
@@ -14942,7 +14958,7 @@
       </c>
       <c r="P231" s="42"/>
     </row>
-    <row r="232" spans="1:16" ht="15" hidden="1">
+    <row r="232" spans="1:16" ht="14.4" hidden="1">
       <c r="A232" s="47">
         <v>2</v>
       </c>
@@ -14984,7 +15000,7 @@
       </c>
       <c r="P232" s="42"/>
     </row>
-    <row r="233" spans="1:16" ht="15" hidden="1">
+    <row r="233" spans="1:16" ht="14.4" hidden="1">
       <c r="A233" s="47">
         <v>2</v>
       </c>
@@ -15026,7 +15042,7 @@
       </c>
       <c r="P233" s="42"/>
     </row>
-    <row r="234" spans="1:16" ht="15" hidden="1">
+    <row r="234" spans="1:16" ht="14.4" hidden="1">
       <c r="A234" s="47">
         <v>2</v>
       </c>
@@ -15068,7 +15084,7 @@
       </c>
       <c r="P234" s="42"/>
     </row>
-    <row r="235" spans="1:16" ht="15" hidden="1">
+    <row r="235" spans="1:16" ht="14.4" hidden="1">
       <c r="A235" s="47">
         <v>2</v>
       </c>
@@ -15110,7 +15126,7 @@
       </c>
       <c r="P235" s="42"/>
     </row>
-    <row r="236" spans="1:16" ht="15" hidden="1">
+    <row r="236" spans="1:16" ht="14.4" hidden="1">
       <c r="A236" s="47">
         <v>2</v>
       </c>
@@ -15152,7 +15168,7 @@
       </c>
       <c r="P236" s="42"/>
     </row>
-    <row r="237" spans="1:16" ht="15" hidden="1">
+    <row r="237" spans="1:16" ht="14.4" hidden="1">
       <c r="A237" s="47">
         <v>2</v>
       </c>
@@ -15194,7 +15210,7 @@
       </c>
       <c r="P237" s="42"/>
     </row>
-    <row r="238" spans="1:16" ht="15" hidden="1">
+    <row r="238" spans="1:16" ht="14.4" hidden="1">
       <c r="A238" s="47">
         <v>2</v>
       </c>
@@ -15236,7 +15252,7 @@
       </c>
       <c r="P238" s="42"/>
     </row>
-    <row r="239" spans="1:16" ht="15" hidden="1">
+    <row r="239" spans="1:16" ht="14.4" hidden="1">
       <c r="A239" s="47">
         <v>2</v>
       </c>
@@ -15278,7 +15294,7 @@
       </c>
       <c r="P239" s="42"/>
     </row>
-    <row r="240" spans="1:16" ht="15" hidden="1">
+    <row r="240" spans="1:16" ht="14.4" hidden="1">
       <c r="A240" s="47">
         <v>2</v>
       </c>
@@ -15320,7 +15336,7 @@
       </c>
       <c r="P240" s="42"/>
     </row>
-    <row r="241" spans="1:16" ht="15" hidden="1">
+    <row r="241" spans="1:16" ht="14.4" hidden="1">
       <c r="A241" s="47">
         <v>2</v>
       </c>
@@ -15362,7 +15378,7 @@
       </c>
       <c r="P241" s="42"/>
     </row>
-    <row r="242" spans="1:16" ht="15" hidden="1">
+    <row r="242" spans="1:16" ht="14.4" hidden="1">
       <c r="A242" s="47">
         <v>2</v>
       </c>
@@ -15404,7 +15420,7 @@
       </c>
       <c r="P242" s="42"/>
     </row>
-    <row r="243" spans="1:16" ht="15" hidden="1">
+    <row r="243" spans="1:16" ht="14.4" hidden="1">
       <c r="A243" s="47">
         <v>2</v>
       </c>
@@ -15446,7 +15462,7 @@
       </c>
       <c r="P243" s="42"/>
     </row>
-    <row r="244" spans="1:16" ht="15" hidden="1">
+    <row r="244" spans="1:16" ht="14.4" hidden="1">
       <c r="A244" s="47">
         <v>2</v>
       </c>
@@ -15488,7 +15504,7 @@
       </c>
       <c r="P244" s="42"/>
     </row>
-    <row r="245" spans="1:16" ht="15" hidden="1">
+    <row r="245" spans="1:16" ht="14.4" hidden="1">
       <c r="A245" s="47">
         <v>2</v>
       </c>
@@ -15532,7 +15548,7 @@
       </c>
       <c r="P245" s="42"/>
     </row>
-    <row r="246" spans="1:16" ht="15" hidden="1">
+    <row r="246" spans="1:16" ht="14.4" hidden="1">
       <c r="A246" s="47">
         <v>2</v>
       </c>
@@ -15574,7 +15590,7 @@
       </c>
       <c r="P246" s="42"/>
     </row>
-    <row r="247" spans="1:16" ht="15" hidden="1">
+    <row r="247" spans="1:16" ht="14.4" hidden="1">
       <c r="A247" s="47">
         <v>2</v>
       </c>
@@ -15616,7 +15632,7 @@
       </c>
       <c r="P247" s="42"/>
     </row>
-    <row r="248" spans="1:16" ht="15" hidden="1">
+    <row r="248" spans="1:16" ht="14.4" hidden="1">
       <c r="A248" s="47">
         <v>2</v>
       </c>
@@ -15658,7 +15674,7 @@
       </c>
       <c r="P248" s="42"/>
     </row>
-    <row r="249" spans="1:16" ht="15" hidden="1">
+    <row r="249" spans="1:16" ht="14.4" hidden="1">
       <c r="A249" s="47">
         <v>2</v>
       </c>
@@ -15700,7 +15716,7 @@
       </c>
       <c r="P249" s="42"/>
     </row>
-    <row r="250" spans="1:16" ht="15" hidden="1">
+    <row r="250" spans="1:16" ht="14.4" hidden="1">
       <c r="A250" s="47">
         <v>2</v>
       </c>
@@ -15742,7 +15758,7 @@
       </c>
       <c r="P250" s="42"/>
     </row>
-    <row r="251" spans="1:16" ht="15" hidden="1">
+    <row r="251" spans="1:16" ht="14.4" hidden="1">
       <c r="A251" s="47">
         <v>2</v>
       </c>
@@ -15784,7 +15800,7 @@
       </c>
       <c r="P251" s="42"/>
     </row>
-    <row r="252" spans="1:16" ht="15" hidden="1">
+    <row r="252" spans="1:16" ht="14.4" hidden="1">
       <c r="A252" s="47">
         <v>2</v>
       </c>
@@ -15826,7 +15842,7 @@
       </c>
       <c r="P252" s="42"/>
     </row>
-    <row r="253" spans="1:16" ht="15" hidden="1">
+    <row r="253" spans="1:16" ht="14.4" hidden="1">
       <c r="A253" s="47">
         <v>2</v>
       </c>
@@ -15868,7 +15884,7 @@
       </c>
       <c r="P253" s="42"/>
     </row>
-    <row r="254" spans="1:16" ht="15" hidden="1">
+    <row r="254" spans="1:16" ht="14.4" hidden="1">
       <c r="A254" s="47">
         <v>2</v>
       </c>
@@ -15910,7 +15926,7 @@
       </c>
       <c r="P254" s="42"/>
     </row>
-    <row r="255" spans="1:16" ht="15" hidden="1">
+    <row r="255" spans="1:16" ht="14.4" hidden="1">
       <c r="A255" s="47">
         <v>2</v>
       </c>
@@ -15952,7 +15968,7 @@
       </c>
       <c r="P255" s="42"/>
     </row>
-    <row r="256" spans="1:16" ht="15" hidden="1">
+    <row r="256" spans="1:16" ht="14.4" hidden="1">
       <c r="A256" s="47">
         <v>2</v>
       </c>
@@ -15994,7 +16010,7 @@
       </c>
       <c r="P256" s="42"/>
     </row>
-    <row r="257" spans="1:16" ht="15" hidden="1">
+    <row r="257" spans="1:16" ht="14.4" hidden="1">
       <c r="A257" s="47">
         <v>2</v>
       </c>
@@ -16038,7 +16054,7 @@
       </c>
       <c r="P257" s="42"/>
     </row>
-    <row r="258" spans="1:16" ht="15" hidden="1">
+    <row r="258" spans="1:16" ht="14.4" hidden="1">
       <c r="A258" s="47">
         <v>2</v>
       </c>
@@ -16080,7 +16096,7 @@
       </c>
       <c r="P258" s="42"/>
     </row>
-    <row r="259" spans="1:16" ht="15" hidden="1">
+    <row r="259" spans="1:16" ht="14.4" hidden="1">
       <c r="A259" s="47">
         <v>2</v>
       </c>
@@ -16122,7 +16138,7 @@
       </c>
       <c r="P259" s="42"/>
     </row>
-    <row r="260" spans="1:16" ht="15" hidden="1">
+    <row r="260" spans="1:16" ht="14.4" hidden="1">
       <c r="A260" s="47">
         <v>2</v>
       </c>
@@ -16164,7 +16180,7 @@
       </c>
       <c r="P260" s="42"/>
     </row>
-    <row r="261" spans="1:16" ht="15" hidden="1">
+    <row r="261" spans="1:16" ht="14.4" hidden="1">
       <c r="A261" s="47">
         <v>2</v>
       </c>
@@ -16206,7 +16222,7 @@
       </c>
       <c r="P261" s="42"/>
     </row>
-    <row r="262" spans="1:16" ht="15" hidden="1">
+    <row r="262" spans="1:16" ht="14.4" hidden="1">
       <c r="A262" s="47">
         <v>2</v>
       </c>
@@ -16248,7 +16264,7 @@
       </c>
       <c r="P262" s="42"/>
     </row>
-    <row r="263" spans="1:16" ht="15" hidden="1">
+    <row r="263" spans="1:16" ht="14.4" hidden="1">
       <c r="A263" s="47">
         <v>2</v>
       </c>
@@ -16290,7 +16306,7 @@
       </c>
       <c r="P263" s="42"/>
     </row>
-    <row r="264" spans="1:16" ht="15" hidden="1">
+    <row r="264" spans="1:16" ht="14.4" hidden="1">
       <c r="A264" s="47">
         <v>2</v>
       </c>
@@ -16332,7 +16348,7 @@
       </c>
       <c r="P264" s="42"/>
     </row>
-    <row r="265" spans="1:16" ht="15" hidden="1">
+    <row r="265" spans="1:16" ht="14.4" hidden="1">
       <c r="A265" s="47">
         <v>2</v>
       </c>
@@ -16374,7 +16390,7 @@
       </c>
       <c r="P265" s="42"/>
     </row>
-    <row r="266" spans="1:16" ht="15" hidden="1">
+    <row r="266" spans="1:16" ht="14.4" hidden="1">
       <c r="A266" s="47">
         <v>2</v>
       </c>
@@ -16416,7 +16432,7 @@
       </c>
       <c r="P266" s="42"/>
     </row>
-    <row r="267" spans="1:16" ht="15" hidden="1">
+    <row r="267" spans="1:16" ht="14.4" hidden="1">
       <c r="A267" s="47">
         <v>2</v>
       </c>
@@ -16458,7 +16474,7 @@
       </c>
       <c r="P267" s="42"/>
     </row>
-    <row r="268" spans="1:16" ht="15" hidden="1">
+    <row r="268" spans="1:16" ht="14.4" hidden="1">
       <c r="A268" s="47">
         <v>2</v>
       </c>
@@ -16500,7 +16516,7 @@
       </c>
       <c r="P268" s="42"/>
     </row>
-    <row r="269" spans="1:16" ht="15" hidden="1">
+    <row r="269" spans="1:16" ht="14.4" hidden="1">
       <c r="A269" s="47">
         <v>2</v>
       </c>
@@ -16542,7 +16558,7 @@
       </c>
       <c r="P269" s="42"/>
     </row>
-    <row r="270" spans="1:16" ht="15" hidden="1">
+    <row r="270" spans="1:16" ht="14.4" hidden="1">
       <c r="A270" s="47">
         <v>2</v>
       </c>
@@ -16584,7 +16600,7 @@
       </c>
       <c r="P270" s="42"/>
     </row>
-    <row r="271" spans="1:16" ht="15" hidden="1">
+    <row r="271" spans="1:16" ht="14.4" hidden="1">
       <c r="A271" s="47">
         <v>2</v>
       </c>
@@ -16626,7 +16642,7 @@
       </c>
       <c r="P271" s="42"/>
     </row>
-    <row r="272" spans="1:16" ht="15" hidden="1">
+    <row r="272" spans="1:16" ht="14.4" hidden="1">
       <c r="A272" s="47">
         <v>2</v>
       </c>
@@ -16668,7 +16684,7 @@
       </c>
       <c r="P272" s="42"/>
     </row>
-    <row r="273" spans="1:16" ht="15" hidden="1">
+    <row r="273" spans="1:16" ht="14.4" hidden="1">
       <c r="A273" s="47">
         <v>2</v>
       </c>
@@ -16712,7 +16728,7 @@
       </c>
       <c r="P273" s="42"/>
     </row>
-    <row r="274" spans="1:16" ht="15" hidden="1">
+    <row r="274" spans="1:16" ht="14.4" hidden="1">
       <c r="A274" s="47">
         <v>2</v>
       </c>
@@ -16754,7 +16770,7 @@
       </c>
       <c r="P274" s="42"/>
     </row>
-    <row r="275" spans="1:16" ht="15" hidden="1">
+    <row r="275" spans="1:16" ht="14.4" hidden="1">
       <c r="A275" s="47">
         <v>2</v>
       </c>
@@ -16796,7 +16812,7 @@
       </c>
       <c r="P275" s="42"/>
     </row>
-    <row r="276" spans="1:16" ht="15" hidden="1">
+    <row r="276" spans="1:16" ht="14.4" hidden="1">
       <c r="A276" s="47">
         <v>2</v>
       </c>
@@ -16838,7 +16854,7 @@
       </c>
       <c r="P276" s="42"/>
     </row>
-    <row r="277" spans="1:16" ht="15" hidden="1">
+    <row r="277" spans="1:16" ht="14.4" hidden="1">
       <c r="A277" s="47">
         <v>2</v>
       </c>
@@ -16880,7 +16896,7 @@
       </c>
       <c r="P277" s="42"/>
     </row>
-    <row r="278" spans="1:16" ht="15" hidden="1">
+    <row r="278" spans="1:16" ht="14.4" hidden="1">
       <c r="A278" s="47">
         <v>2</v>
       </c>
@@ -16922,7 +16938,7 @@
       </c>
       <c r="P278" s="42"/>
     </row>
-    <row r="279" spans="1:16" ht="15" hidden="1">
+    <row r="279" spans="1:16" ht="14.4" hidden="1">
       <c r="A279" s="47">
         <v>2</v>
       </c>
@@ -16964,7 +16980,7 @@
       </c>
       <c r="P279" s="42"/>
     </row>
-    <row r="280" spans="1:16" ht="15" hidden="1">
+    <row r="280" spans="1:16" ht="14.4" hidden="1">
       <c r="A280" s="47">
         <v>2</v>
       </c>
@@ -17006,7 +17022,7 @@
       </c>
       <c r="P280" s="42"/>
     </row>
-    <row r="281" spans="1:16" ht="15" hidden="1">
+    <row r="281" spans="1:16" ht="14.4" hidden="1">
       <c r="A281" s="47">
         <v>2</v>
       </c>
@@ -17048,7 +17064,7 @@
       </c>
       <c r="P281" s="42"/>
     </row>
-    <row r="282" spans="1:16" ht="15" hidden="1">
+    <row r="282" spans="1:16" ht="14.4" hidden="1">
       <c r="A282" s="47">
         <v>2</v>
       </c>
@@ -17092,7 +17108,7 @@
       </c>
       <c r="P282" s="42"/>
     </row>
-    <row r="283" spans="1:16" ht="15" hidden="1">
+    <row r="283" spans="1:16" ht="14.4" hidden="1">
       <c r="A283" s="47">
         <v>2</v>
       </c>
@@ -17134,7 +17150,7 @@
       </c>
       <c r="P283" s="42"/>
     </row>
-    <row r="284" spans="1:16" ht="15" hidden="1">
+    <row r="284" spans="1:16" ht="14.4" hidden="1">
       <c r="A284" s="47">
         <v>2</v>
       </c>
@@ -17176,7 +17192,7 @@
       </c>
       <c r="P284" s="42"/>
     </row>
-    <row r="285" spans="1:16" ht="15" hidden="1">
+    <row r="285" spans="1:16" ht="14.4" hidden="1">
       <c r="A285" s="47">
         <v>2</v>
       </c>
@@ -17218,7 +17234,7 @@
       </c>
       <c r="P285" s="42"/>
     </row>
-    <row r="286" spans="1:16" ht="15" hidden="1">
+    <row r="286" spans="1:16" ht="14.4" hidden="1">
       <c r="A286" s="47">
         <v>2</v>
       </c>
@@ -17260,7 +17276,7 @@
       </c>
       <c r="P286" s="42"/>
     </row>
-    <row r="287" spans="1:16" ht="15" hidden="1">
+    <row r="287" spans="1:16" ht="14.4" hidden="1">
       <c r="A287" s="47">
         <v>2</v>
       </c>
@@ -17302,7 +17318,7 @@
       </c>
       <c r="P287" s="42"/>
     </row>
-    <row r="288" spans="1:16" ht="15" hidden="1">
+    <row r="288" spans="1:16" ht="14.4" hidden="1">
       <c r="A288" s="47">
         <v>2</v>
       </c>
@@ -17344,7 +17360,7 @@
       </c>
       <c r="P288" s="42"/>
     </row>
-    <row r="289" spans="1:16" ht="15" hidden="1">
+    <row r="289" spans="1:16" ht="14.4" hidden="1">
       <c r="A289" s="47">
         <v>2</v>
       </c>
@@ -17386,7 +17402,7 @@
       </c>
       <c r="P289" s="42"/>
     </row>
-    <row r="290" spans="1:16" ht="15" hidden="1">
+    <row r="290" spans="1:16" ht="14.4" hidden="1">
       <c r="A290" s="47">
         <v>2</v>
       </c>
@@ -17428,7 +17444,7 @@
       </c>
       <c r="P290" s="42"/>
     </row>
-    <row r="291" spans="1:16" ht="15" hidden="1">
+    <row r="291" spans="1:16" ht="14.4" hidden="1">
       <c r="A291" s="47">
         <v>2</v>
       </c>
@@ -17470,7 +17486,7 @@
       </c>
       <c r="P291" s="42"/>
     </row>
-    <row r="292" spans="1:16" ht="15" hidden="1">
+    <row r="292" spans="1:16" ht="14.4" hidden="1">
       <c r="A292" s="47">
         <v>2</v>
       </c>
@@ -17512,7 +17528,7 @@
       </c>
       <c r="P292" s="42"/>
     </row>
-    <row r="293" spans="1:16" ht="15" hidden="1">
+    <row r="293" spans="1:16" ht="14.4" hidden="1">
       <c r="A293" s="47">
         <v>2</v>
       </c>
@@ -17554,7 +17570,7 @@
       </c>
       <c r="P293" s="42"/>
     </row>
-    <row r="294" spans="1:16" ht="15" hidden="1">
+    <row r="294" spans="1:16" ht="14.4" hidden="1">
       <c r="A294" s="47">
         <v>2</v>
       </c>
@@ -17598,7 +17614,7 @@
       </c>
       <c r="P294" s="42"/>
     </row>
-    <row r="295" spans="1:16" ht="15" hidden="1">
+    <row r="295" spans="1:16" ht="14.4" hidden="1">
       <c r="A295" s="47">
         <v>2</v>
       </c>
@@ -17640,7 +17656,7 @@
       </c>
       <c r="P295" s="42"/>
     </row>
-    <row r="296" spans="1:16" ht="15" hidden="1">
+    <row r="296" spans="1:16" ht="14.4" hidden="1">
       <c r="A296" s="47">
         <v>2</v>
       </c>
@@ -17682,7 +17698,7 @@
       </c>
       <c r="P296" s="42"/>
     </row>
-    <row r="297" spans="1:16" ht="15" hidden="1">
+    <row r="297" spans="1:16" ht="14.4" hidden="1">
       <c r="A297" s="47">
         <v>2</v>
       </c>
@@ -17724,7 +17740,7 @@
       </c>
       <c r="P297" s="42"/>
     </row>
-    <row r="298" spans="1:16" ht="15" hidden="1">
+    <row r="298" spans="1:16" ht="14.4" hidden="1">
       <c r="A298" s="47">
         <v>2</v>
       </c>
@@ -17766,7 +17782,7 @@
       </c>
       <c r="P298" s="42"/>
     </row>
-    <row r="299" spans="1:16" ht="15" hidden="1">
+    <row r="299" spans="1:16" ht="14.4" hidden="1">
       <c r="A299" s="47">
         <v>2</v>
       </c>
@@ -17808,7 +17824,7 @@
       </c>
       <c r="P299" s="42"/>
     </row>
-    <row r="300" spans="1:16" ht="15" hidden="1">
+    <row r="300" spans="1:16" ht="14.4" hidden="1">
       <c r="A300" s="47">
         <v>2</v>
       </c>
@@ -17850,7 +17866,7 @@
       </c>
       <c r="P300" s="42"/>
     </row>
-    <row r="301" spans="1:16" ht="15" hidden="1">
+    <row r="301" spans="1:16" ht="14.4" hidden="1">
       <c r="A301" s="47">
         <v>2</v>
       </c>
@@ -17892,7 +17908,7 @@
       </c>
       <c r="P301" s="42"/>
     </row>
-    <row r="302" spans="1:16" ht="15" hidden="1">
+    <row r="302" spans="1:16" ht="14.4" hidden="1">
       <c r="A302" s="47">
         <v>2</v>
       </c>
@@ -17934,7 +17950,7 @@
       </c>
       <c r="P302" s="42"/>
     </row>
-    <row r="303" spans="1:16" ht="15" hidden="1">
+    <row r="303" spans="1:16" ht="14.4" hidden="1">
       <c r="A303" s="47">
         <v>2</v>
       </c>
@@ -17976,7 +17992,7 @@
       </c>
       <c r="P303" s="42"/>
     </row>
-    <row r="304" spans="1:16" ht="15" hidden="1">
+    <row r="304" spans="1:16" ht="14.4" hidden="1">
       <c r="A304" s="47">
         <v>2</v>
       </c>
@@ -18018,7 +18034,7 @@
       </c>
       <c r="P304" s="42"/>
     </row>
-    <row r="305" spans="1:16" ht="15" hidden="1">
+    <row r="305" spans="1:16" ht="14.4" hidden="1">
       <c r="A305" s="47">
         <v>2</v>
       </c>
@@ -18060,7 +18076,7 @@
       </c>
       <c r="P305" s="42"/>
     </row>
-    <row r="306" spans="1:16" ht="15" hidden="1">
+    <row r="306" spans="1:16" ht="14.4" hidden="1">
       <c r="A306" s="47">
         <v>2</v>
       </c>
@@ -18102,7 +18118,7 @@
       </c>
       <c r="P306" s="42"/>
     </row>
-    <row r="307" spans="1:16" ht="15" hidden="1">
+    <row r="307" spans="1:16" ht="14.4" hidden="1">
       <c r="A307" s="47">
         <v>2</v>
       </c>
@@ -18146,7 +18162,7 @@
       </c>
       <c r="P307" s="42"/>
     </row>
-    <row r="308" spans="1:16" ht="15" hidden="1">
+    <row r="308" spans="1:16" ht="14.4" hidden="1">
       <c r="A308" s="47">
         <v>2</v>
       </c>
@@ -18188,7 +18204,7 @@
       </c>
       <c r="P308" s="42"/>
     </row>
-    <row r="309" spans="1:16" ht="15" hidden="1">
+    <row r="309" spans="1:16" ht="14.4" hidden="1">
       <c r="A309" s="47">
         <v>2</v>
       </c>
@@ -18230,7 +18246,7 @@
       </c>
       <c r="P309" s="42"/>
     </row>
-    <row r="310" spans="1:16" ht="15" hidden="1">
+    <row r="310" spans="1:16" ht="14.4" hidden="1">
       <c r="A310" s="47">
         <v>2</v>
       </c>
@@ -18272,7 +18288,7 @@
       </c>
       <c r="P310" s="42"/>
     </row>
-    <row r="311" spans="1:16" ht="15" hidden="1">
+    <row r="311" spans="1:16" ht="14.4" hidden="1">
       <c r="A311" s="47">
         <v>2</v>
       </c>
@@ -18314,7 +18330,7 @@
       </c>
       <c r="P311" s="42"/>
     </row>
-    <row r="312" spans="1:16" ht="15" hidden="1">
+    <row r="312" spans="1:16" ht="14.4" hidden="1">
       <c r="A312" s="47">
         <v>2</v>
       </c>
@@ -18356,7 +18372,7 @@
       </c>
       <c r="P312" s="42"/>
     </row>
-    <row r="313" spans="1:16" ht="15" hidden="1">
+    <row r="313" spans="1:16" ht="14.4" hidden="1">
       <c r="A313" s="47">
         <v>2</v>
       </c>
@@ -18398,7 +18414,7 @@
       </c>
       <c r="P313" s="42"/>
     </row>
-    <row r="314" spans="1:16" ht="15" hidden="1">
+    <row r="314" spans="1:16" ht="14.4" hidden="1">
       <c r="A314" s="47">
         <v>2</v>
       </c>
@@ -18440,7 +18456,7 @@
       </c>
       <c r="P314" s="42"/>
     </row>
-    <row r="315" spans="1:16" ht="15" hidden="1">
+    <row r="315" spans="1:16" ht="14.4" hidden="1">
       <c r="A315" s="47">
         <v>2</v>
       </c>
@@ -18482,7 +18498,7 @@
       </c>
       <c r="P315" s="42"/>
     </row>
-    <row r="316" spans="1:16" ht="15" hidden="1">
+    <row r="316" spans="1:16" ht="14.4" hidden="1">
       <c r="A316" s="47">
         <v>2</v>
       </c>
@@ -18524,7 +18540,7 @@
       </c>
       <c r="P316" s="42"/>
     </row>
-    <row r="317" spans="1:16" ht="15" hidden="1">
+    <row r="317" spans="1:16" ht="14.4" hidden="1">
       <c r="A317" s="47">
         <v>2</v>
       </c>
@@ -18566,7 +18582,7 @@
       </c>
       <c r="P317" s="42"/>
     </row>
-    <row r="318" spans="1:16" ht="15" hidden="1">
+    <row r="318" spans="1:16" ht="14.4" hidden="1">
       <c r="A318" s="47">
         <v>2</v>
       </c>
@@ -18608,7 +18624,7 @@
       </c>
       <c r="P318" s="42"/>
     </row>
-    <row r="319" spans="1:16" ht="15" hidden="1">
+    <row r="319" spans="1:16" ht="14.4" hidden="1">
       <c r="A319" s="47">
         <v>2</v>
       </c>
@@ -18650,7 +18666,7 @@
       </c>
       <c r="P319" s="42"/>
     </row>
-    <row r="320" spans="1:16" ht="15" hidden="1">
+    <row r="320" spans="1:16" ht="14.4" hidden="1">
       <c r="A320" s="47">
         <v>2</v>
       </c>
@@ -18692,7 +18708,7 @@
       </c>
       <c r="P320" s="42"/>
     </row>
-    <row r="321" spans="1:16" ht="15" hidden="1">
+    <row r="321" spans="1:16" ht="14.4" hidden="1">
       <c r="A321" s="47">
         <v>2</v>
       </c>
@@ -18734,7 +18750,7 @@
       </c>
       <c r="P321" s="42"/>
     </row>
-    <row r="322" spans="1:16" ht="15" hidden="1">
+    <row r="322" spans="1:16" ht="14.4" hidden="1">
       <c r="A322" s="47">
         <v>2</v>
       </c>
@@ -18776,7 +18792,7 @@
       </c>
       <c r="P322" s="42"/>
     </row>
-    <row r="323" spans="1:16" ht="15" hidden="1">
+    <row r="323" spans="1:16" ht="14.4" hidden="1">
       <c r="A323" s="47">
         <v>2</v>
       </c>
@@ -18820,7 +18836,7 @@
       </c>
       <c r="P323" s="42"/>
     </row>
-    <row r="324" spans="1:16" ht="15" hidden="1">
+    <row r="324" spans="1:16" ht="14.4" hidden="1">
       <c r="A324" s="47">
         <v>2</v>
       </c>
@@ -18862,7 +18878,7 @@
       </c>
       <c r="P324" s="42"/>
     </row>
-    <row r="325" spans="1:16" ht="15" hidden="1">
+    <row r="325" spans="1:16" ht="14.4" hidden="1">
       <c r="A325" s="47">
         <v>2</v>
       </c>
@@ -18904,7 +18920,7 @@
       </c>
       <c r="P325" s="42"/>
     </row>
-    <row r="326" spans="1:16" ht="15" hidden="1">
+    <row r="326" spans="1:16" ht="14.4" hidden="1">
       <c r="A326" s="47">
         <v>2</v>
       </c>
@@ -18946,7 +18962,7 @@
       </c>
       <c r="P326" s="42"/>
     </row>
-    <row r="327" spans="1:16" ht="15" hidden="1">
+    <row r="327" spans="1:16" ht="14.4" hidden="1">
       <c r="A327" s="47">
         <v>2</v>
       </c>
@@ -18988,7 +19004,7 @@
       </c>
       <c r="P327" s="42"/>
     </row>
-    <row r="328" spans="1:16" ht="15" hidden="1">
+    <row r="328" spans="1:16" ht="14.4" hidden="1">
       <c r="A328" s="47">
         <v>2</v>
       </c>
@@ -19030,7 +19046,7 @@
       </c>
       <c r="P328" s="42"/>
     </row>
-    <row r="329" spans="1:16" ht="15" hidden="1">
+    <row r="329" spans="1:16" ht="14.4" hidden="1">
       <c r="A329" s="47">
         <v>2</v>
       </c>
@@ -19072,7 +19088,7 @@
       </c>
       <c r="P329" s="42"/>
     </row>
-    <row r="330" spans="1:16" ht="15" hidden="1">
+    <row r="330" spans="1:16" ht="14.4" hidden="1">
       <c r="A330" s="47">
         <v>2</v>
       </c>
@@ -19116,7 +19132,7 @@
       </c>
       <c r="P330" s="42"/>
     </row>
-    <row r="331" spans="1:16" ht="15" hidden="1">
+    <row r="331" spans="1:16" ht="14.4" hidden="1">
       <c r="A331" s="47">
         <v>2</v>
       </c>
@@ -19158,7 +19174,7 @@
       </c>
       <c r="P331" s="42"/>
     </row>
-    <row r="332" spans="1:16" ht="15" hidden="1">
+    <row r="332" spans="1:16" ht="14.4" hidden="1">
       <c r="A332" s="47">
         <v>2</v>
       </c>
@@ -19200,7 +19216,7 @@
       </c>
       <c r="P332" s="42"/>
     </row>
-    <row r="333" spans="1:16" ht="15" hidden="1">
+    <row r="333" spans="1:16" ht="14.4" hidden="1">
       <c r="A333" s="47">
         <v>2</v>
       </c>
@@ -19242,7 +19258,7 @@
       </c>
       <c r="P333" s="42"/>
     </row>
-    <row r="334" spans="1:16" ht="15" hidden="1">
+    <row r="334" spans="1:16" ht="14.4" hidden="1">
       <c r="A334" s="47">
         <v>2</v>
       </c>
@@ -19284,7 +19300,7 @@
       </c>
       <c r="P334" s="42"/>
     </row>
-    <row r="335" spans="1:16" ht="15" hidden="1">
+    <row r="335" spans="1:16" ht="14.4" hidden="1">
       <c r="A335" s="47">
         <v>2</v>
       </c>
@@ -19326,7 +19342,7 @@
       </c>
       <c r="P335" s="42"/>
     </row>
-    <row r="336" spans="1:16" ht="15" hidden="1">
+    <row r="336" spans="1:16" ht="14.4" hidden="1">
       <c r="A336" s="47">
         <v>2</v>
       </c>
@@ -19368,7 +19384,7 @@
       </c>
       <c r="P336" s="42"/>
     </row>
-    <row r="337" spans="1:16" ht="15" hidden="1">
+    <row r="337" spans="1:16" ht="14.4" hidden="1">
       <c r="A337" s="47">
         <v>2</v>
       </c>
@@ -19410,7 +19426,7 @@
       </c>
       <c r="P337" s="42"/>
     </row>
-    <row r="338" spans="1:16" ht="15" hidden="1">
+    <row r="338" spans="1:16" ht="14.4" hidden="1">
       <c r="A338" s="47">
         <v>2</v>
       </c>
@@ -19452,7 +19468,7 @@
       </c>
       <c r="P338" s="42"/>
     </row>
-    <row r="339" spans="1:16" ht="15" hidden="1">
+    <row r="339" spans="1:16" ht="14.4" hidden="1">
       <c r="A339" s="47">
         <v>2</v>
       </c>
@@ -19496,7 +19512,7 @@
       </c>
       <c r="P339" s="42"/>
     </row>
-    <row r="340" spans="1:16" ht="15" hidden="1">
+    <row r="340" spans="1:16" ht="14.4" hidden="1">
       <c r="A340" s="47">
         <v>2</v>
       </c>
@@ -19538,7 +19554,7 @@
       </c>
       <c r="P340" s="42"/>
     </row>
-    <row r="341" spans="1:16" ht="15" hidden="1">
+    <row r="341" spans="1:16" ht="14.4" hidden="1">
       <c r="A341" s="47">
         <v>2</v>
       </c>
@@ -19580,7 +19596,7 @@
       </c>
       <c r="P341" s="42"/>
     </row>
-    <row r="342" spans="1:16" ht="15" hidden="1">
+    <row r="342" spans="1:16" ht="14.4" hidden="1">
       <c r="A342" s="47">
         <v>2</v>
       </c>
@@ -19622,7 +19638,7 @@
       </c>
       <c r="P342" s="42"/>
     </row>
-    <row r="343" spans="1:16" ht="15" hidden="1">
+    <row r="343" spans="1:16" ht="14.4" hidden="1">
       <c r="A343" s="47">
         <v>2</v>
       </c>
@@ -19664,7 +19680,7 @@
       </c>
       <c r="P343" s="42"/>
     </row>
-    <row r="344" spans="1:16" ht="15" hidden="1">
+    <row r="344" spans="1:16" ht="14.4" hidden="1">
       <c r="A344" s="47">
         <v>2</v>
       </c>
@@ -19706,7 +19722,7 @@
       </c>
       <c r="P344" s="42"/>
     </row>
-    <row r="345" spans="1:16" ht="15" hidden="1">
+    <row r="345" spans="1:16" ht="14.4" hidden="1">
       <c r="A345" s="47">
         <v>2</v>
       </c>
@@ -19748,7 +19764,7 @@
       </c>
       <c r="P345" s="42"/>
     </row>
-    <row r="346" spans="1:16" ht="15" hidden="1">
+    <row r="346" spans="1:16" ht="14.4" hidden="1">
       <c r="A346" s="47">
         <v>2</v>
       </c>
@@ -19790,7 +19806,7 @@
       </c>
       <c r="P346" s="42"/>
     </row>
-    <row r="347" spans="1:16" ht="15" hidden="1">
+    <row r="347" spans="1:16" ht="14.4" hidden="1">
       <c r="A347" s="47">
         <v>2</v>
       </c>
@@ -19832,7 +19848,7 @@
       </c>
       <c r="P347" s="42"/>
     </row>
-    <row r="348" spans="1:16" ht="15" hidden="1">
+    <row r="348" spans="1:16" ht="14.4" hidden="1">
       <c r="A348" s="47">
         <v>2</v>
       </c>
@@ -19874,7 +19890,7 @@
       </c>
       <c r="P348" s="42"/>
     </row>
-    <row r="349" spans="1:16" ht="15" hidden="1">
+    <row r="349" spans="1:16" ht="14.4" hidden="1">
       <c r="A349" s="47">
         <v>2</v>
       </c>
@@ -19916,7 +19932,7 @@
       </c>
       <c r="P349" s="42"/>
     </row>
-    <row r="350" spans="1:16" ht="15" hidden="1">
+    <row r="350" spans="1:16" ht="14.4" hidden="1">
       <c r="A350" s="47">
         <v>2</v>
       </c>
@@ -19958,7 +19974,7 @@
       </c>
       <c r="P350" s="42"/>
     </row>
-    <row r="351" spans="1:16" ht="15" hidden="1">
+    <row r="351" spans="1:16" ht="14.4" hidden="1">
       <c r="A351" s="47">
         <v>2</v>
       </c>
@@ -20000,7 +20016,7 @@
       </c>
       <c r="P351" s="42"/>
     </row>
-    <row r="352" spans="1:16" ht="15" hidden="1">
+    <row r="352" spans="1:16" ht="14.4" hidden="1">
       <c r="A352" s="47">
         <v>2</v>
       </c>
@@ -20042,7 +20058,7 @@
       </c>
       <c r="P352" s="42"/>
     </row>
-    <row r="353" spans="1:16" ht="15" hidden="1">
+    <row r="353" spans="1:16" ht="14.4" hidden="1">
       <c r="A353" s="47">
         <v>2</v>
       </c>
@@ -20084,7 +20100,7 @@
       </c>
       <c r="P353" s="42"/>
     </row>
-    <row r="354" spans="1:16" ht="15" hidden="1">
+    <row r="354" spans="1:16" ht="14.4" hidden="1">
       <c r="A354" s="47">
         <v>2</v>
       </c>
@@ -20128,7 +20144,7 @@
       </c>
       <c r="P354" s="42"/>
     </row>
-    <row r="355" spans="1:16" ht="15" hidden="1">
+    <row r="355" spans="1:16" ht="14.4" hidden="1">
       <c r="A355" s="47">
         <v>2</v>
       </c>
@@ -20170,7 +20186,7 @@
       </c>
       <c r="P355" s="42"/>
     </row>
-    <row r="356" spans="1:16" ht="15" hidden="1">
+    <row r="356" spans="1:16" ht="14.4" hidden="1">
       <c r="A356" s="47">
         <v>2</v>
       </c>
@@ -20212,7 +20228,7 @@
       </c>
       <c r="P356" s="42"/>
     </row>
-    <row r="357" spans="1:16" ht="15" hidden="1">
+    <row r="357" spans="1:16" ht="14.4" hidden="1">
       <c r="A357" s="47">
         <v>2</v>
       </c>
@@ -20254,7 +20270,7 @@
       </c>
       <c r="P357" s="42"/>
     </row>
-    <row r="358" spans="1:16" ht="15" hidden="1">
+    <row r="358" spans="1:16" ht="14.4" hidden="1">
       <c r="A358" s="47">
         <v>2</v>
       </c>
@@ -20296,7 +20312,7 @@
       </c>
       <c r="P358" s="42"/>
     </row>
-    <row r="359" spans="1:16" ht="15" hidden="1">
+    <row r="359" spans="1:16" ht="14.4" hidden="1">
       <c r="A359" s="47">
         <v>2</v>
       </c>
@@ -20338,7 +20354,7 @@
       </c>
       <c r="P359" s="42"/>
     </row>
-    <row r="360" spans="1:16" ht="15" hidden="1">
+    <row r="360" spans="1:16" ht="14.4" hidden="1">
       <c r="A360" s="47">
         <v>2</v>
       </c>
@@ -20380,7 +20396,7 @@
       </c>
       <c r="P360" s="42"/>
     </row>
-    <row r="361" spans="1:16" ht="15" hidden="1">
+    <row r="361" spans="1:16" ht="14.4" hidden="1">
       <c r="A361" s="47">
         <v>2</v>
       </c>
@@ -20422,7 +20438,7 @@
       </c>
       <c r="P361" s="42"/>
     </row>
-    <row r="362" spans="1:16" ht="15" hidden="1">
+    <row r="362" spans="1:16" ht="14.4" hidden="1">
       <c r="A362" s="47">
         <v>2</v>
       </c>
@@ -20464,7 +20480,7 @@
       </c>
       <c r="P362" s="42"/>
     </row>
-    <row r="363" spans="1:16" ht="15" hidden="1">
+    <row r="363" spans="1:16" ht="14.4" hidden="1">
       <c r="A363" s="47">
         <v>2</v>
       </c>
@@ -20506,7 +20522,7 @@
       </c>
       <c r="P363" s="42"/>
     </row>
-    <row r="364" spans="1:16" ht="15" hidden="1">
+    <row r="364" spans="1:16" ht="14.4" hidden="1">
       <c r="A364" s="47">
         <v>2</v>
       </c>
@@ -20548,7 +20564,7 @@
       </c>
       <c r="P364" s="42"/>
     </row>
-    <row r="365" spans="1:16" ht="15" hidden="1">
+    <row r="365" spans="1:16" ht="14.4" hidden="1">
       <c r="A365" s="47">
         <v>2</v>
       </c>
@@ -20590,7 +20606,7 @@
       </c>
       <c r="P365" s="42"/>
     </row>
-    <row r="366" spans="1:16" ht="15" hidden="1">
+    <row r="366" spans="1:16" ht="14.4" hidden="1">
       <c r="A366" s="47">
         <v>2</v>
       </c>
@@ -20632,7 +20648,7 @@
       </c>
       <c r="P366" s="42"/>
     </row>
-    <row r="367" spans="1:16" ht="15" hidden="1">
+    <row r="367" spans="1:16" ht="14.4" hidden="1">
       <c r="A367" s="47">
         <v>2</v>
       </c>
@@ -20674,7 +20690,7 @@
       </c>
       <c r="P367" s="42"/>
     </row>
-    <row r="368" spans="1:16" ht="15" hidden="1">
+    <row r="368" spans="1:16" ht="14.4" hidden="1">
       <c r="A368" s="47">
         <v>2</v>
       </c>
@@ -20716,7 +20732,7 @@
       </c>
       <c r="P368" s="42"/>
     </row>
-    <row r="369" spans="1:16" ht="15" hidden="1">
+    <row r="369" spans="1:16" ht="14.4" hidden="1">
       <c r="A369" s="47">
         <v>2</v>
       </c>
@@ -20758,7 +20774,7 @@
       </c>
       <c r="P369" s="42"/>
     </row>
-    <row r="370" spans="1:16" ht="15" hidden="1">
+    <row r="370" spans="1:16" ht="14.4" hidden="1">
       <c r="A370" s="47">
         <v>2</v>
       </c>
@@ -20802,7 +20818,7 @@
       </c>
       <c r="P370" s="42"/>
     </row>
-    <row r="371" spans="1:16" ht="15" hidden="1">
+    <row r="371" spans="1:16" ht="14.4" hidden="1">
       <c r="A371" s="47">
         <v>2</v>
       </c>
@@ -20844,7 +20860,7 @@
       </c>
       <c r="P371" s="42"/>
     </row>
-    <row r="372" spans="1:16" ht="15" hidden="1">
+    <row r="372" spans="1:16" ht="14.4" hidden="1">
       <c r="A372" s="47">
         <v>2</v>
       </c>
@@ -20886,7 +20902,7 @@
       </c>
       <c r="P372" s="42"/>
     </row>
-    <row r="373" spans="1:16" ht="15" hidden="1">
+    <row r="373" spans="1:16" ht="14.4" hidden="1">
       <c r="A373" s="47">
         <v>2</v>
       </c>
@@ -20928,7 +20944,7 @@
       </c>
       <c r="P373" s="42"/>
     </row>
-    <row r="374" spans="1:16" ht="15" hidden="1">
+    <row r="374" spans="1:16" ht="14.4" hidden="1">
       <c r="A374" s="47">
         <v>2</v>
       </c>
@@ -20970,7 +20986,7 @@
       </c>
       <c r="P374" s="42"/>
     </row>
-    <row r="375" spans="1:16" ht="15" hidden="1">
+    <row r="375" spans="1:16" ht="14.4" hidden="1">
       <c r="A375" s="47">
         <v>2</v>
       </c>
@@ -21012,7 +21028,7 @@
       </c>
       <c r="P375" s="42"/>
     </row>
-    <row r="376" spans="1:16" ht="15" hidden="1">
+    <row r="376" spans="1:16" ht="14.4" hidden="1">
       <c r="A376" s="47">
         <v>2</v>
       </c>
@@ -21054,7 +21070,7 @@
       </c>
       <c r="P376" s="42"/>
     </row>
-    <row r="377" spans="1:16" ht="15" hidden="1">
+    <row r="377" spans="1:16" ht="14.4" hidden="1">
       <c r="A377" s="47">
         <v>2</v>
       </c>
@@ -21096,7 +21112,7 @@
       </c>
       <c r="P377" s="42"/>
     </row>
-    <row r="378" spans="1:16" ht="15" hidden="1">
+    <row r="378" spans="1:16" ht="14.4" hidden="1">
       <c r="A378" s="47">
         <v>2</v>
       </c>
@@ -21140,7 +21156,7 @@
       </c>
       <c r="P378" s="42"/>
     </row>
-    <row r="379" spans="1:16" ht="15" hidden="1">
+    <row r="379" spans="1:16" ht="14.4" hidden="1">
       <c r="A379" s="47">
         <v>2</v>
       </c>
@@ -21182,7 +21198,7 @@
       </c>
       <c r="P379" s="42"/>
     </row>
-    <row r="380" spans="1:16" ht="15" hidden="1">
+    <row r="380" spans="1:16" ht="14.4" hidden="1">
       <c r="A380" s="47">
         <v>2</v>
       </c>
@@ -21224,7 +21240,7 @@
       </c>
       <c r="P380" s="42"/>
     </row>
-    <row r="381" spans="1:16" ht="15" hidden="1">
+    <row r="381" spans="1:16" ht="14.4" hidden="1">
       <c r="A381" s="47">
         <v>2</v>
       </c>
@@ -21266,7 +21282,7 @@
       </c>
       <c r="P381" s="42"/>
     </row>
-    <row r="382" spans="1:16" ht="15" hidden="1">
+    <row r="382" spans="1:16" ht="14.4" hidden="1">
       <c r="A382" s="47">
         <v>2</v>
       </c>
@@ -21308,7 +21324,7 @@
       </c>
       <c r="P382" s="42"/>
     </row>
-    <row r="383" spans="1:16" ht="15" hidden="1">
+    <row r="383" spans="1:16" ht="14.4" hidden="1">
       <c r="A383" s="47">
         <v>2</v>
       </c>
@@ -21350,7 +21366,7 @@
       </c>
       <c r="P383" s="42"/>
     </row>
-    <row r="384" spans="1:16" ht="15" hidden="1">
+    <row r="384" spans="1:16" ht="14.4" hidden="1">
       <c r="A384" s="47">
         <v>2</v>
       </c>
@@ -21392,7 +21408,7 @@
       </c>
       <c r="P384" s="42"/>
     </row>
-    <row r="385" spans="1:16" ht="15" hidden="1">
+    <row r="385" spans="1:16" ht="14.4" hidden="1">
       <c r="A385" s="47">
         <v>2</v>
       </c>
@@ -21434,7 +21450,7 @@
       </c>
       <c r="P385" s="42"/>
     </row>
-    <row r="386" spans="1:16" ht="15" hidden="1">
+    <row r="386" spans="1:16" ht="14.4" hidden="1">
       <c r="A386" s="47">
         <v>2</v>
       </c>
@@ -21476,7 +21492,7 @@
       </c>
       <c r="P386" s="42"/>
     </row>
-    <row r="387" spans="1:16" ht="15" hidden="1">
+    <row r="387" spans="1:16" ht="14.4" hidden="1">
       <c r="A387" s="47">
         <v>2</v>
       </c>
@@ -21518,7 +21534,7 @@
       </c>
       <c r="P387" s="42"/>
     </row>
-    <row r="388" spans="1:16" ht="15" hidden="1">
+    <row r="388" spans="1:16" ht="14.4" hidden="1">
       <c r="A388" s="47">
         <v>2</v>
       </c>
@@ -21560,7 +21576,7 @@
       </c>
       <c r="P388" s="42"/>
     </row>
-    <row r="389" spans="1:16" ht="15" hidden="1">
+    <row r="389" spans="1:16" ht="14.4" hidden="1">
       <c r="A389" s="47">
         <v>2</v>
       </c>
@@ -21602,7 +21618,7 @@
       </c>
       <c r="P389" s="42"/>
     </row>
-    <row r="390" spans="1:16" ht="15" hidden="1">
+    <row r="390" spans="1:16" ht="14.4" hidden="1">
       <c r="A390" s="47">
         <v>2</v>
       </c>
@@ -21646,7 +21662,7 @@
       </c>
       <c r="P390" s="42"/>
     </row>
-    <row r="391" spans="1:16" ht="15" hidden="1">
+    <row r="391" spans="1:16" ht="14.4" hidden="1">
       <c r="A391" s="47">
         <v>2</v>
       </c>
@@ -21688,7 +21704,7 @@
       </c>
       <c r="P391" s="42"/>
     </row>
-    <row r="392" spans="1:16" ht="15" hidden="1">
+    <row r="392" spans="1:16" ht="14.4" hidden="1">
       <c r="A392" s="47">
         <v>2</v>
       </c>
@@ -21730,7 +21746,7 @@
       </c>
       <c r="P392" s="42"/>
     </row>
-    <row r="393" spans="1:16" ht="15" hidden="1">
+    <row r="393" spans="1:16" ht="14.4" hidden="1">
       <c r="A393" s="47">
         <v>2</v>
       </c>
@@ -21772,7 +21788,7 @@
       </c>
       <c r="P393" s="42"/>
     </row>
-    <row r="394" spans="1:16" ht="15" hidden="1">
+    <row r="394" spans="1:16" ht="14.4" hidden="1">
       <c r="A394" s="47">
         <v>2</v>
       </c>
@@ -21814,7 +21830,7 @@
       </c>
       <c r="P394" s="42"/>
     </row>
-    <row r="395" spans="1:16" ht="15" hidden="1">
+    <row r="395" spans="1:16" ht="14.4" hidden="1">
       <c r="A395" s="47">
         <v>2</v>
       </c>
@@ -21856,7 +21872,7 @@
       </c>
       <c r="P395" s="42"/>
     </row>
-    <row r="396" spans="1:16" ht="15" hidden="1">
+    <row r="396" spans="1:16" ht="14.4" hidden="1">
       <c r="A396" s="47">
         <v>2</v>
       </c>
@@ -21898,7 +21914,7 @@
       </c>
       <c r="P396" s="42"/>
     </row>
-    <row r="397" spans="1:16" ht="15" hidden="1">
+    <row r="397" spans="1:16" ht="14.4" hidden="1">
       <c r="A397" s="47">
         <v>2</v>
       </c>
@@ -21940,7 +21956,7 @@
       </c>
       <c r="P397" s="42"/>
     </row>
-    <row r="398" spans="1:16" ht="15" hidden="1">
+    <row r="398" spans="1:16" ht="14.4" hidden="1">
       <c r="A398" s="47">
         <v>2</v>
       </c>
@@ -21982,7 +21998,7 @@
       </c>
       <c r="P398" s="42"/>
     </row>
-    <row r="399" spans="1:16" ht="15" hidden="1">
+    <row r="399" spans="1:16" ht="14.4" hidden="1">
       <c r="A399" s="47">
         <v>2</v>
       </c>
@@ -22024,7 +22040,7 @@
       </c>
       <c r="P399" s="42"/>
     </row>
-    <row r="400" spans="1:16" ht="15" hidden="1">
+    <row r="400" spans="1:16" ht="14.4" hidden="1">
       <c r="A400" s="47">
         <v>2</v>
       </c>
@@ -22066,7 +22082,7 @@
       </c>
       <c r="P400" s="42"/>
     </row>
-    <row r="401" spans="1:16" ht="15" hidden="1">
+    <row r="401" spans="1:16" ht="14.4" hidden="1">
       <c r="A401" s="47">
         <v>2</v>
       </c>
@@ -22108,7 +22124,7 @@
       </c>
       <c r="P401" s="42"/>
     </row>
-    <row r="402" spans="1:16" ht="15" hidden="1">
+    <row r="402" spans="1:16" ht="14.4" hidden="1">
       <c r="A402" s="47">
         <v>2</v>
       </c>
@@ -22152,7 +22168,7 @@
       </c>
       <c r="P402" s="42"/>
     </row>
-    <row r="403" spans="1:16" ht="15" hidden="1">
+    <row r="403" spans="1:16" ht="14.4" hidden="1">
       <c r="A403" s="47">
         <v>2</v>
       </c>
@@ -22194,7 +22210,7 @@
       </c>
       <c r="P403" s="42"/>
     </row>
-    <row r="404" spans="1:16" ht="15" hidden="1">
+    <row r="404" spans="1:16" ht="14.4" hidden="1">
       <c r="A404" s="47">
         <v>2</v>
       </c>
@@ -22236,7 +22252,7 @@
       </c>
       <c r="P404" s="42"/>
     </row>
-    <row r="405" spans="1:16" ht="15" hidden="1">
+    <row r="405" spans="1:16" ht="14.4" hidden="1">
       <c r="A405" s="47">
         <v>2</v>
       </c>
@@ -22278,7 +22294,7 @@
       </c>
       <c r="P405" s="42"/>
     </row>
-    <row r="406" spans="1:16" ht="15" hidden="1">
+    <row r="406" spans="1:16" ht="14.4" hidden="1">
       <c r="A406" s="47">
         <v>2</v>
       </c>
@@ -22320,7 +22336,7 @@
       </c>
       <c r="P406" s="42"/>
     </row>
-    <row r="407" spans="1:16" ht="15" hidden="1">
+    <row r="407" spans="1:16" ht="14.4" hidden="1">
       <c r="A407" s="47">
         <v>2</v>
       </c>
@@ -22362,7 +22378,7 @@
       </c>
       <c r="P407" s="42"/>
     </row>
-    <row r="408" spans="1:16" ht="15" hidden="1">
+    <row r="408" spans="1:16" ht="14.4" hidden="1">
       <c r="A408" s="47">
         <v>2</v>
       </c>
@@ -22404,7 +22420,7 @@
       </c>
       <c r="P408" s="42"/>
     </row>
-    <row r="409" spans="1:16" ht="15" hidden="1">
+    <row r="409" spans="1:16" ht="14.4" hidden="1">
       <c r="A409" s="47">
         <v>2</v>
       </c>
@@ -22446,7 +22462,7 @@
       </c>
       <c r="P409" s="42"/>
     </row>
-    <row r="410" spans="1:16" ht="15" hidden="1">
+    <row r="410" spans="1:16" ht="14.4" hidden="1">
       <c r="A410" s="47">
         <v>2</v>
       </c>
@@ -22488,7 +22504,7 @@
       </c>
       <c r="P410" s="42"/>
     </row>
-    <row r="411" spans="1:16" ht="15" hidden="1">
+    <row r="411" spans="1:16" ht="14.4" hidden="1">
       <c r="A411" s="47">
         <v>2</v>
       </c>
@@ -22530,7 +22546,7 @@
       </c>
       <c r="P411" s="42"/>
     </row>
-    <row r="412" spans="1:16" ht="15" hidden="1">
+    <row r="412" spans="1:16" ht="14.4" hidden="1">
       <c r="A412" s="47">
         <v>2</v>
       </c>
@@ -22572,7 +22588,7 @@
       </c>
       <c r="P412" s="42"/>
     </row>
-    <row r="413" spans="1:16" ht="15" hidden="1">
+    <row r="413" spans="1:16" ht="14.4" hidden="1">
       <c r="A413" s="47">
         <v>2</v>
       </c>
@@ -22614,7 +22630,7 @@
       </c>
       <c r="P413" s="42"/>
     </row>
-    <row r="414" spans="1:16" ht="15" hidden="1">
+    <row r="414" spans="1:16" ht="14.4" hidden="1">
       <c r="A414" s="47">
         <v>2</v>
       </c>
@@ -22658,7 +22674,7 @@
       </c>
       <c r="P414" s="42"/>
     </row>
-    <row r="415" spans="1:16" ht="15" hidden="1">
+    <row r="415" spans="1:16" ht="14.4" hidden="1">
       <c r="A415" s="47">
         <v>2</v>
       </c>
@@ -22700,7 +22716,7 @@
       </c>
       <c r="P415" s="42"/>
     </row>
-    <row r="416" spans="1:16" ht="15" hidden="1">
+    <row r="416" spans="1:16" ht="14.4" hidden="1">
       <c r="A416" s="47">
         <v>2</v>
       </c>
@@ -22742,7 +22758,7 @@
       </c>
       <c r="P416" s="42"/>
     </row>
-    <row r="417" spans="1:16" ht="15" hidden="1">
+    <row r="417" spans="1:16" ht="14.4" hidden="1">
       <c r="A417" s="47">
         <v>2</v>
       </c>
@@ -22784,7 +22800,7 @@
       </c>
       <c r="P417" s="42"/>
     </row>
-    <row r="418" spans="1:16" ht="15" hidden="1">
+    <row r="418" spans="1:16" ht="14.4" hidden="1">
       <c r="A418" s="47">
         <v>2</v>
       </c>
@@ -22826,7 +22842,7 @@
       </c>
       <c r="P418" s="42"/>
     </row>
-    <row r="419" spans="1:16" ht="15" hidden="1">
+    <row r="419" spans="1:16" ht="14.4" hidden="1">
       <c r="A419" s="47">
         <v>2</v>
       </c>
@@ -22868,7 +22884,7 @@
       </c>
       <c r="P419" s="42"/>
     </row>
-    <row r="420" spans="1:16" ht="15" hidden="1">
+    <row r="420" spans="1:16" ht="14.4" hidden="1">
       <c r="A420" s="47">
         <v>2</v>
       </c>
@@ -22910,7 +22926,7 @@
       </c>
       <c r="P420" s="42"/>
     </row>
-    <row r="421" spans="1:16" ht="15" hidden="1">
+    <row r="421" spans="1:16" ht="14.4" hidden="1">
       <c r="A421" s="47">
         <v>2</v>
       </c>
@@ -22952,7 +22968,7 @@
       </c>
       <c r="P421" s="42"/>
     </row>
-    <row r="422" spans="1:16" ht="15" hidden="1">
+    <row r="422" spans="1:16" ht="14.4" hidden="1">
       <c r="A422" s="47">
         <v>2</v>
       </c>
@@ -22994,7 +23010,7 @@
       </c>
       <c r="P422" s="42"/>
     </row>
-    <row r="423" spans="1:16" ht="15" hidden="1">
+    <row r="423" spans="1:16" ht="14.4" hidden="1">
       <c r="A423" s="47">
         <v>2</v>
       </c>
@@ -23036,7 +23052,7 @@
       </c>
       <c r="P423" s="42"/>
     </row>
-    <row r="424" spans="1:16" ht="15" hidden="1">
+    <row r="424" spans="1:16" ht="14.4" hidden="1">
       <c r="A424" s="47">
         <v>2</v>
       </c>
@@ -23078,7 +23094,7 @@
       </c>
       <c r="P424" s="42"/>
     </row>
-    <row r="425" spans="1:16" ht="15" hidden="1">
+    <row r="425" spans="1:16" ht="14.4" hidden="1">
       <c r="A425" s="47">
         <v>2</v>
       </c>
@@ -23120,7 +23136,7 @@
       </c>
       <c r="P425" s="42"/>
     </row>
-    <row r="426" spans="1:16" ht="15" hidden="1">
+    <row r="426" spans="1:16" ht="14.4" hidden="1">
       <c r="A426" s="47">
         <v>2</v>
       </c>
@@ -23162,7 +23178,7 @@
       </c>
       <c r="P426" s="42"/>
     </row>
-    <row r="427" spans="1:16" ht="15" hidden="1">
+    <row r="427" spans="1:16" ht="14.4" hidden="1">
       <c r="A427" s="47">
         <v>2</v>
       </c>
@@ -23204,7 +23220,7 @@
       </c>
       <c r="P427" s="42"/>
     </row>
-    <row r="428" spans="1:16" ht="15" hidden="1">
+    <row r="428" spans="1:16" ht="14.4" hidden="1">
       <c r="A428" s="47">
         <v>2</v>
       </c>
@@ -23246,7 +23262,7 @@
       </c>
       <c r="P428" s="42"/>
     </row>
-    <row r="429" spans="1:16" ht="15" hidden="1">
+    <row r="429" spans="1:16" ht="14.4" hidden="1">
       <c r="A429" s="47">
         <v>2</v>
       </c>
@@ -23288,7 +23304,7 @@
       </c>
       <c r="P429" s="42"/>
     </row>
-    <row r="430" spans="1:16" ht="15" hidden="1">
+    <row r="430" spans="1:16" ht="14.4" hidden="1">
       <c r="A430" s="47">
         <v>2</v>
       </c>
@@ -23332,7 +23348,7 @@
       </c>
       <c r="P430" s="42"/>
     </row>
-    <row r="431" spans="1:16" ht="15" hidden="1">
+    <row r="431" spans="1:16" ht="14.4" hidden="1">
       <c r="A431" s="47">
         <v>2</v>
       </c>
@@ -23374,7 +23390,7 @@
       </c>
       <c r="P431" s="42"/>
     </row>
-    <row r="432" spans="1:16" ht="15" hidden="1">
+    <row r="432" spans="1:16" ht="14.4" hidden="1">
       <c r="A432" s="47">
         <v>2</v>
       </c>
@@ -23416,7 +23432,7 @@
       </c>
       <c r="P432" s="42"/>
     </row>
-    <row r="433" spans="1:16" ht="15" hidden="1">
+    <row r="433" spans="1:16" ht="14.4" hidden="1">
       <c r="A433" s="47">
         <v>2</v>
       </c>
@@ -23458,7 +23474,7 @@
       </c>
       <c r="P433" s="42"/>
     </row>
-    <row r="434" spans="1:16" ht="15" hidden="1">
+    <row r="434" spans="1:16" ht="14.4" hidden="1">
       <c r="A434" s="47">
         <v>2</v>
       </c>
@@ -23500,7 +23516,7 @@
       </c>
       <c r="P434" s="42"/>
     </row>
-    <row r="435" spans="1:16" ht="15" hidden="1">
+    <row r="435" spans="1:16" ht="14.4" hidden="1">
       <c r="A435" s="47">
         <v>2</v>
       </c>
@@ -23542,7 +23558,7 @@
       </c>
       <c r="P435" s="42"/>
     </row>
-    <row r="436" spans="1:16" ht="15" hidden="1">
+    <row r="436" spans="1:16" ht="14.4" hidden="1">
       <c r="A436" s="47">
         <v>2</v>
       </c>
@@ -23584,7 +23600,7 @@
       </c>
       <c r="P436" s="42"/>
     </row>
-    <row r="437" spans="1:16" ht="15" hidden="1">
+    <row r="437" spans="1:16" ht="14.4" hidden="1">
       <c r="A437" s="47">
         <v>2</v>
       </c>
@@ -23626,7 +23642,7 @@
       </c>
       <c r="P437" s="42"/>
     </row>
-    <row r="438" spans="1:16" ht="15" hidden="1">
+    <row r="438" spans="1:16" ht="14.4" hidden="1">
       <c r="A438" s="47">
         <v>2</v>
       </c>
@@ -23668,7 +23684,7 @@
       </c>
       <c r="P438" s="42"/>
     </row>
-    <row r="439" spans="1:16" ht="15" hidden="1">
+    <row r="439" spans="1:16" ht="14.4" hidden="1">
       <c r="A439" s="47">
         <v>2</v>
       </c>
@@ -23710,7 +23726,7 @@
       </c>
       <c r="P439" s="42"/>
     </row>
-    <row r="440" spans="1:16" ht="15" hidden="1">
+    <row r="440" spans="1:16" ht="14.4" hidden="1">
       <c r="A440" s="47">
         <v>2</v>
       </c>
@@ -23752,7 +23768,7 @@
       </c>
       <c r="P440" s="42"/>
     </row>
-    <row r="441" spans="1:16" ht="15" hidden="1">
+    <row r="441" spans="1:16" ht="14.4" hidden="1">
       <c r="A441" s="47">
         <v>2</v>
       </c>
@@ -23794,7 +23810,7 @@
       </c>
       <c r="P441" s="42"/>
     </row>
-    <row r="442" spans="1:16" ht="15" hidden="1">
+    <row r="442" spans="1:16" ht="14.4" hidden="1">
       <c r="A442" s="47">
         <v>2</v>
       </c>
@@ -23836,7 +23852,7 @@
       </c>
       <c r="P442" s="42"/>
     </row>
-    <row r="443" spans="1:16" ht="15" hidden="1">
+    <row r="443" spans="1:16" ht="14.4" hidden="1">
       <c r="A443" s="47">
         <v>2</v>
       </c>
@@ -23878,7 +23894,7 @@
       </c>
       <c r="P443" s="42"/>
     </row>
-    <row r="444" spans="1:16" ht="15" hidden="1">
+    <row r="444" spans="1:16" ht="14.4" hidden="1">
       <c r="A444" s="47">
         <v>2</v>
       </c>
@@ -23920,7 +23936,7 @@
       </c>
       <c r="P444" s="42"/>
     </row>
-    <row r="445" spans="1:16" ht="15" hidden="1">
+    <row r="445" spans="1:16" ht="14.4" hidden="1">
       <c r="A445" s="47">
         <v>2</v>
       </c>
@@ -23962,7 +23978,7 @@
       </c>
       <c r="P445" s="42"/>
     </row>
-    <row r="446" spans="1:16" ht="15" hidden="1">
+    <row r="446" spans="1:16" ht="14.4" hidden="1">
       <c r="A446" s="47">
         <v>2</v>
       </c>
@@ -24004,7 +24020,7 @@
       </c>
       <c r="P446" s="42"/>
     </row>
-    <row r="447" spans="1:16" ht="15" hidden="1">
+    <row r="447" spans="1:16" ht="14.4" hidden="1">
       <c r="A447" s="47">
         <v>2</v>
       </c>
@@ -24046,7 +24062,7 @@
       </c>
       <c r="P447" s="42"/>
     </row>
-    <row r="448" spans="1:16" ht="15" hidden="1">
+    <row r="448" spans="1:16" ht="14.4" hidden="1">
       <c r="A448" s="47">
         <v>2</v>
       </c>
@@ -24088,7 +24104,7 @@
       </c>
       <c r="P448" s="42"/>
     </row>
-    <row r="449" spans="1:16" ht="15" hidden="1">
+    <row r="449" spans="1:16" ht="14.4" hidden="1">
       <c r="A449" s="47">
         <v>2</v>
       </c>
@@ -24130,7 +24146,7 @@
       </c>
       <c r="P449" s="42"/>
     </row>
-    <row r="450" spans="1:16" ht="15" hidden="1">
+    <row r="450" spans="1:16" ht="14.4" hidden="1">
       <c r="A450" s="47">
         <v>2</v>
       </c>
@@ -24172,7 +24188,7 @@
       </c>
       <c r="P450" s="42"/>
     </row>
-    <row r="451" spans="1:16" ht="15" hidden="1">
+    <row r="451" spans="1:16" ht="14.4" hidden="1">
       <c r="A451" s="47">
         <v>2</v>
       </c>
@@ -24214,7 +24230,7 @@
       </c>
       <c r="P451" s="42"/>
     </row>
-    <row r="452" spans="1:16" ht="15" hidden="1">
+    <row r="452" spans="1:16" ht="14.4" hidden="1">
       <c r="A452" s="47">
         <v>2</v>
       </c>
@@ -24256,7 +24272,7 @@
       </c>
       <c r="P452" s="42"/>
     </row>
-    <row r="453" spans="1:16" ht="15" hidden="1">
+    <row r="453" spans="1:16" ht="14.4" hidden="1">
       <c r="A453" s="47">
         <v>2</v>
       </c>
@@ -24298,7 +24314,7 @@
       </c>
       <c r="P453" s="42"/>
     </row>
-    <row r="454" spans="1:16" ht="15" hidden="1">
+    <row r="454" spans="1:16" ht="14.4" hidden="1">
       <c r="A454" s="47">
         <v>2</v>
       </c>
@@ -24340,7 +24356,7 @@
       </c>
       <c r="P454" s="42"/>
     </row>
-    <row r="455" spans="1:16" ht="15" hidden="1">
+    <row r="455" spans="1:16" ht="14.4" hidden="1">
       <c r="A455" s="47">
         <v>2</v>
       </c>
@@ -24382,7 +24398,7 @@
       </c>
       <c r="P455" s="42"/>
     </row>
-    <row r="456" spans="1:16" ht="15" hidden="1">
+    <row r="456" spans="1:16" ht="14.4" hidden="1">
       <c r="A456" s="47">
         <v>2</v>
       </c>
@@ -24426,7 +24442,7 @@
       </c>
       <c r="P456" s="42"/>
     </row>
-    <row r="457" spans="1:16" ht="15" hidden="1">
+    <row r="457" spans="1:16" ht="14.4" hidden="1">
       <c r="A457" s="47">
         <v>2</v>
       </c>
@@ -24468,7 +24484,7 @@
       </c>
       <c r="P457" s="42"/>
     </row>
-    <row r="458" spans="1:16" ht="15" hidden="1">
+    <row r="458" spans="1:16" ht="14.4" hidden="1">
       <c r="A458" s="47">
         <v>2</v>
       </c>
@@ -24510,7 +24526,7 @@
       </c>
       <c r="P458" s="42"/>
     </row>
-    <row r="459" spans="1:16" ht="15" hidden="1">
+    <row r="459" spans="1:16" ht="14.4" hidden="1">
       <c r="A459" s="47">
         <v>2</v>
       </c>
@@ -24552,7 +24568,7 @@
       </c>
       <c r="P459" s="42"/>
     </row>
-    <row r="460" spans="1:16" ht="15" hidden="1">
+    <row r="460" spans="1:16" ht="14.4" hidden="1">
       <c r="A460" s="47">
         <v>2</v>
       </c>
@@ -24594,7 +24610,7 @@
       </c>
       <c r="P460" s="42"/>
     </row>
-    <row r="461" spans="1:16" ht="15" hidden="1">
+    <row r="461" spans="1:16" ht="14.4" hidden="1">
       <c r="A461" s="47">
         <v>2</v>
       </c>
@@ -24636,7 +24652,7 @@
       </c>
       <c r="P461" s="42"/>
     </row>
-    <row r="462" spans="1:16" ht="15" hidden="1">
+    <row r="462" spans="1:16" ht="14.4" hidden="1">
       <c r="A462" s="47">
         <v>2</v>
       </c>
@@ -24678,7 +24694,7 @@
       </c>
       <c r="P462" s="42"/>
     </row>
-    <row r="463" spans="1:16" ht="15" hidden="1">
+    <row r="463" spans="1:16" ht="14.4" hidden="1">
       <c r="A463" s="47">
         <v>2</v>
       </c>
@@ -24720,7 +24736,7 @@
       </c>
       <c r="P463" s="42"/>
     </row>
-    <row r="464" spans="1:16" ht="15" hidden="1">
+    <row r="464" spans="1:16" ht="14.4" hidden="1">
       <c r="A464" s="47">
         <v>2</v>
       </c>
@@ -24764,7 +24780,7 @@
       </c>
       <c r="P464" s="42"/>
     </row>
-    <row r="465" spans="1:16" ht="15" hidden="1">
+    <row r="465" spans="1:16" ht="14.4" hidden="1">
       <c r="A465" s="47">
         <v>2</v>
       </c>
@@ -24806,7 +24822,7 @@
       </c>
       <c r="P465" s="42"/>
     </row>
-    <row r="466" spans="1:16" ht="15" hidden="1">
+    <row r="466" spans="1:16" ht="14.4" hidden="1">
       <c r="A466" s="47">
         <v>2</v>
       </c>
@@ -24848,7 +24864,7 @@
       </c>
       <c r="P466" s="42"/>
     </row>
-    <row r="467" spans="1:16" ht="15" hidden="1">
+    <row r="467" spans="1:16" ht="14.4" hidden="1">
       <c r="A467" s="47">
         <v>2</v>
       </c>
@@ -24890,7 +24906,7 @@
       </c>
       <c r="P467" s="42"/>
     </row>
-    <row r="468" spans="1:16" ht="15" hidden="1">
+    <row r="468" spans="1:16" ht="14.4" hidden="1">
       <c r="A468" s="47">
         <v>2</v>
       </c>
@@ -24932,7 +24948,7 @@
       </c>
       <c r="P468" s="42"/>
     </row>
-    <row r="469" spans="1:16" ht="15" hidden="1">
+    <row r="469" spans="1:16" ht="14.4" hidden="1">
       <c r="A469" s="47">
         <v>2</v>
       </c>
@@ -24974,7 +24990,7 @@
       </c>
       <c r="P469" s="42"/>
     </row>
-    <row r="470" spans="1:16" ht="15" hidden="1">
+    <row r="470" spans="1:16" ht="14.4" hidden="1">
       <c r="A470" s="47">
         <v>2</v>
       </c>
@@ -25016,7 +25032,7 @@
       </c>
       <c r="P470" s="42"/>
     </row>
-    <row r="471" spans="1:16" ht="15" hidden="1">
+    <row r="471" spans="1:16" ht="14.4" hidden="1">
       <c r="A471" s="47">
         <v>2</v>
       </c>
@@ -25058,7 +25074,7 @@
       </c>
       <c r="P471" s="42"/>
     </row>
-    <row r="472" spans="1:16" ht="15" hidden="1">
+    <row r="472" spans="1:16" ht="14.4" hidden="1">
       <c r="A472" s="47">
         <v>2</v>
       </c>
@@ -25102,7 +25118,7 @@
       </c>
       <c r="P472" s="42"/>
     </row>
-    <row r="473" spans="1:16" ht="15" hidden="1">
+    <row r="473" spans="1:16" ht="14.4" hidden="1">
       <c r="A473" s="47">
         <v>2</v>
       </c>
@@ -25144,7 +25160,7 @@
       </c>
       <c r="P473" s="42"/>
     </row>
-    <row r="474" spans="1:16" ht="15" hidden="1">
+    <row r="474" spans="1:16" ht="14.4" hidden="1">
       <c r="A474" s="47">
         <v>2</v>
       </c>
@@ -25186,7 +25202,7 @@
       </c>
       <c r="P474" s="42"/>
     </row>
-    <row r="475" spans="1:16" ht="15" hidden="1">
+    <row r="475" spans="1:16" ht="14.4" hidden="1">
       <c r="A475" s="47">
         <v>2</v>
       </c>
@@ -25228,7 +25244,7 @@
       </c>
       <c r="P475" s="42"/>
     </row>
-    <row r="476" spans="1:16" ht="15" hidden="1">
+    <row r="476" spans="1:16" ht="14.4" hidden="1">
       <c r="A476" s="47">
         <v>2</v>
       </c>
@@ -25270,7 +25286,7 @@
       </c>
       <c r="P476" s="42"/>
     </row>
-    <row r="477" spans="1:16" ht="15" hidden="1">
+    <row r="477" spans="1:16" ht="14.4" hidden="1">
       <c r="A477" s="47">
         <v>2</v>
       </c>
@@ -25312,7 +25328,7 @@
       </c>
       <c r="P477" s="42"/>
     </row>
-    <row r="478" spans="1:16" ht="15" hidden="1">
+    <row r="478" spans="1:16" ht="14.4" hidden="1">
       <c r="A478" s="47">
         <v>2</v>
       </c>
@@ -25354,7 +25370,7 @@
       </c>
       <c r="P478" s="42"/>
     </row>
-    <row r="479" spans="1:16" ht="15" hidden="1">
+    <row r="479" spans="1:16" ht="14.4" hidden="1">
       <c r="A479" s="47">
         <v>2</v>
       </c>
@@ -25396,7 +25412,7 @@
       </c>
       <c r="P479" s="42"/>
     </row>
-    <row r="480" spans="1:16" ht="15" hidden="1">
+    <row r="480" spans="1:16" ht="14.4" hidden="1">
       <c r="A480" s="47">
         <v>2</v>
       </c>
@@ -25438,7 +25454,7 @@
       </c>
       <c r="P480" s="42"/>
     </row>
-    <row r="481" spans="1:16" ht="15" hidden="1">
+    <row r="481" spans="1:16" ht="14.4" hidden="1">
       <c r="A481" s="47">
         <v>2</v>
       </c>
@@ -25480,7 +25496,7 @@
       </c>
       <c r="P481" s="42"/>
     </row>
-    <row r="482" spans="1:16" ht="15" hidden="1">
+    <row r="482" spans="1:16" ht="14.4" hidden="1">
       <c r="A482" s="47">
         <v>2</v>
       </c>
@@ -25522,7 +25538,7 @@
       </c>
       <c r="P482" s="42"/>
     </row>
-    <row r="483" spans="1:16" ht="15" hidden="1">
+    <row r="483" spans="1:16" ht="14.4" hidden="1">
       <c r="A483" s="47">
         <v>2</v>
       </c>
@@ -25564,7 +25580,7 @@
       </c>
       <c r="P483" s="42"/>
     </row>
-    <row r="484" spans="1:16" ht="15" hidden="1">
+    <row r="484" spans="1:16" ht="14.4" hidden="1">
       <c r="A484" s="47">
         <v>2</v>
       </c>
@@ -25606,7 +25622,7 @@
       </c>
       <c r="P484" s="42"/>
     </row>
-    <row r="485" spans="1:16" ht="15" hidden="1">
+    <row r="485" spans="1:16" ht="14.4" hidden="1">
       <c r="A485" s="47">
         <v>2</v>
       </c>
@@ -25648,7 +25664,7 @@
       </c>
       <c r="P485" s="42"/>
     </row>
-    <row r="486" spans="1:16" ht="15" hidden="1">
+    <row r="486" spans="1:16" ht="14.4" hidden="1">
       <c r="A486" s="47">
         <v>2</v>
       </c>
@@ -25690,7 +25706,7 @@
       </c>
       <c r="P486" s="42"/>
     </row>
-    <row r="487" spans="1:16" ht="15" hidden="1">
+    <row r="487" spans="1:16" ht="14.4" hidden="1">
       <c r="A487" s="47">
         <v>2</v>
       </c>
@@ -25732,7 +25748,7 @@
       </c>
       <c r="P487" s="42"/>
     </row>
-    <row r="488" spans="1:16" ht="15" hidden="1">
+    <row r="488" spans="1:16" ht="14.4" hidden="1">
       <c r="A488" s="47">
         <v>2</v>
       </c>
@@ -25774,7 +25790,7 @@
       </c>
       <c r="P488" s="42"/>
     </row>
-    <row r="489" spans="1:16" ht="15" hidden="1">
+    <row r="489" spans="1:16" ht="14.4" hidden="1">
       <c r="A489" s="47">
         <v>2</v>
       </c>
@@ -25816,7 +25832,7 @@
       </c>
       <c r="P489" s="42"/>
     </row>
-    <row r="490" spans="1:16" ht="15" hidden="1">
+    <row r="490" spans="1:16" ht="14.4" hidden="1">
       <c r="A490" s="47">
         <v>2</v>
       </c>
@@ -25860,7 +25876,7 @@
       </c>
       <c r="P490" s="42"/>
     </row>
-    <row r="491" spans="1:16" ht="15" hidden="1">
+    <row r="491" spans="1:16" ht="14.4" hidden="1">
       <c r="A491" s="47">
         <v>2</v>
       </c>
@@ -25902,7 +25918,7 @@
       </c>
       <c r="P491" s="42"/>
     </row>
-    <row r="492" spans="1:16" ht="15" hidden="1">
+    <row r="492" spans="1:16" ht="14.4" hidden="1">
       <c r="A492" s="47">
         <v>2</v>
       </c>
@@ -25944,7 +25960,7 @@
       </c>
       <c r="P492" s="42"/>
     </row>
-    <row r="493" spans="1:16" ht="15" hidden="1">
+    <row r="493" spans="1:16" ht="14.4" hidden="1">
       <c r="A493" s="47">
         <v>2</v>
       </c>
@@ -25986,7 +26002,7 @@
       </c>
       <c r="P493" s="42"/>
     </row>
-    <row r="494" spans="1:16" ht="15" hidden="1">
+    <row r="494" spans="1:16" ht="14.4" hidden="1">
       <c r="A494" s="47">
         <v>2</v>
       </c>
@@ -26028,7 +26044,7 @@
       </c>
       <c r="P494" s="42"/>
     </row>
-    <row r="495" spans="1:16" ht="15" hidden="1">
+    <row r="495" spans="1:16" ht="14.4" hidden="1">
       <c r="A495" s="47">
         <v>2</v>
       </c>
@@ -26070,7 +26086,7 @@
       </c>
       <c r="P495" s="42"/>
     </row>
-    <row r="496" spans="1:16" ht="15" hidden="1">
+    <row r="496" spans="1:16" ht="14.4" hidden="1">
       <c r="A496" s="47">
         <v>2</v>
       </c>
@@ -26112,7 +26128,7 @@
       </c>
       <c r="P496" s="42"/>
     </row>
-    <row r="497" spans="1:16" ht="15" hidden="1">
+    <row r="497" spans="1:16" ht="14.4" hidden="1">
       <c r="A497" s="47">
         <v>2</v>
       </c>
@@ -26154,7 +26170,7 @@
       </c>
       <c r="P497" s="42"/>
     </row>
-    <row r="498" spans="1:16" ht="15" hidden="1">
+    <row r="498" spans="1:16" ht="14.4" hidden="1">
       <c r="A498" s="47">
         <v>2</v>
       </c>
@@ -26196,7 +26212,7 @@
       </c>
       <c r="P498" s="42"/>
     </row>
-    <row r="499" spans="1:16" ht="15" hidden="1">
+    <row r="499" spans="1:16" ht="14.4" hidden="1">
       <c r="A499" s="47">
         <v>2</v>
       </c>
@@ -26238,7 +26254,7 @@
       </c>
       <c r="P499" s="42"/>
     </row>
-    <row r="500" spans="1:16" ht="15" hidden="1">
+    <row r="500" spans="1:16" ht="14.4" hidden="1">
       <c r="A500" s="47">
         <v>2</v>
       </c>
@@ -26280,7 +26296,7 @@
       </c>
       <c r="P500" s="42"/>
     </row>
-    <row r="501" spans="1:16" ht="15" hidden="1">
+    <row r="501" spans="1:16" ht="14.4" hidden="1">
       <c r="A501" s="47">
         <v>2</v>
       </c>
@@ -26324,7 +26340,7 @@
       </c>
       <c r="P501" s="42"/>
     </row>
-    <row r="502" spans="1:16" ht="15" hidden="1">
+    <row r="502" spans="1:16" ht="14.4" hidden="1">
       <c r="A502" s="47">
         <v>2</v>
       </c>
@@ -26366,7 +26382,7 @@
       </c>
       <c r="P502" s="42"/>
     </row>
-    <row r="503" spans="1:16" ht="15" hidden="1">
+    <row r="503" spans="1:16" ht="14.4" hidden="1">
       <c r="A503" s="47">
         <v>2</v>
       </c>
@@ -26408,7 +26424,7 @@
       </c>
       <c r="P503" s="42"/>
     </row>
-    <row r="504" spans="1:16" ht="15" hidden="1">
+    <row r="504" spans="1:16" ht="14.4" hidden="1">
       <c r="A504" s="47">
         <v>2</v>
       </c>
@@ -26450,7 +26466,7 @@
       </c>
       <c r="P504" s="42"/>
     </row>
-    <row r="505" spans="1:16" ht="15" hidden="1">
+    <row r="505" spans="1:16" ht="14.4" hidden="1">
       <c r="A505" s="47">
         <v>2</v>
       </c>
@@ -26492,7 +26508,7 @@
       </c>
       <c r="P505" s="42"/>
     </row>
-    <row r="506" spans="1:16" ht="15" hidden="1">
+    <row r="506" spans="1:16" ht="14.4" hidden="1">
       <c r="A506" s="47">
         <v>2</v>
       </c>
@@ -26534,7 +26550,7 @@
       </c>
       <c r="P506" s="42"/>
     </row>
-    <row r="507" spans="1:16" ht="15" hidden="1">
+    <row r="507" spans="1:16" ht="14.4" hidden="1">
       <c r="A507" s="47">
         <v>2</v>
       </c>
@@ -26576,7 +26592,7 @@
       </c>
       <c r="P507" s="42"/>
     </row>
-    <row r="508" spans="1:16" ht="15" hidden="1">
+    <row r="508" spans="1:16" ht="14.4" hidden="1">
       <c r="A508" s="47">
         <v>2</v>
       </c>
@@ -26618,7 +26634,7 @@
       </c>
       <c r="P508" s="42"/>
     </row>
-    <row r="509" spans="1:16" ht="15" hidden="1">
+    <row r="509" spans="1:16" ht="14.4" hidden="1">
       <c r="A509" s="47">
         <v>2</v>
       </c>
@@ -26660,7 +26676,7 @@
       </c>
       <c r="P509" s="42"/>
     </row>
-    <row r="510" spans="1:16" ht="15" hidden="1">
+    <row r="510" spans="1:16" ht="14.4" hidden="1">
       <c r="A510" s="47">
         <v>2</v>
       </c>
@@ -26704,7 +26720,7 @@
       </c>
       <c r="P510" s="42"/>
     </row>
-    <row r="511" spans="1:16" ht="15" hidden="1">
+    <row r="511" spans="1:16" ht="14.4" hidden="1">
       <c r="A511" s="47">
         <v>2</v>
       </c>
@@ -26746,7 +26762,7 @@
       </c>
       <c r="P511" s="42"/>
     </row>
-    <row r="512" spans="1:16" ht="15" hidden="1">
+    <row r="512" spans="1:16" ht="14.4" hidden="1">
       <c r="A512" s="47">
         <v>2</v>
       </c>
@@ -26788,7 +26804,7 @@
       </c>
       <c r="P512" s="42"/>
     </row>
-    <row r="513" spans="1:16" ht="15" hidden="1">
+    <row r="513" spans="1:16" ht="14.4" hidden="1">
       <c r="A513" s="47">
         <v>2</v>
       </c>
@@ -26831,7 +26847,7 @@
       <c r="P513" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:P513">
+  <autoFilter ref="A4:P513" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="Udemy"/>
@@ -26844,11 +26860,56 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="67">
-    <mergeCell ref="F495:G495"/>
-    <mergeCell ref="F496:G496"/>
-    <mergeCell ref="F497:G497"/>
-    <mergeCell ref="F498:G498"/>
-    <mergeCell ref="F499:G499"/>
+    <mergeCell ref="F491:G491"/>
+    <mergeCell ref="F492:G492"/>
+    <mergeCell ref="F493:G493"/>
+    <mergeCell ref="F494:G494"/>
+    <mergeCell ref="F425:G425"/>
+    <mergeCell ref="F426:G426"/>
+    <mergeCell ref="F427:G427"/>
+    <mergeCell ref="F428:G428"/>
+    <mergeCell ref="F429:G429"/>
+    <mergeCell ref="F420:G420"/>
+    <mergeCell ref="F421:G421"/>
+    <mergeCell ref="F422:G422"/>
+    <mergeCell ref="F423:G423"/>
+    <mergeCell ref="F424:G424"/>
+    <mergeCell ref="F415:G415"/>
+    <mergeCell ref="F416:G416"/>
+    <mergeCell ref="F417:G417"/>
+    <mergeCell ref="F418:G418"/>
+    <mergeCell ref="F419:G419"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="H499:I499"/>
     <mergeCell ref="F500:G500"/>
     <mergeCell ref="F507:G507"/>
@@ -26861,56 +26922,11 @@
     <mergeCell ref="F505:G505"/>
     <mergeCell ref="F506:G506"/>
     <mergeCell ref="H507:I507"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F415:G415"/>
-    <mergeCell ref="F416:G416"/>
-    <mergeCell ref="F417:G417"/>
-    <mergeCell ref="F418:G418"/>
-    <mergeCell ref="F419:G419"/>
-    <mergeCell ref="F420:G420"/>
-    <mergeCell ref="F421:G421"/>
-    <mergeCell ref="F422:G422"/>
-    <mergeCell ref="F423:G423"/>
-    <mergeCell ref="F424:G424"/>
-    <mergeCell ref="F491:G491"/>
-    <mergeCell ref="F492:G492"/>
-    <mergeCell ref="F493:G493"/>
-    <mergeCell ref="F494:G494"/>
-    <mergeCell ref="F425:G425"/>
-    <mergeCell ref="F426:G426"/>
-    <mergeCell ref="F427:G427"/>
-    <mergeCell ref="F428:G428"/>
-    <mergeCell ref="F429:G429"/>
+    <mergeCell ref="F495:G495"/>
+    <mergeCell ref="F496:G496"/>
+    <mergeCell ref="F497:G497"/>
+    <mergeCell ref="F498:G498"/>
+    <mergeCell ref="F499:G499"/>
   </mergeCells>
   <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="24" priority="1">
@@ -26938,26 +26954,26 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Status of this assignment" sqref="F5:J5 J6:J26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Status of this assignment" sqref="F5:J5 J6:J26" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Not started,In progress,Skipped,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items" sqref="J172:J215">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items" sqref="J172:J215" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Not started,In progress,Done,Skipped"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" prompt="Enter a valid date" sqref="L5:N513">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" prompt="Enter a valid date" sqref="L5:N513" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(L5))), AND(ISNUMBER(L5), LEFT(CELL("format", L5))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items" sqref="J27:J171 J216:J513">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items" sqref="J27:J171 J216:J513" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"Not started,In progress,Done"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H275" r:id="rId1"/>
-    <hyperlink ref="H276" r:id="rId2"/>
-    <hyperlink ref="H277" r:id="rId3"/>
+    <hyperlink ref="H275" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H276" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="H277" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from range Subjects!B5:B20" xr:uid="{00000000-0002-0000-0200-000001000000}">
@@ -26985,7 +27001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -27032,106 +27048,106 @@
       <c r="B5" s="58"/>
       <c r="C5" s="21"/>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" ht="13.2">
       <c r="A6" s="23"/>
       <c r="B6" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="28"/>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" ht="13.2">
       <c r="A7" s="23"/>
       <c r="B7" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="28"/>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3" ht="13.2">
       <c r="A8" s="23"/>
       <c r="B8" s="24" t="s">
         <v>622</v>
       </c>
       <c r="C8" s="28"/>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" ht="13.2">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="28"/>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" ht="13.2">
       <c r="A10" s="23"/>
       <c r="B10" s="24" t="s">
         <v>623</v>
       </c>
       <c r="C10" s="28"/>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" ht="13.2">
       <c r="A11" s="23"/>
       <c r="B11" s="24" t="s">
         <v>624</v>
       </c>
       <c r="C11" s="28"/>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" ht="13.2">
       <c r="A12" s="23"/>
       <c r="B12" s="24" t="s">
         <v>625</v>
       </c>
       <c r="C12" s="28"/>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" ht="13.2">
       <c r="A13" s="23"/>
       <c r="B13" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="28"/>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:3" ht="13.2">
       <c r="A14" s="23"/>
       <c r="B14" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="28"/>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" ht="13.2">
       <c r="A15" s="23"/>
       <c r="B15" s="24" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="28"/>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" ht="13.2">
       <c r="A16" s="23"/>
       <c r="B16" s="24" t="s">
         <v>64</v>
       </c>
       <c r="C16" s="28"/>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" ht="13.2">
       <c r="A17" s="23"/>
       <c r="B17" s="24" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="28"/>
     </row>
-    <row r="18" spans="1:3" ht="15">
+    <row r="18" spans="1:3" ht="13.2">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="28"/>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" ht="13.2">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="28"/>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" ht="13.2">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="28"/>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" ht="13.2">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="28"/>
@@ -27147,7 +27163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -27199,7 +27215,7 @@
       <c r="C5" s="58"/>
       <c r="D5" s="21"/>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="13.2">
       <c r="A6" s="23"/>
       <c r="B6" s="24" t="s">
         <v>25</v>
@@ -27209,7 +27225,7 @@
       </c>
       <c r="D6" s="28"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="13.2">
       <c r="A7" s="23"/>
       <c r="B7" s="24" t="s">
         <v>57</v>
@@ -27219,7 +27235,7 @@
       </c>
       <c r="D7" s="28"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="13.2">
       <c r="A8" s="23"/>
       <c r="B8" s="24" t="s">
         <v>29</v>
@@ -27229,7 +27245,7 @@
       </c>
       <c r="D8" s="28"/>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="13.2">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>34</v>
@@ -27239,7 +27255,7 @@
       </c>
       <c r="D9" s="28"/>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" ht="13.2">
       <c r="A10" s="23"/>
       <c r="B10" s="24" t="s">
         <v>91</v>
@@ -27247,7 +27263,7 @@
       <c r="C10" s="23"/>
       <c r="D10" s="28"/>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="13.2">
       <c r="A11" s="23"/>
       <c r="B11" s="24" t="s">
         <v>75</v>
@@ -27255,55 +27271,55 @@
       <c r="C11" s="23"/>
       <c r="D11" s="28"/>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="13.2">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="28"/>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" ht="13.2">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="28"/>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="13.2">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="13.2">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="28"/>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" ht="13.2">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="28"/>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" ht="13.2">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="28"/>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4" ht="13.2">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="28"/>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4" ht="13.2">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="28"/>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4" ht="13.2">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -27316,17 +27332,17 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
-    <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="C8" r:id="rId3"/>
-    <hyperlink ref="C9" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -27373,79 +27389,79 @@
       <c r="B5" s="58"/>
       <c r="C5" s="21"/>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" ht="13.2">
       <c r="A6" s="23"/>
       <c r="B6" s="24" t="s">
         <v>634</v>
       </c>
       <c r="C6" s="28"/>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" ht="13.2">
       <c r="A7" s="23"/>
       <c r="B7" s="24"/>
       <c r="C7" s="28"/>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3" ht="13.2">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="28"/>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" ht="13.2">
       <c r="A9" s="23"/>
       <c r="B9" s="24"/>
       <c r="C9" s="28"/>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" ht="13.2">
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="28"/>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" ht="13.2">
       <c r="A11" s="23"/>
       <c r="B11" s="24"/>
       <c r="C11" s="28"/>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" ht="13.2">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="28"/>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" ht="13.2">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="28"/>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:3" ht="13.2">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="28"/>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" ht="13.2">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="28"/>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" ht="13.2">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="28"/>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" ht="13.2">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="28"/>
     </row>
-    <row r="18" spans="1:3" ht="15">
+    <row r="18" spans="1:3" ht="13.2">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="28"/>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" ht="13.2">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="28"/>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" ht="13.2">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="28"/>
@@ -27461,7 +27477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -27567,7 +27583,7 @@
       <c r="O5" s="71"/>
       <c r="P5" s="71"/>
     </row>
-    <row r="6" spans="1:24" ht="15">
+    <row r="6" spans="1:24" ht="13.2">
       <c r="A6" s="67"/>
       <c r="B6" s="74" t="s">
         <v>637</v>
@@ -27579,7 +27595,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15">
+    <row r="7" spans="1:24" ht="13.2">
       <c r="A7" s="67"/>
       <c r="B7" s="74" t="s">
         <v>639</v>
@@ -27591,7 +27607,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15">
+    <row r="8" spans="1:24" ht="13.2">
       <c r="A8" s="67"/>
       <c r="B8" s="72" t="s">
         <v>641</v>
@@ -27603,7 +27619,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15">
+    <row r="9" spans="1:24" ht="13.2">
       <c r="A9" s="67"/>
       <c r="B9" s="72" t="s">
         <v>643</v>
@@ -27615,7 +27631,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15">
+    <row r="10" spans="1:24" ht="13.2">
       <c r="A10" s="67"/>
       <c r="B10" s="76" t="s">
         <v>645</v>
@@ -27627,61 +27643,61 @@
         <v>647</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15">
+    <row r="11" spans="1:24" ht="13.2">
       <c r="A11" s="67"/>
       <c r="B11" s="74"/>
       <c r="C11" s="75"/>
       <c r="D11" s="78"/>
     </row>
-    <row r="12" spans="1:24" ht="15">
+    <row r="12" spans="1:24" ht="13.2">
       <c r="A12" s="67"/>
       <c r="B12" s="76"/>
       <c r="C12" s="75"/>
       <c r="D12" s="78"/>
     </row>
-    <row r="13" spans="1:24" ht="15">
+    <row r="13" spans="1:24" ht="13.2">
       <c r="A13" s="67"/>
       <c r="B13" s="74"/>
       <c r="C13" s="79"/>
       <c r="D13" s="78"/>
     </row>
-    <row r="14" spans="1:24" ht="15">
+    <row r="14" spans="1:24" ht="13.2">
       <c r="A14" s="67"/>
       <c r="B14" s="74"/>
       <c r="C14" s="75"/>
       <c r="D14" s="78"/>
     </row>
-    <row r="15" spans="1:24" ht="15">
+    <row r="15" spans="1:24" ht="13.2">
       <c r="A15" s="67"/>
       <c r="B15" s="74"/>
       <c r="C15" s="75"/>
       <c r="D15" s="78"/>
     </row>
-    <row r="16" spans="1:24" ht="15">
+    <row r="16" spans="1:24" ht="13.2">
       <c r="A16" s="67"/>
       <c r="B16" s="74"/>
       <c r="C16" s="75"/>
       <c r="D16" s="78"/>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" ht="13.2">
       <c r="A17" s="67"/>
       <c r="B17" s="74"/>
       <c r="C17" s="75"/>
       <c r="D17" s="78"/>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4" ht="13.2">
       <c r="A18" s="67"/>
       <c r="B18" s="74"/>
       <c r="C18" s="75"/>
       <c r="D18" s="78"/>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4" ht="13.2">
       <c r="A19" s="67"/>
       <c r="B19" s="74"/>
       <c r="C19" s="75"/>
       <c r="D19" s="78"/>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4" ht="13.2">
       <c r="A20" s="67"/>
       <c r="B20" s="74"/>
       <c r="C20" s="75"/>
@@ -27739,18 +27755,18 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
-    <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="C8" r:id="rId3"/>
-    <hyperlink ref="C9" r:id="rId4"/>
-    <hyperlink ref="C10" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27794,7 +27810,7 @@
       <c r="C4" s="69"/>
       <c r="D4" s="81"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" thickBot="1">
+    <row r="5" spans="1:4" ht="13.8" thickBot="1">
       <c r="A5" s="66"/>
       <c r="B5" s="99" t="s">
         <v>648</v>
@@ -27806,7 +27822,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" thickTop="1">
+    <row r="6" spans="1:4" ht="13.8" thickTop="1">
       <c r="A6" s="67"/>
       <c r="B6" s="90" t="s">
         <v>637</v>
@@ -27818,7 +27834,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4">
       <c r="A7" s="67"/>
       <c r="B7" s="74" t="s">
         <v>639</v>
@@ -27830,7 +27846,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4">
       <c r="A8" s="67"/>
       <c r="B8" s="74" t="s">
         <v>641</v>
@@ -27842,7 +27858,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4">
       <c r="A9" s="67"/>
       <c r="B9" s="74" t="s">
         <v>643</v>
@@ -27854,7 +27870,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4">
       <c r="A10" s="67"/>
       <c r="B10" s="76" t="s">
         <v>645</v>
@@ -27866,92 +27882,92 @@
         <v>647</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4">
       <c r="A11" s="67"/>
       <c r="B11" s="74"/>
       <c r="C11" s="75"/>
       <c r="D11" s="78"/>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4">
       <c r="A12" s="67"/>
       <c r="B12" s="76"/>
       <c r="C12" s="75"/>
       <c r="D12" s="78"/>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4">
       <c r="A13" s="67"/>
       <c r="B13" s="74"/>
       <c r="C13" s="79"/>
       <c r="D13" s="78"/>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4">
       <c r="A14" s="67"/>
       <c r="B14" s="74"/>
       <c r="C14" s="75"/>
       <c r="D14" s="78"/>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4">
       <c r="A15" s="67"/>
       <c r="B15" s="74"/>
       <c r="C15" s="75"/>
       <c r="D15" s="78"/>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4">
       <c r="A16" s="67"/>
       <c r="B16" s="74"/>
       <c r="C16" s="75"/>
       <c r="D16" s="78"/>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4">
       <c r="A17" s="67"/>
       <c r="B17" s="74"/>
       <c r="C17" s="75"/>
       <c r="D17" s="78"/>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4">
       <c r="A18" s="67"/>
       <c r="B18" s="74"/>
       <c r="C18" s="75"/>
       <c r="D18" s="78"/>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4">
       <c r="A19" s="67"/>
       <c r="B19" s="74"/>
       <c r="C19" s="75"/>
       <c r="D19" s="78"/>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4">
       <c r="A20" s="67"/>
       <c r="B20" s="74"/>
       <c r="C20" s="75"/>
       <c r="D20" s="78"/>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4">
       <c r="B21" s="74"/>
       <c r="C21" s="75"/>
       <c r="D21" s="78"/>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4">
       <c r="B22" s="74"/>
       <c r="C22" s="75"/>
       <c r="D22" s="78"/>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4">
       <c r="B23" s="74"/>
       <c r="C23" s="75"/>
       <c r="D23" s="78"/>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4">
       <c r="B24" s="74"/>
       <c r="C24" s="75"/>
       <c r="D24" s="78"/>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4">
       <c r="B25" s="74"/>
       <c r="C25" s="75"/>
       <c r="D25" s="78"/>
     </row>
-    <row r="26" spans="1:4" ht="15">
+    <row r="26" spans="1:4">
       <c r="B26" s="74"/>
       <c r="C26" s="75"/>
       <c r="D26" s="78"/>
@@ -27993,22 +28009,22 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
-    <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="C8" r:id="rId3"/>
-    <hyperlink ref="C9" r:id="rId4"/>
-    <hyperlink ref="C10" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -28032,7 +28048,10 @@
         <v>649</v>
       </c>
       <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="D2" s="110" t="str">
+        <f>CONCATENATE(COUNTIF($B$6:$B$50,"DONE"), "/", COUNTA($D$6:$D$50), " completed  ")</f>
+        <v xml:space="preserve">1/5 completed  </v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="11.4" customHeight="1">
       <c r="A3" s="65"/>
@@ -28048,7 +28067,7 @@
       <c r="C4" s="69"/>
       <c r="D4" s="81"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" thickBot="1">
+    <row r="5" spans="1:4" ht="13.8" thickBot="1">
       <c r="A5" s="66"/>
       <c r="B5" s="92" t="s">
         <v>651</v>
@@ -28060,7 +28079,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" thickTop="1">
+    <row r="6" spans="1:4" ht="15" thickTop="1">
       <c r="A6" s="67"/>
       <c r="B6" s="90" t="s">
         <v>27</v>
@@ -28072,7 +28091,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="14.4">
       <c r="A7" s="67"/>
       <c r="B7" s="90"/>
       <c r="C7" s="100"/>
@@ -28080,7 +28099,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="14.4">
       <c r="A8" s="67"/>
       <c r="B8" s="90"/>
       <c r="C8" s="100"/>
@@ -28088,7 +28107,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="14.4">
       <c r="A9" s="67"/>
       <c r="B9" s="90"/>
       <c r="C9" s="100"/>
@@ -28096,7 +28115,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" ht="14.4">
       <c r="A10" s="67"/>
       <c r="B10" s="74"/>
       <c r="C10" s="100"/>
@@ -28104,92 +28123,92 @@
         <v>662</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="14.4">
       <c r="A11" s="67"/>
       <c r="B11" s="74"/>
       <c r="C11" s="100"/>
       <c r="D11" s="101"/>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="14.4">
       <c r="A12" s="67"/>
       <c r="B12" s="76"/>
       <c r="C12" s="100"/>
       <c r="D12" s="101"/>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" ht="14.4">
       <c r="A13" s="67"/>
       <c r="B13" s="74"/>
       <c r="C13" s="100"/>
       <c r="D13" s="101"/>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="14.4">
       <c r="A14" s="67"/>
       <c r="B14" s="74"/>
       <c r="C14" s="100"/>
       <c r="D14" s="101"/>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="14.4">
       <c r="A15" s="67"/>
       <c r="B15" s="74"/>
       <c r="C15" s="100"/>
       <c r="D15" s="101"/>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" ht="14.4">
       <c r="A16" s="67"/>
       <c r="B16" s="74"/>
       <c r="C16" s="100"/>
       <c r="D16" s="101"/>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" ht="14.4">
       <c r="A17" s="67"/>
       <c r="B17" s="74"/>
       <c r="C17" s="100"/>
       <c r="D17" s="101"/>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4" ht="14.4">
       <c r="A18" s="67"/>
       <c r="B18" s="74"/>
       <c r="C18" s="100"/>
       <c r="D18" s="101"/>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4" ht="14.4">
       <c r="A19" s="67"/>
       <c r="B19" s="74"/>
       <c r="C19" s="100"/>
       <c r="D19" s="101"/>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4" ht="14.4">
       <c r="A20" s="67"/>
       <c r="B20" s="74"/>
       <c r="C20" s="100"/>
       <c r="D20" s="101"/>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4" ht="14.4">
       <c r="B21" s="74"/>
       <c r="C21" s="100"/>
       <c r="D21" s="101"/>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4" ht="14.4">
       <c r="B22" s="74"/>
       <c r="C22" s="100"/>
       <c r="D22" s="101"/>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4" ht="14.4">
       <c r="B23" s="74"/>
       <c r="C23" s="100"/>
       <c r="D23" s="101"/>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4" ht="14.4">
       <c r="B24" s="74"/>
       <c r="C24" s="100"/>
       <c r="D24" s="101"/>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4" ht="14.4">
       <c r="B25" s="74"/>
       <c r="C25" s="100"/>
       <c r="D25" s="101"/>
     </row>
-    <row r="26" spans="1:4" ht="15">
+    <row r="26" spans="1:4" ht="14.4">
       <c r="B26" s="74"/>
       <c r="C26" s="100"/>
       <c r="D26" s="101"/>
@@ -28226,7 +28245,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5EBD88F1-3224-46FF-BD40-E9BB55E72FE4}">
